--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_s5p5v5_d.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_s5p5v5_d.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D15041-8566-4AD2-9DB3-3DF51B9732D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA29EA4E-2E2D-4151-B26B-398BC9D79CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2541,10 +2541,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH3,S1b0103h10,S1b0103h16,S1c0202h10,S1d0226h12,S1h0321h08,S1j0416h09,S1j0416h13,S1j0416h15,S1k0417h08,S1k0417h17,S2l1007h18,S2o1221h13,S2p1230h09,S2p1230h18,S1c0202h14,S1d0226h11,S1e0314h11,S1g0318h18,S1j0416h10,S2l1007h16,S2m1021h07,S2m1021h09,S2m1021h15,S2n1024h10,S2n1024h12,S2o1221h16,S1b0103h08,S1f0315h11,S1f0315h17,S1h0321h09,S1h0321h14,S1i0328h13,S1i0328h18,S1j0416h16,S1k0417h16,S1k0417h18,S2o1221h09,S2o1221h17,S2p1230h12,S1b0103h15,S1b0103h17,S1c0202h16,S1d0226h08,S1d0226h10,S1f0315h16,S1g0318h07,S1g0318h09,S1g0318h16,S1i0328h08,S2aH2,S2m1021h16,S2o1221h12,S2p1230h14,S1b0103h07,S1b0103h12,S1d0226h09,S1e0314h09,S1e0314h10,S1e0314h14,S1e0314h18,S1g0318h11,S1h0321h12,S1i0328h12,S1j0416h18,S2m1021h17,S2n1024h16,S1aH2,S1c0202h11,S1d0226h17,S1d0226h18,S1f0315h18,S1h0321h15,S1i0328h15,S1k0417h14,S2aH3,S2m1021h08,S2n1024h11,S2n1024h15,S2o1221h07,S1c0202h07,S1c0202h08,S1d0226h15,S1e0314h17,S1g0318h17,S1h0321h11,S1h0321h17,S1i0328h09,S1i0328h16,S2m1021h10,S2p1230h07,S1f0315h15,S1g0318h14,S1h0321h13,S1h0321h16,S1j0416h08,S1j0416h14,S2n1024h09,S1b0103h09,S1b0103h14,S1e0314h16,S1g0318h08,S1j0416h07,S1k0417h09,S1k0417h12,S2l1007h11,S2l1007h13,S2m1021h13,S2m1021h14,S2n1024h17,S2o1221h11,S2p1230h13,S1b0103h18,S1c0202h12,S1c0202h17,S1c0202h18,S1d0226h14,S1d0226h16,S1h0321h18,S1i0328h10,S1i0328h14,S2l1007h12,S2l1007h17,S2n1024h08,S2n1024h18,S2p1230h11,S1c0202h15,S1d0226h07,S1e0314h07,S1f0315h07,S1f0315h09,S1g0318h13,S2l1007h09,S2m1021h18,S2o1221h18,S2p1230h10,S1b0103h11,S1e0314h15,S1f0315h14,S1g0318h10,S1h0321h10,S1i0328h07,S1k0417h10,S2m1021h12,S2o1221h14,S2p1230h08,S2p1230h16,S2p1230h17,S1b0103h13,S1c0202h09,S1e0314h08,S1e0314h13,S1h0321h07,S1i0328h11,S1j0416h17,S2m1021h11,S2o1221h08,S1c0202h13,S1f0315h12,S1f0315h13,S1k0417h11,S2l1007h07,S2l1007h10,S2n1024h07,S2o1221h10,S1d0226h13,S1e0314h12,S1f0315h08,S1f0315h10,S1g0318h15,S1i0328h17,S1k0417h07,S1k0417h13,S2l1007h08,S2l1007h14,S2n1024h13,S2p1230h15,S1g0318h12,S1j0416h11,S1j0416h12,S1k0417h15,S2l1007h15,S2n1024h14,S2o1221h15</t>
-  </si>
-  <si>
-    <t>S1c0202h06,S1f0315h04,S1f0315h24,S1h0321h24,S1i0328h04,S1i0328h06,S2l1007h06,S2m1021h02,S2m1021h23,S2n1024h24,S2o1221h23,S1c0202h04,S1c0202h23,S1d0226h02,S1e0314h01,S1e0314h06,S1e0314h20,S1g0318h06,S1g0318h23,S1i0328h02,S1j0416h23,S1k0417h01,S1k0417h22,S2l1007h23,S2m1021h06,S2n1024h02,S2o1221h24,S1b0103h01,S1b0103h02,S1e0314h02,S1f0315h03,S1f0315h23,S1g0318h01,S1g0318h19,S1g0318h20,S1h0321h20,S1i0328h24,S1j0416h02,S1j0416h19,S1k0417h23,S1k0417h24,S2n1024h21,S2n1024h22,S1b0103h03,S1b0103h05,S1b0103h19,S1f0315h05,S1g0318h21,S1g0318h22,S1h0321h04,S2m1021h20,S2m1021h22,S2n1024h23,S2p1230h04,S1c0202h21,S1f0315h01,S1f0315h06,S1h0321h02,S1h0321h06,S1h0321h19,S1i0328h03,S1i0328h05,S1j0416h01,S1k0417h20,S2l1007h04,S2n1024h06,S2n1024h19,S2o1221h01,S2p1230h03,S2p1230h05,S2p1230h22,S1c0202h02,S1c0202h05,S1c0202h19,S1d0226h01,S1d0226h05,S1d0226h19,S1f0315h19,S1h0321h01,S1h0321h22,S1i0328h21,S1i0328h22,S1k0417h03,S2m1021h04,S2n1024h03,S2o1221h02,S2p1230h21,S1b0103h21,S1e0314h04,S1e0314h22,S1i0328h20,S1k0417h04,S1k0417h21,S2m1021h01,S2o1221h20,S2p1230h01,S2p1230h06,S1aH1,S1b0103h23,S1d0226h23,S1f0315h02,S1f0315h20,S1g0318h02,S2l1007h19,S2l1007h22,S2m1021h05,S2n1024h04,S2o1221h05,S1aH4,S1b0103h06,S1d0226h06,S1h0321h21,S2l1007h21,S2o1221h19,S2p1230h20,S1d0226h24,S1h0321h03,S1i0328h01,S1j0416h04,S1j0416h21,S2aH4,S2o1221h22,S1b0103h04,S1b0103h20,S1c0202h20,S1d0226h22,S1e0314h19,S1f0315h22,S1h0321h05,S1j0416h03,S1j0416h05,S1j0416h24,S2l1007h02,S2o1221h03,S1d0226h21,S1g0318h24,S1i0328h23,S1k0417h02,S2l1007h03,S2o1221h21,S2p1230h23,S1c0202h03,S1d0226h03,S1d0226h20,S1j0416h06,S1k0417h05,S1k0417h06,S1k0417h19,S2l1007h05,S2m1021h19,S2p1230h02,S1c0202h22,S1c0202h24,S1e0314h05,S1e0314h21,S1g0318h03,S1h0321h23,S1j0416h22,S2aH1,S2m1021h03,S2p1230h19,S2p1230h24,S1d0226h04,S1e0314h24,S1g0318h05,S1j0416h20,S2l1007h01,S2l1007h20,S2l1007h24,S2m1021h21,S2m1021h24,S2n1024h01,S2n1024h05,S1b0103h22,S1b0103h24,S1c0202h01,S1e0314h03,S1e0314h23,S1f0315h21,S1g0318h04,S1i0328h19,S2n1024h20,S2o1221h04,S2o1221h06</t>
+    <t>S1b0103h09,S1b0103h14,S1e0314h16,S1g0318h08,S1j0416h07,S1k0417h09,S1k0417h12,S2l1007h11,S2l1007h13,S2m1021h13,S2m1021h14,S2n1024h17,S2o1221h11,S2p1230h13,S1b0103h13,S1c0202h09,S1e0314h08,S1e0314h13,S1h0321h07,S1i0328h11,S1j0416h17,S2m1021h11,S2o1221h08,S1c0202h14,S1d0226h11,S1e0314h11,S1g0318h18,S1j0416h10,S2l1007h16,S2m1021h07,S2m1021h09,S2m1021h15,S2n1024h10,S2n1024h12,S2o1221h16,S1aH2,S1c0202h11,S1d0226h17,S1d0226h18,S1f0315h18,S1h0321h15,S1i0328h15,S1k0417h14,S2aH3,S2m1021h08,S2n1024h11,S2n1024h15,S2o1221h07,S1c0202h07,S1c0202h08,S1d0226h15,S1e0314h17,S1g0318h17,S1h0321h11,S1h0321h17,S1i0328h09,S1i0328h16,S2m1021h10,S2p1230h07,S1b0103h11,S1e0314h15,S1f0315h14,S1g0318h10,S1h0321h10,S1i0328h07,S1k0417h10,S2m1021h12,S2o1221h14,S2p1230h08,S2p1230h16,S2p1230h17,S1c0202h13,S1f0315h12,S1f0315h13,S1k0417h11,S2l1007h07,S2l1007h10,S2n1024h07,S2o1221h10,S1f0315h15,S1g0318h14,S1h0321h13,S1h0321h16,S1j0416h08,S1j0416h14,S2n1024h09,S1b0103h08,S1f0315h11,S1f0315h17,S1h0321h09,S1h0321h14,S1i0328h13,S1i0328h18,S1j0416h16,S1k0417h16,S1k0417h18,S2o1221h09,S2o1221h17,S2p1230h12,S1b0103h07,S1b0103h12,S1d0226h09,S1e0314h09,S1e0314h10,S1e0314h14,S1e0314h18,S1g0318h11,S1h0321h12,S1i0328h12,S1j0416h18,S2m1021h17,S2n1024h16,S1c0202h15,S1d0226h07,S1e0314h07,S1f0315h07,S1f0315h09,S1g0318h13,S2l1007h09,S2m1021h18,S2o1221h18,S2p1230h10,S1b0103h15,S1b0103h17,S1c0202h16,S1d0226h08,S1d0226h10,S1f0315h16,S1g0318h07,S1g0318h09,S1g0318h16,S1i0328h08,S2aH2,S2m1021h16,S2o1221h12,S2p1230h14,S1d0226h13,S1e0314h12,S1f0315h08,S1f0315h10,S1g0318h15,S1i0328h17,S1k0417h07,S1k0417h13,S2l1007h08,S2l1007h14,S2n1024h13,S2p1230h15,S1g0318h12,S1j0416h11,S1j0416h12,S1k0417h15,S2l1007h15,S2n1024h14,S2o1221h15,S1aH3,S1b0103h10,S1b0103h16,S1c0202h10,S1d0226h12,S1h0321h08,S1j0416h09,S1j0416h13,S1j0416h15,S1k0417h08,S1k0417h17,S2l1007h18,S2o1221h13,S2p1230h09,S2p1230h18,S1b0103h18,S1c0202h12,S1c0202h17,S1c0202h18,S1d0226h14,S1d0226h16,S1h0321h18,S1i0328h10,S1i0328h14,S2l1007h12,S2l1007h17,S2n1024h08,S2n1024h18,S2p1230h11</t>
+  </si>
+  <si>
+    <t>S1aH4,S1b0103h06,S1d0226h06,S1h0321h21,S2l1007h21,S2o1221h19,S2p1230h20,S1c0202h03,S1d0226h03,S1d0226h20,S1j0416h06,S1k0417h05,S1k0417h06,S1k0417h19,S2l1007h05,S2m1021h19,S2p1230h02,S1c0202h04,S1c0202h23,S1d0226h02,S1e0314h01,S1e0314h06,S1e0314h20,S1g0318h06,S1g0318h23,S1i0328h02,S1j0416h23,S1k0417h01,S1k0417h22,S2l1007h23,S2m1021h06,S2n1024h02,S2o1221h24,S1c0202h02,S1c0202h05,S1c0202h19,S1d0226h01,S1d0226h05,S1d0226h19,S1f0315h19,S1h0321h01,S1h0321h22,S1i0328h21,S1i0328h22,S1k0417h03,S2m1021h04,S2n1024h03,S2o1221h02,S2p1230h21,S1b0103h21,S1e0314h04,S1e0314h22,S1i0328h20,S1k0417h04,S1k0417h21,S2m1021h01,S2o1221h20,S2p1230h01,S2p1230h06,S1d0226h21,S1g0318h24,S1i0328h23,S1k0417h02,S2l1007h03,S2o1221h21,S2p1230h23,S1c0202h22,S1c0202h24,S1e0314h05,S1e0314h21,S1g0318h03,S1h0321h23,S1j0416h22,S2aH1,S2m1021h03,S2p1230h19,S2p1230h24,S1aH1,S1b0103h23,S1d0226h23,S1f0315h02,S1f0315h20,S1g0318h02,S2l1007h19,S2l1007h22,S2m1021h05,S2n1024h04,S2o1221h05,S1b0103h01,S1b0103h02,S1e0314h02,S1f0315h03,S1f0315h23,S1g0318h01,S1g0318h19,S1g0318h20,S1h0321h20,S1i0328h24,S1j0416h02,S1j0416h19,S1k0417h23,S1k0417h24,S2n1024h21,S2n1024h22,S1c0202h21,S1f0315h01,S1f0315h06,S1h0321h02,S1h0321h06,S1h0321h19,S1i0328h03,S1i0328h05,S1j0416h01,S1k0417h20,S2l1007h04,S2n1024h06,S2n1024h19,S2o1221h01,S2p1230h03,S2p1230h05,S2p1230h22,S1b0103h04,S1b0103h20,S1c0202h20,S1d0226h22,S1e0314h19,S1f0315h22,S1h0321h05,S1j0416h03,S1j0416h05,S1j0416h24,S2l1007h02,S2o1221h03,S1b0103h03,S1b0103h05,S1b0103h19,S1f0315h05,S1g0318h21,S1g0318h22,S1h0321h04,S2m1021h20,S2m1021h22,S2n1024h23,S2p1230h04,S1d0226h04,S1e0314h24,S1g0318h05,S1j0416h20,S2l1007h01,S2l1007h20,S2l1007h24,S2m1021h21,S2m1021h24,S2n1024h01,S2n1024h05,S1b0103h22,S1b0103h24,S1c0202h01,S1e0314h03,S1e0314h23,S1f0315h21,S1g0318h04,S1i0328h19,S2n1024h20,S2o1221h04,S2o1221h06,S1c0202h06,S1f0315h04,S1f0315h24,S1h0321h24,S1i0328h04,S1i0328h06,S2l1007h06,S2m1021h02,S2m1021h23,S2n1024h24,S2o1221h23,S1d0226h24,S1h0321h03,S1i0328h01,S1j0416h04,S1j0416h21,S2aH4,S2o1221h22</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3116,7 +3116,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1c0202h06,S1f0315h04,S1f0315h24,S1h0321h24,S1i0328h04,S1i0328h06,S2l1007h06,S2m1021h02,S2m1021h23,S2n1024h24,S2o1221h23,S1c0202h04,S1c0202h23,S1d0226h02,S1e0314h01,S1e0314h06,S1e0314h20,S1g0318h06,S1g0318h23,S1i0328h02,S1j0416h23,S1k0417h01,S1k0417h22,S2l1007h23,S2m1021h06,S2n1024h02,S2o1221h24,S1b0103h01,S1b0103h02,S1e0314h02,S1f0315h03,S1f0315h23,S1g0318h01,S1g0318h19,S1g0318h20,S1h0321h20,S1i0328h24,S1j0416h02,S1j0416h19,S1k0417h23,S1k0417h24,S2n1024h21,S2n1024h22,S1b0103h03,S1b0103h05,S1b0103h19,S1f0315h05,S1g0318h21,S1g0318h22,S1h0321h04,S2m1021h20,S2m1021h22,S2n1024h23,S2p1230h04,S1c0202h21,S1f0315h01,S1f0315h06,S1h0321h02,S1h0321h06,S1h0321h19,S1i0328h03,S1i0328h05,S1j0416h01,S1k0417h20,S2l1007h04,S2n1024h06,S2n1024h19,S2o1221h01,S2p1230h03,S2p1230h05,S2p1230h22,S1c0202h02,S1c0202h05,S1c0202h19,S1d0226h01,S1d0226h05,S1d0226h19,S1f0315h19,S1h0321h01,S1h0321h22,S1i0328h21,S1i0328h22,S1k0417h03,S2m1021h04,S2n1024h03,S2o1221h02,S2p1230h21,S1b0103h21,S1e0314h04,S1e0314h22,S1i0328h20,S1k0417h04,S1k0417h21,S2m1021h01,S2o1221h20,S2p1230h01,S2p1230h06,S1aH1,S1b0103h23,S1d0226h23,S1f0315h02,S1f0315h20,S1g0318h02,S2l1007h19,S2l1007h22,S2m1021h05,S2n1024h04,S2o1221h05,S1aH4,S1b0103h06,S1d0226h06,S1h0321h21,S2l1007h21,S2o1221h19,S2p1230h20,S1d0226h24,S1h0321h03,S1i0328h01,S1j0416h04,S1j0416h21,S2aH4,S2o1221h22,S1b0103h04,S1b0103h20,S1c0202h20,S1d0226h22,S1e0314h19,S1f0315h22,S1h0321h05,S1j0416h03,S1j0416h05,S1j0416h24,S2l1007h02,S2o1221h03,S1d0226h21,S1g0318h24,S1i0328h23,S1k0417h02,S2l1007h03,S2o1221h21,S2p1230h23,S1c0202h03,S1d0226h03,S1d0226h20,S1j0416h06,S1k0417h05,S1k0417h06,S1k0417h19,S2l1007h05,S2m1021h19,S2p1230h02,S1c0202h22,S1c0202h24,S1e0314h05,S1e0314h21,S1g0318h03,S1h0321h23,S1j0416h22,S2aH1,S2m1021h03,S2p1230h19,S2p1230h24,S1d0226h04,S1e0314h24,S1g0318h05,S1j0416h20,S2l1007h01,S2l1007h20,S2l1007h24,S2m1021h21,S2m1021h24,S2n1024h01,S2n1024h05,S1b0103h22,S1b0103h24,S1c0202h01,S1e0314h03,S1e0314h23,S1f0315h21,S1g0318h04,S1i0328h19,S2n1024h20,S2o1221h04,S2o1221h06</v>
+        <v>S1aH4,S1b0103h06,S1d0226h06,S1h0321h21,S2l1007h21,S2o1221h19,S2p1230h20,S1c0202h03,S1d0226h03,S1d0226h20,S1j0416h06,S1k0417h05,S1k0417h06,S1k0417h19,S2l1007h05,S2m1021h19,S2p1230h02,S1c0202h04,S1c0202h23,S1d0226h02,S1e0314h01,S1e0314h06,S1e0314h20,S1g0318h06,S1g0318h23,S1i0328h02,S1j0416h23,S1k0417h01,S1k0417h22,S2l1007h23,S2m1021h06,S2n1024h02,S2o1221h24,S1c0202h02,S1c0202h05,S1c0202h19,S1d0226h01,S1d0226h05,S1d0226h19,S1f0315h19,S1h0321h01,S1h0321h22,S1i0328h21,S1i0328h22,S1k0417h03,S2m1021h04,S2n1024h03,S2o1221h02,S2p1230h21,S1b0103h21,S1e0314h04,S1e0314h22,S1i0328h20,S1k0417h04,S1k0417h21,S2m1021h01,S2o1221h20,S2p1230h01,S2p1230h06,S1d0226h21,S1g0318h24,S1i0328h23,S1k0417h02,S2l1007h03,S2o1221h21,S2p1230h23,S1c0202h22,S1c0202h24,S1e0314h05,S1e0314h21,S1g0318h03,S1h0321h23,S1j0416h22,S2aH1,S2m1021h03,S2p1230h19,S2p1230h24,S1aH1,S1b0103h23,S1d0226h23,S1f0315h02,S1f0315h20,S1g0318h02,S2l1007h19,S2l1007h22,S2m1021h05,S2n1024h04,S2o1221h05,S1b0103h01,S1b0103h02,S1e0314h02,S1f0315h03,S1f0315h23,S1g0318h01,S1g0318h19,S1g0318h20,S1h0321h20,S1i0328h24,S1j0416h02,S1j0416h19,S1k0417h23,S1k0417h24,S2n1024h21,S2n1024h22,S1c0202h21,S1f0315h01,S1f0315h06,S1h0321h02,S1h0321h06,S1h0321h19,S1i0328h03,S1i0328h05,S1j0416h01,S1k0417h20,S2l1007h04,S2n1024h06,S2n1024h19,S2o1221h01,S2p1230h03,S2p1230h05,S2p1230h22,S1b0103h04,S1b0103h20,S1c0202h20,S1d0226h22,S1e0314h19,S1f0315h22,S1h0321h05,S1j0416h03,S1j0416h05,S1j0416h24,S2l1007h02,S2o1221h03,S1b0103h03,S1b0103h05,S1b0103h19,S1f0315h05,S1g0318h21,S1g0318h22,S1h0321h04,S2m1021h20,S2m1021h22,S2n1024h23,S2p1230h04,S1d0226h04,S1e0314h24,S1g0318h05,S1j0416h20,S2l1007h01,S2l1007h20,S2l1007h24,S2m1021h21,S2m1021h24,S2n1024h01,S2n1024h05,S1b0103h22,S1b0103h24,S1c0202h01,S1e0314h03,S1e0314h23,S1f0315h21,S1g0318h04,S1i0328h19,S2n1024h20,S2o1221h04,S2o1221h06,S1c0202h06,S1f0315h04,S1f0315h24,S1h0321h24,S1i0328h04,S1i0328h06,S2l1007h06,S2m1021h02,S2m1021h23,S2n1024h24,S2o1221h23,S1d0226h24,S1h0321h03,S1i0328h01,S1j0416h04,S1j0416h21,S2aH4,S2o1221h22</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3148,7 +3148,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH3,S1b0103h10,S1b0103h16,S1c0202h10,S1d0226h12,S1h0321h08,S1j0416h09,S1j0416h13,S1j0416h15,S1k0417h08,S1k0417h17,S2l1007h18,S2o1221h13,S2p1230h09,S2p1230h18,S1c0202h14,S1d0226h11,S1e0314h11,S1g0318h18,S1j0416h10,S2l1007h16,S2m1021h07,S2m1021h09,S2m1021h15,S2n1024h10,S2n1024h12,S2o1221h16,S1b0103h08,S1f0315h11,S1f0315h17,S1h0321h09,S1h0321h14,S1i0328h13,S1i0328h18,S1j0416h16,S1k0417h16,S1k0417h18,S2o1221h09,S2o1221h17,S2p1230h12,S1b0103h15,S1b0103h17,S1c0202h16,S1d0226h08,S1d0226h10,S1f0315h16,S1g0318h07,S1g0318h09,S1g0318h16,S1i0328h08,S2aH2,S2m1021h16,S2o1221h12,S2p1230h14,S1b0103h07,S1b0103h12,S1d0226h09,S1e0314h09,S1e0314h10,S1e0314h14,S1e0314h18,S1g0318h11,S1h0321h12,S1i0328h12,S1j0416h18,S2m1021h17,S2n1024h16,S1aH2,S1c0202h11,S1d0226h17,S1d0226h18,S1f0315h18,S1h0321h15,S1i0328h15,S1k0417h14,S2aH3,S2m1021h08,S2n1024h11,S2n1024h15,S2o1221h07,S1c0202h07,S1c0202h08,S1d0226h15,S1e0314h17,S1g0318h17,S1h0321h11,S1h0321h17,S1i0328h09,S1i0328h16,S2m1021h10,S2p1230h07,S1f0315h15,S1g0318h14,S1h0321h13,S1h0321h16,S1j0416h08,S1j0416h14,S2n1024h09,S1b0103h09,S1b0103h14,S1e0314h16,S1g0318h08,S1j0416h07,S1k0417h09,S1k0417h12,S2l1007h11,S2l1007h13,S2m1021h13,S2m1021h14,S2n1024h17,S2o1221h11,S2p1230h13,S1b0103h18,S1c0202h12,S1c0202h17,S1c0202h18,S1d0226h14,S1d0226h16,S1h0321h18,S1i0328h10,S1i0328h14,S2l1007h12,S2l1007h17,S2n1024h08,S2n1024h18,S2p1230h11,S1c0202h15,S1d0226h07,S1e0314h07,S1f0315h07,S1f0315h09,S1g0318h13,S2l1007h09,S2m1021h18,S2o1221h18,S2p1230h10,S1b0103h11,S1e0314h15,S1f0315h14,S1g0318h10,S1h0321h10,S1i0328h07,S1k0417h10,S2m1021h12,S2o1221h14,S2p1230h08,S2p1230h16,S2p1230h17,S1b0103h13,S1c0202h09,S1e0314h08,S1e0314h13,S1h0321h07,S1i0328h11,S1j0416h17,S2m1021h11,S2o1221h08,S1c0202h13,S1f0315h12,S1f0315h13,S1k0417h11,S2l1007h07,S2l1007h10,S2n1024h07,S2o1221h10,S1d0226h13,S1e0314h12,S1f0315h08,S1f0315h10,S1g0318h15,S1i0328h17,S1k0417h07,S1k0417h13,S2l1007h08,S2l1007h14,S2n1024h13,S2p1230h15,S1g0318h12,S1j0416h11,S1j0416h12,S1k0417h15,S2l1007h15,S2n1024h14,S2o1221h15</v>
+        <v>S1b0103h09,S1b0103h14,S1e0314h16,S1g0318h08,S1j0416h07,S1k0417h09,S1k0417h12,S2l1007h11,S2l1007h13,S2m1021h13,S2m1021h14,S2n1024h17,S2o1221h11,S2p1230h13,S1b0103h13,S1c0202h09,S1e0314h08,S1e0314h13,S1h0321h07,S1i0328h11,S1j0416h17,S2m1021h11,S2o1221h08,S1c0202h14,S1d0226h11,S1e0314h11,S1g0318h18,S1j0416h10,S2l1007h16,S2m1021h07,S2m1021h09,S2m1021h15,S2n1024h10,S2n1024h12,S2o1221h16,S1aH2,S1c0202h11,S1d0226h17,S1d0226h18,S1f0315h18,S1h0321h15,S1i0328h15,S1k0417h14,S2aH3,S2m1021h08,S2n1024h11,S2n1024h15,S2o1221h07,S1c0202h07,S1c0202h08,S1d0226h15,S1e0314h17,S1g0318h17,S1h0321h11,S1h0321h17,S1i0328h09,S1i0328h16,S2m1021h10,S2p1230h07,S1b0103h11,S1e0314h15,S1f0315h14,S1g0318h10,S1h0321h10,S1i0328h07,S1k0417h10,S2m1021h12,S2o1221h14,S2p1230h08,S2p1230h16,S2p1230h17,S1c0202h13,S1f0315h12,S1f0315h13,S1k0417h11,S2l1007h07,S2l1007h10,S2n1024h07,S2o1221h10,S1f0315h15,S1g0318h14,S1h0321h13,S1h0321h16,S1j0416h08,S1j0416h14,S2n1024h09,S1b0103h08,S1f0315h11,S1f0315h17,S1h0321h09,S1h0321h14,S1i0328h13,S1i0328h18,S1j0416h16,S1k0417h16,S1k0417h18,S2o1221h09,S2o1221h17,S2p1230h12,S1b0103h07,S1b0103h12,S1d0226h09,S1e0314h09,S1e0314h10,S1e0314h14,S1e0314h18,S1g0318h11,S1h0321h12,S1i0328h12,S1j0416h18,S2m1021h17,S2n1024h16,S1c0202h15,S1d0226h07,S1e0314h07,S1f0315h07,S1f0315h09,S1g0318h13,S2l1007h09,S2m1021h18,S2o1221h18,S2p1230h10,S1b0103h15,S1b0103h17,S1c0202h16,S1d0226h08,S1d0226h10,S1f0315h16,S1g0318h07,S1g0318h09,S1g0318h16,S1i0328h08,S2aH2,S2m1021h16,S2o1221h12,S2p1230h14,S1d0226h13,S1e0314h12,S1f0315h08,S1f0315h10,S1g0318h15,S1i0328h17,S1k0417h07,S1k0417h13,S2l1007h08,S2l1007h14,S2n1024h13,S2p1230h15,S1g0318h12,S1j0416h11,S1j0416h12,S1k0417h15,S2l1007h15,S2n1024h14,S2o1221h15,S1aH3,S1b0103h10,S1b0103h16,S1c0202h10,S1d0226h12,S1h0321h08,S1j0416h09,S1j0416h13,S1j0416h15,S1k0417h08,S1k0417h17,S2l1007h18,S2o1221h13,S2p1230h09,S2p1230h18,S1b0103h18,S1c0202h12,S1c0202h17,S1c0202h18,S1d0226h14,S1d0226h16,S1h0321h18,S1i0328h10,S1i0328h14,S2l1007h12,S2l1007h17,S2n1024h08,S2n1024h18,S2p1230h11</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3761,7 +3761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96CCE9DA-0A2F-4181-940E-74A0856790E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C130F102-94CE-44C8-AA01-D5D1F3BCC78B}">
   <dimension ref="B2:F367"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6810,7 +6810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1A3C085-4FC3-4D6F-B1A7-D5842262B9FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F3B9764-8BBF-4FAB-A377-EA1CE1CDE787}">
   <dimension ref="B2:O371"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6892,7 +6892,7 @@
         <v>75</v>
       </c>
       <c r="N4">
-        <v>0.85512494215640888</v>
+        <v>0.855124942156409</v>
       </c>
       <c r="O4" t="s">
         <v>840</v>
@@ -6927,7 +6927,7 @@
         <v>79</v>
       </c>
       <c r="N5">
-        <v>0.34487505784359085</v>
+        <v>0.3448750578435909</v>
       </c>
       <c r="O5" t="s">
         <v>840</v>
@@ -16455,7 +16455,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43D95A4A-5CBF-427F-B053-591FF425E7EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B054671D-3AB0-489C-8FDA-AC7231BF6B5D}">
   <dimension ref="B2:O739"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_s5p5v5_d.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_s5p5v5_d.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA29EA4E-2E2D-4151-B26B-398BC9D79CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19329B82-C0E3-45C3-89C2-50D9BD175B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2541,10 +2541,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1b0103h09,S1b0103h14,S1e0314h16,S1g0318h08,S1j0416h07,S1k0417h09,S1k0417h12,S2l1007h11,S2l1007h13,S2m1021h13,S2m1021h14,S2n1024h17,S2o1221h11,S2p1230h13,S1b0103h13,S1c0202h09,S1e0314h08,S1e0314h13,S1h0321h07,S1i0328h11,S1j0416h17,S2m1021h11,S2o1221h08,S1c0202h14,S1d0226h11,S1e0314h11,S1g0318h18,S1j0416h10,S2l1007h16,S2m1021h07,S2m1021h09,S2m1021h15,S2n1024h10,S2n1024h12,S2o1221h16,S1aH2,S1c0202h11,S1d0226h17,S1d0226h18,S1f0315h18,S1h0321h15,S1i0328h15,S1k0417h14,S2aH3,S2m1021h08,S2n1024h11,S2n1024h15,S2o1221h07,S1c0202h07,S1c0202h08,S1d0226h15,S1e0314h17,S1g0318h17,S1h0321h11,S1h0321h17,S1i0328h09,S1i0328h16,S2m1021h10,S2p1230h07,S1b0103h11,S1e0314h15,S1f0315h14,S1g0318h10,S1h0321h10,S1i0328h07,S1k0417h10,S2m1021h12,S2o1221h14,S2p1230h08,S2p1230h16,S2p1230h17,S1c0202h13,S1f0315h12,S1f0315h13,S1k0417h11,S2l1007h07,S2l1007h10,S2n1024h07,S2o1221h10,S1f0315h15,S1g0318h14,S1h0321h13,S1h0321h16,S1j0416h08,S1j0416h14,S2n1024h09,S1b0103h08,S1f0315h11,S1f0315h17,S1h0321h09,S1h0321h14,S1i0328h13,S1i0328h18,S1j0416h16,S1k0417h16,S1k0417h18,S2o1221h09,S2o1221h17,S2p1230h12,S1b0103h07,S1b0103h12,S1d0226h09,S1e0314h09,S1e0314h10,S1e0314h14,S1e0314h18,S1g0318h11,S1h0321h12,S1i0328h12,S1j0416h18,S2m1021h17,S2n1024h16,S1c0202h15,S1d0226h07,S1e0314h07,S1f0315h07,S1f0315h09,S1g0318h13,S2l1007h09,S2m1021h18,S2o1221h18,S2p1230h10,S1b0103h15,S1b0103h17,S1c0202h16,S1d0226h08,S1d0226h10,S1f0315h16,S1g0318h07,S1g0318h09,S1g0318h16,S1i0328h08,S2aH2,S2m1021h16,S2o1221h12,S2p1230h14,S1d0226h13,S1e0314h12,S1f0315h08,S1f0315h10,S1g0318h15,S1i0328h17,S1k0417h07,S1k0417h13,S2l1007h08,S2l1007h14,S2n1024h13,S2p1230h15,S1g0318h12,S1j0416h11,S1j0416h12,S1k0417h15,S2l1007h15,S2n1024h14,S2o1221h15,S1aH3,S1b0103h10,S1b0103h16,S1c0202h10,S1d0226h12,S1h0321h08,S1j0416h09,S1j0416h13,S1j0416h15,S1k0417h08,S1k0417h17,S2l1007h18,S2o1221h13,S2p1230h09,S2p1230h18,S1b0103h18,S1c0202h12,S1c0202h17,S1c0202h18,S1d0226h14,S1d0226h16,S1h0321h18,S1i0328h10,S1i0328h14,S2l1007h12,S2l1007h17,S2n1024h08,S2n1024h18,S2p1230h11</t>
-  </si>
-  <si>
-    <t>S1aH4,S1b0103h06,S1d0226h06,S1h0321h21,S2l1007h21,S2o1221h19,S2p1230h20,S1c0202h03,S1d0226h03,S1d0226h20,S1j0416h06,S1k0417h05,S1k0417h06,S1k0417h19,S2l1007h05,S2m1021h19,S2p1230h02,S1c0202h04,S1c0202h23,S1d0226h02,S1e0314h01,S1e0314h06,S1e0314h20,S1g0318h06,S1g0318h23,S1i0328h02,S1j0416h23,S1k0417h01,S1k0417h22,S2l1007h23,S2m1021h06,S2n1024h02,S2o1221h24,S1c0202h02,S1c0202h05,S1c0202h19,S1d0226h01,S1d0226h05,S1d0226h19,S1f0315h19,S1h0321h01,S1h0321h22,S1i0328h21,S1i0328h22,S1k0417h03,S2m1021h04,S2n1024h03,S2o1221h02,S2p1230h21,S1b0103h21,S1e0314h04,S1e0314h22,S1i0328h20,S1k0417h04,S1k0417h21,S2m1021h01,S2o1221h20,S2p1230h01,S2p1230h06,S1d0226h21,S1g0318h24,S1i0328h23,S1k0417h02,S2l1007h03,S2o1221h21,S2p1230h23,S1c0202h22,S1c0202h24,S1e0314h05,S1e0314h21,S1g0318h03,S1h0321h23,S1j0416h22,S2aH1,S2m1021h03,S2p1230h19,S2p1230h24,S1aH1,S1b0103h23,S1d0226h23,S1f0315h02,S1f0315h20,S1g0318h02,S2l1007h19,S2l1007h22,S2m1021h05,S2n1024h04,S2o1221h05,S1b0103h01,S1b0103h02,S1e0314h02,S1f0315h03,S1f0315h23,S1g0318h01,S1g0318h19,S1g0318h20,S1h0321h20,S1i0328h24,S1j0416h02,S1j0416h19,S1k0417h23,S1k0417h24,S2n1024h21,S2n1024h22,S1c0202h21,S1f0315h01,S1f0315h06,S1h0321h02,S1h0321h06,S1h0321h19,S1i0328h03,S1i0328h05,S1j0416h01,S1k0417h20,S2l1007h04,S2n1024h06,S2n1024h19,S2o1221h01,S2p1230h03,S2p1230h05,S2p1230h22,S1b0103h04,S1b0103h20,S1c0202h20,S1d0226h22,S1e0314h19,S1f0315h22,S1h0321h05,S1j0416h03,S1j0416h05,S1j0416h24,S2l1007h02,S2o1221h03,S1b0103h03,S1b0103h05,S1b0103h19,S1f0315h05,S1g0318h21,S1g0318h22,S1h0321h04,S2m1021h20,S2m1021h22,S2n1024h23,S2p1230h04,S1d0226h04,S1e0314h24,S1g0318h05,S1j0416h20,S2l1007h01,S2l1007h20,S2l1007h24,S2m1021h21,S2m1021h24,S2n1024h01,S2n1024h05,S1b0103h22,S1b0103h24,S1c0202h01,S1e0314h03,S1e0314h23,S1f0315h21,S1g0318h04,S1i0328h19,S2n1024h20,S2o1221h04,S2o1221h06,S1c0202h06,S1f0315h04,S1f0315h24,S1h0321h24,S1i0328h04,S1i0328h06,S2l1007h06,S2m1021h02,S2m1021h23,S2n1024h24,S2o1221h23,S1d0226h24,S1h0321h03,S1i0328h01,S1j0416h04,S1j0416h21,S2aH4,S2o1221h22</t>
+    <t>S1c0202h13,S1f0315h12,S1f0315h13,S1k0417h11,S2l1007h07,S2l1007h10,S2n1024h07,S2o1221h10,S1f0315h15,S1g0318h14,S1h0321h13,S1h0321h16,S1j0416h08,S1j0416h14,S2n1024h09,S1c0202h15,S1d0226h07,S1e0314h07,S1f0315h07,S1f0315h09,S1g0318h13,S2l1007h09,S2m1021h18,S2o1221h18,S2p1230h10,S1b0103h11,S1e0314h15,S1f0315h14,S1g0318h10,S1h0321h10,S1i0328h07,S1k0417h10,S2m1021h12,S2o1221h14,S2p1230h08,S2p1230h16,S2p1230h17,S1c0202h07,S1c0202h08,S1d0226h15,S1e0314h17,S1g0318h17,S1h0321h11,S1h0321h17,S1i0328h09,S1i0328h16,S2m1021h10,S2p1230h07,S1g0318h12,S1j0416h11,S1j0416h12,S1k0417h15,S2l1007h15,S2n1024h14,S2o1221h15,S1b0103h15,S1b0103h17,S1c0202h16,S1d0226h08,S1d0226h10,S1f0315h16,S1g0318h07,S1g0318h09,S1g0318h16,S1i0328h08,S2aH2,S2m1021h16,S2o1221h12,S2p1230h14,S1b0103h08,S1f0315h11,S1f0315h17,S1h0321h09,S1h0321h14,S1i0328h13,S1i0328h18,S1j0416h16,S1k0417h16,S1k0417h18,S2o1221h09,S2o1221h17,S2p1230h12,S1c0202h14,S1d0226h11,S1e0314h11,S1g0318h18,S1j0416h10,S2l1007h16,S2m1021h07,S2m1021h09,S2m1021h15,S2n1024h10,S2n1024h12,S2o1221h16,S1d0226h13,S1e0314h12,S1f0315h08,S1f0315h10,S1g0318h15,S1i0328h17,S1k0417h07,S1k0417h13,S2l1007h08,S2l1007h14,S2n1024h13,S2p1230h15,S1b0103h13,S1c0202h09,S1e0314h08,S1e0314h13,S1h0321h07,S1i0328h11,S1j0416h17,S2m1021h11,S2o1221h08,S1b0103h07,S1b0103h12,S1d0226h09,S1e0314h09,S1e0314h10,S1e0314h14,S1e0314h18,S1g0318h11,S1h0321h12,S1i0328h12,S1j0416h18,S2m1021h17,S2n1024h16,S1aH3,S1b0103h10,S1b0103h16,S1c0202h10,S1d0226h12,S1h0321h08,S1j0416h09,S1j0416h13,S1j0416h15,S1k0417h08,S1k0417h17,S2l1007h18,S2o1221h13,S2p1230h09,S2p1230h18,S1b0103h18,S1c0202h12,S1c0202h17,S1c0202h18,S1d0226h14,S1d0226h16,S1h0321h18,S1i0328h10,S1i0328h14,S2l1007h12,S2l1007h17,S2n1024h08,S2n1024h18,S2p1230h11,S1b0103h09,S1b0103h14,S1e0314h16,S1g0318h08,S1j0416h07,S1k0417h09,S1k0417h12,S2l1007h11,S2l1007h13,S2m1021h13,S2m1021h14,S2n1024h17,S2o1221h11,S2p1230h13,S1aH2,S1c0202h11,S1d0226h17,S1d0226h18,S1f0315h18,S1h0321h15,S1i0328h15,S1k0417h14,S2aH3,S2m1021h08,S2n1024h11,S2n1024h15,S2o1221h07</t>
+  </si>
+  <si>
+    <t>S1c0202h22,S1c0202h24,S1e0314h05,S1e0314h21,S1g0318h03,S1h0321h23,S1j0416h22,S2aH1,S2m1021h03,S2p1230h19,S2p1230h24,S1aH1,S1b0103h23,S1d0226h23,S1f0315h02,S1f0315h20,S1g0318h02,S2l1007h19,S2l1007h22,S2m1021h05,S2n1024h04,S2o1221h05,S1b0103h04,S1b0103h20,S1c0202h20,S1d0226h22,S1e0314h19,S1f0315h22,S1h0321h05,S1j0416h03,S1j0416h05,S1j0416h24,S2l1007h02,S2o1221h03,S1d0226h21,S1g0318h24,S1i0328h23,S1k0417h02,S2l1007h03,S2o1221h21,S2p1230h23,S1b0103h21,S1e0314h04,S1e0314h22,S1i0328h20,S1k0417h04,S1k0417h21,S2m1021h01,S2o1221h20,S2p1230h01,S2p1230h06,S1b0103h22,S1b0103h24,S1c0202h01,S1e0314h03,S1e0314h23,S1f0315h21,S1g0318h04,S1i0328h19,S2n1024h20,S2o1221h04,S2o1221h06,S1b0103h03,S1b0103h05,S1b0103h19,S1f0315h05,S1g0318h21,S1g0318h22,S1h0321h04,S2m1021h20,S2m1021h22,S2n1024h23,S2p1230h04,S1b0103h01,S1b0103h02,S1e0314h02,S1f0315h03,S1f0315h23,S1g0318h01,S1g0318h19,S1g0318h20,S1h0321h20,S1i0328h24,S1j0416h02,S1j0416h19,S1k0417h23,S1k0417h24,S2n1024h21,S2n1024h22,S1c0202h04,S1c0202h23,S1d0226h02,S1e0314h01,S1e0314h06,S1e0314h20,S1g0318h06,S1g0318h23,S1i0328h02,S1j0416h23,S1k0417h01,S1k0417h22,S2l1007h23,S2m1021h06,S2n1024h02,S2o1221h24,S1d0226h04,S1e0314h24,S1g0318h05,S1j0416h20,S2l1007h01,S2l1007h20,S2l1007h24,S2m1021h21,S2m1021h24,S2n1024h01,S2n1024h05,S1c0202h03,S1d0226h03,S1d0226h20,S1j0416h06,S1k0417h05,S1k0417h06,S1k0417h19,S2l1007h05,S2m1021h19,S2p1230h02,S1c0202h21,S1f0315h01,S1f0315h06,S1h0321h02,S1h0321h06,S1h0321h19,S1i0328h03,S1i0328h05,S1j0416h01,S1k0417h20,S2l1007h04,S2n1024h06,S2n1024h19,S2o1221h01,S2p1230h03,S2p1230h05,S2p1230h22,S1c0202h06,S1f0315h04,S1f0315h24,S1h0321h24,S1i0328h04,S1i0328h06,S2l1007h06,S2m1021h02,S2m1021h23,S2n1024h24,S2o1221h23,S1d0226h24,S1h0321h03,S1i0328h01,S1j0416h04,S1j0416h21,S2aH4,S2o1221h22,S1aH4,S1b0103h06,S1d0226h06,S1h0321h21,S2l1007h21,S2o1221h19,S2p1230h20,S1c0202h02,S1c0202h05,S1c0202h19,S1d0226h01,S1d0226h05,S1d0226h19,S1f0315h19,S1h0321h01,S1h0321h22,S1i0328h21,S1i0328h22,S1k0417h03,S2m1021h04,S2n1024h03,S2o1221h02,S2p1230h21</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3116,7 +3116,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1aH4,S1b0103h06,S1d0226h06,S1h0321h21,S2l1007h21,S2o1221h19,S2p1230h20,S1c0202h03,S1d0226h03,S1d0226h20,S1j0416h06,S1k0417h05,S1k0417h06,S1k0417h19,S2l1007h05,S2m1021h19,S2p1230h02,S1c0202h04,S1c0202h23,S1d0226h02,S1e0314h01,S1e0314h06,S1e0314h20,S1g0318h06,S1g0318h23,S1i0328h02,S1j0416h23,S1k0417h01,S1k0417h22,S2l1007h23,S2m1021h06,S2n1024h02,S2o1221h24,S1c0202h02,S1c0202h05,S1c0202h19,S1d0226h01,S1d0226h05,S1d0226h19,S1f0315h19,S1h0321h01,S1h0321h22,S1i0328h21,S1i0328h22,S1k0417h03,S2m1021h04,S2n1024h03,S2o1221h02,S2p1230h21,S1b0103h21,S1e0314h04,S1e0314h22,S1i0328h20,S1k0417h04,S1k0417h21,S2m1021h01,S2o1221h20,S2p1230h01,S2p1230h06,S1d0226h21,S1g0318h24,S1i0328h23,S1k0417h02,S2l1007h03,S2o1221h21,S2p1230h23,S1c0202h22,S1c0202h24,S1e0314h05,S1e0314h21,S1g0318h03,S1h0321h23,S1j0416h22,S2aH1,S2m1021h03,S2p1230h19,S2p1230h24,S1aH1,S1b0103h23,S1d0226h23,S1f0315h02,S1f0315h20,S1g0318h02,S2l1007h19,S2l1007h22,S2m1021h05,S2n1024h04,S2o1221h05,S1b0103h01,S1b0103h02,S1e0314h02,S1f0315h03,S1f0315h23,S1g0318h01,S1g0318h19,S1g0318h20,S1h0321h20,S1i0328h24,S1j0416h02,S1j0416h19,S1k0417h23,S1k0417h24,S2n1024h21,S2n1024h22,S1c0202h21,S1f0315h01,S1f0315h06,S1h0321h02,S1h0321h06,S1h0321h19,S1i0328h03,S1i0328h05,S1j0416h01,S1k0417h20,S2l1007h04,S2n1024h06,S2n1024h19,S2o1221h01,S2p1230h03,S2p1230h05,S2p1230h22,S1b0103h04,S1b0103h20,S1c0202h20,S1d0226h22,S1e0314h19,S1f0315h22,S1h0321h05,S1j0416h03,S1j0416h05,S1j0416h24,S2l1007h02,S2o1221h03,S1b0103h03,S1b0103h05,S1b0103h19,S1f0315h05,S1g0318h21,S1g0318h22,S1h0321h04,S2m1021h20,S2m1021h22,S2n1024h23,S2p1230h04,S1d0226h04,S1e0314h24,S1g0318h05,S1j0416h20,S2l1007h01,S2l1007h20,S2l1007h24,S2m1021h21,S2m1021h24,S2n1024h01,S2n1024h05,S1b0103h22,S1b0103h24,S1c0202h01,S1e0314h03,S1e0314h23,S1f0315h21,S1g0318h04,S1i0328h19,S2n1024h20,S2o1221h04,S2o1221h06,S1c0202h06,S1f0315h04,S1f0315h24,S1h0321h24,S1i0328h04,S1i0328h06,S2l1007h06,S2m1021h02,S2m1021h23,S2n1024h24,S2o1221h23,S1d0226h24,S1h0321h03,S1i0328h01,S1j0416h04,S1j0416h21,S2aH4,S2o1221h22</v>
+        <v>S1c0202h22,S1c0202h24,S1e0314h05,S1e0314h21,S1g0318h03,S1h0321h23,S1j0416h22,S2aH1,S2m1021h03,S2p1230h19,S2p1230h24,S1aH1,S1b0103h23,S1d0226h23,S1f0315h02,S1f0315h20,S1g0318h02,S2l1007h19,S2l1007h22,S2m1021h05,S2n1024h04,S2o1221h05,S1b0103h04,S1b0103h20,S1c0202h20,S1d0226h22,S1e0314h19,S1f0315h22,S1h0321h05,S1j0416h03,S1j0416h05,S1j0416h24,S2l1007h02,S2o1221h03,S1d0226h21,S1g0318h24,S1i0328h23,S1k0417h02,S2l1007h03,S2o1221h21,S2p1230h23,S1b0103h21,S1e0314h04,S1e0314h22,S1i0328h20,S1k0417h04,S1k0417h21,S2m1021h01,S2o1221h20,S2p1230h01,S2p1230h06,S1b0103h22,S1b0103h24,S1c0202h01,S1e0314h03,S1e0314h23,S1f0315h21,S1g0318h04,S1i0328h19,S2n1024h20,S2o1221h04,S2o1221h06,S1b0103h03,S1b0103h05,S1b0103h19,S1f0315h05,S1g0318h21,S1g0318h22,S1h0321h04,S2m1021h20,S2m1021h22,S2n1024h23,S2p1230h04,S1b0103h01,S1b0103h02,S1e0314h02,S1f0315h03,S1f0315h23,S1g0318h01,S1g0318h19,S1g0318h20,S1h0321h20,S1i0328h24,S1j0416h02,S1j0416h19,S1k0417h23,S1k0417h24,S2n1024h21,S2n1024h22,S1c0202h04,S1c0202h23,S1d0226h02,S1e0314h01,S1e0314h06,S1e0314h20,S1g0318h06,S1g0318h23,S1i0328h02,S1j0416h23,S1k0417h01,S1k0417h22,S2l1007h23,S2m1021h06,S2n1024h02,S2o1221h24,S1d0226h04,S1e0314h24,S1g0318h05,S1j0416h20,S2l1007h01,S2l1007h20,S2l1007h24,S2m1021h21,S2m1021h24,S2n1024h01,S2n1024h05,S1c0202h03,S1d0226h03,S1d0226h20,S1j0416h06,S1k0417h05,S1k0417h06,S1k0417h19,S2l1007h05,S2m1021h19,S2p1230h02,S1c0202h21,S1f0315h01,S1f0315h06,S1h0321h02,S1h0321h06,S1h0321h19,S1i0328h03,S1i0328h05,S1j0416h01,S1k0417h20,S2l1007h04,S2n1024h06,S2n1024h19,S2o1221h01,S2p1230h03,S2p1230h05,S2p1230h22,S1c0202h06,S1f0315h04,S1f0315h24,S1h0321h24,S1i0328h04,S1i0328h06,S2l1007h06,S2m1021h02,S2m1021h23,S2n1024h24,S2o1221h23,S1d0226h24,S1h0321h03,S1i0328h01,S1j0416h04,S1j0416h21,S2aH4,S2o1221h22,S1aH4,S1b0103h06,S1d0226h06,S1h0321h21,S2l1007h21,S2o1221h19,S2p1230h20,S1c0202h02,S1c0202h05,S1c0202h19,S1d0226h01,S1d0226h05,S1d0226h19,S1f0315h19,S1h0321h01,S1h0321h22,S1i0328h21,S1i0328h22,S1k0417h03,S2m1021h04,S2n1024h03,S2o1221h02,S2p1230h21</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3148,7 +3148,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1b0103h09,S1b0103h14,S1e0314h16,S1g0318h08,S1j0416h07,S1k0417h09,S1k0417h12,S2l1007h11,S2l1007h13,S2m1021h13,S2m1021h14,S2n1024h17,S2o1221h11,S2p1230h13,S1b0103h13,S1c0202h09,S1e0314h08,S1e0314h13,S1h0321h07,S1i0328h11,S1j0416h17,S2m1021h11,S2o1221h08,S1c0202h14,S1d0226h11,S1e0314h11,S1g0318h18,S1j0416h10,S2l1007h16,S2m1021h07,S2m1021h09,S2m1021h15,S2n1024h10,S2n1024h12,S2o1221h16,S1aH2,S1c0202h11,S1d0226h17,S1d0226h18,S1f0315h18,S1h0321h15,S1i0328h15,S1k0417h14,S2aH3,S2m1021h08,S2n1024h11,S2n1024h15,S2o1221h07,S1c0202h07,S1c0202h08,S1d0226h15,S1e0314h17,S1g0318h17,S1h0321h11,S1h0321h17,S1i0328h09,S1i0328h16,S2m1021h10,S2p1230h07,S1b0103h11,S1e0314h15,S1f0315h14,S1g0318h10,S1h0321h10,S1i0328h07,S1k0417h10,S2m1021h12,S2o1221h14,S2p1230h08,S2p1230h16,S2p1230h17,S1c0202h13,S1f0315h12,S1f0315h13,S1k0417h11,S2l1007h07,S2l1007h10,S2n1024h07,S2o1221h10,S1f0315h15,S1g0318h14,S1h0321h13,S1h0321h16,S1j0416h08,S1j0416h14,S2n1024h09,S1b0103h08,S1f0315h11,S1f0315h17,S1h0321h09,S1h0321h14,S1i0328h13,S1i0328h18,S1j0416h16,S1k0417h16,S1k0417h18,S2o1221h09,S2o1221h17,S2p1230h12,S1b0103h07,S1b0103h12,S1d0226h09,S1e0314h09,S1e0314h10,S1e0314h14,S1e0314h18,S1g0318h11,S1h0321h12,S1i0328h12,S1j0416h18,S2m1021h17,S2n1024h16,S1c0202h15,S1d0226h07,S1e0314h07,S1f0315h07,S1f0315h09,S1g0318h13,S2l1007h09,S2m1021h18,S2o1221h18,S2p1230h10,S1b0103h15,S1b0103h17,S1c0202h16,S1d0226h08,S1d0226h10,S1f0315h16,S1g0318h07,S1g0318h09,S1g0318h16,S1i0328h08,S2aH2,S2m1021h16,S2o1221h12,S2p1230h14,S1d0226h13,S1e0314h12,S1f0315h08,S1f0315h10,S1g0318h15,S1i0328h17,S1k0417h07,S1k0417h13,S2l1007h08,S2l1007h14,S2n1024h13,S2p1230h15,S1g0318h12,S1j0416h11,S1j0416h12,S1k0417h15,S2l1007h15,S2n1024h14,S2o1221h15,S1aH3,S1b0103h10,S1b0103h16,S1c0202h10,S1d0226h12,S1h0321h08,S1j0416h09,S1j0416h13,S1j0416h15,S1k0417h08,S1k0417h17,S2l1007h18,S2o1221h13,S2p1230h09,S2p1230h18,S1b0103h18,S1c0202h12,S1c0202h17,S1c0202h18,S1d0226h14,S1d0226h16,S1h0321h18,S1i0328h10,S1i0328h14,S2l1007h12,S2l1007h17,S2n1024h08,S2n1024h18,S2p1230h11</v>
+        <v>S1c0202h13,S1f0315h12,S1f0315h13,S1k0417h11,S2l1007h07,S2l1007h10,S2n1024h07,S2o1221h10,S1f0315h15,S1g0318h14,S1h0321h13,S1h0321h16,S1j0416h08,S1j0416h14,S2n1024h09,S1c0202h15,S1d0226h07,S1e0314h07,S1f0315h07,S1f0315h09,S1g0318h13,S2l1007h09,S2m1021h18,S2o1221h18,S2p1230h10,S1b0103h11,S1e0314h15,S1f0315h14,S1g0318h10,S1h0321h10,S1i0328h07,S1k0417h10,S2m1021h12,S2o1221h14,S2p1230h08,S2p1230h16,S2p1230h17,S1c0202h07,S1c0202h08,S1d0226h15,S1e0314h17,S1g0318h17,S1h0321h11,S1h0321h17,S1i0328h09,S1i0328h16,S2m1021h10,S2p1230h07,S1g0318h12,S1j0416h11,S1j0416h12,S1k0417h15,S2l1007h15,S2n1024h14,S2o1221h15,S1b0103h15,S1b0103h17,S1c0202h16,S1d0226h08,S1d0226h10,S1f0315h16,S1g0318h07,S1g0318h09,S1g0318h16,S1i0328h08,S2aH2,S2m1021h16,S2o1221h12,S2p1230h14,S1b0103h08,S1f0315h11,S1f0315h17,S1h0321h09,S1h0321h14,S1i0328h13,S1i0328h18,S1j0416h16,S1k0417h16,S1k0417h18,S2o1221h09,S2o1221h17,S2p1230h12,S1c0202h14,S1d0226h11,S1e0314h11,S1g0318h18,S1j0416h10,S2l1007h16,S2m1021h07,S2m1021h09,S2m1021h15,S2n1024h10,S2n1024h12,S2o1221h16,S1d0226h13,S1e0314h12,S1f0315h08,S1f0315h10,S1g0318h15,S1i0328h17,S1k0417h07,S1k0417h13,S2l1007h08,S2l1007h14,S2n1024h13,S2p1230h15,S1b0103h13,S1c0202h09,S1e0314h08,S1e0314h13,S1h0321h07,S1i0328h11,S1j0416h17,S2m1021h11,S2o1221h08,S1b0103h07,S1b0103h12,S1d0226h09,S1e0314h09,S1e0314h10,S1e0314h14,S1e0314h18,S1g0318h11,S1h0321h12,S1i0328h12,S1j0416h18,S2m1021h17,S2n1024h16,S1aH3,S1b0103h10,S1b0103h16,S1c0202h10,S1d0226h12,S1h0321h08,S1j0416h09,S1j0416h13,S1j0416h15,S1k0417h08,S1k0417h17,S2l1007h18,S2o1221h13,S2p1230h09,S2p1230h18,S1b0103h18,S1c0202h12,S1c0202h17,S1c0202h18,S1d0226h14,S1d0226h16,S1h0321h18,S1i0328h10,S1i0328h14,S2l1007h12,S2l1007h17,S2n1024h08,S2n1024h18,S2p1230h11,S1b0103h09,S1b0103h14,S1e0314h16,S1g0318h08,S1j0416h07,S1k0417h09,S1k0417h12,S2l1007h11,S2l1007h13,S2m1021h13,S2m1021h14,S2n1024h17,S2o1221h11,S2p1230h13,S1aH2,S1c0202h11,S1d0226h17,S1d0226h18,S1f0315h18,S1h0321h15,S1i0328h15,S1k0417h14,S2aH3,S2m1021h08,S2n1024h11,S2n1024h15,S2o1221h07</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3761,7 +3761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C130F102-94CE-44C8-AA01-D5D1F3BCC78B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{815BE2D9-82DF-43B4-A445-F26ADDBB50EA}">
   <dimension ref="B2:F367"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6810,7 +6810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F3B9764-8BBF-4FAB-A377-EA1CE1CDE787}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61053A96-CB96-440F-AD61-9771C9554511}">
   <dimension ref="B2:O371"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6889,10 +6889,10 @@
         <v>829</v>
       </c>
       <c r="M4" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="N4">
-        <v>0.855124942156409</v>
+        <v>0.3448750578435909</v>
       </c>
       <c r="O4" t="s">
         <v>840</v>
@@ -6924,10 +6924,10 @@
         <v>829</v>
       </c>
       <c r="M5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="N5">
-        <v>0.3448750578435909</v>
+        <v>0.855124942156409</v>
       </c>
       <c r="O5" t="s">
         <v>840</v>
@@ -16455,7 +16455,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B054671D-3AB0-489C-8FDA-AC7231BF6B5D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73119653-6FB8-4419-A5AF-F43F0F9AE1F4}">
   <dimension ref="B2:O739"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_s5p5v5_d.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_s5p5v5_d.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19329B82-C0E3-45C3-89C2-50D9BD175B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B69CCBB-F98A-46CA-827F-74C9F02DCB4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2541,10 +2541,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1c0202h13,S1f0315h12,S1f0315h13,S1k0417h11,S2l1007h07,S2l1007h10,S2n1024h07,S2o1221h10,S1f0315h15,S1g0318h14,S1h0321h13,S1h0321h16,S1j0416h08,S1j0416h14,S2n1024h09,S1c0202h15,S1d0226h07,S1e0314h07,S1f0315h07,S1f0315h09,S1g0318h13,S2l1007h09,S2m1021h18,S2o1221h18,S2p1230h10,S1b0103h11,S1e0314h15,S1f0315h14,S1g0318h10,S1h0321h10,S1i0328h07,S1k0417h10,S2m1021h12,S2o1221h14,S2p1230h08,S2p1230h16,S2p1230h17,S1c0202h07,S1c0202h08,S1d0226h15,S1e0314h17,S1g0318h17,S1h0321h11,S1h0321h17,S1i0328h09,S1i0328h16,S2m1021h10,S2p1230h07,S1g0318h12,S1j0416h11,S1j0416h12,S1k0417h15,S2l1007h15,S2n1024h14,S2o1221h15,S1b0103h15,S1b0103h17,S1c0202h16,S1d0226h08,S1d0226h10,S1f0315h16,S1g0318h07,S1g0318h09,S1g0318h16,S1i0328h08,S2aH2,S2m1021h16,S2o1221h12,S2p1230h14,S1b0103h08,S1f0315h11,S1f0315h17,S1h0321h09,S1h0321h14,S1i0328h13,S1i0328h18,S1j0416h16,S1k0417h16,S1k0417h18,S2o1221h09,S2o1221h17,S2p1230h12,S1c0202h14,S1d0226h11,S1e0314h11,S1g0318h18,S1j0416h10,S2l1007h16,S2m1021h07,S2m1021h09,S2m1021h15,S2n1024h10,S2n1024h12,S2o1221h16,S1d0226h13,S1e0314h12,S1f0315h08,S1f0315h10,S1g0318h15,S1i0328h17,S1k0417h07,S1k0417h13,S2l1007h08,S2l1007h14,S2n1024h13,S2p1230h15,S1b0103h13,S1c0202h09,S1e0314h08,S1e0314h13,S1h0321h07,S1i0328h11,S1j0416h17,S2m1021h11,S2o1221h08,S1b0103h07,S1b0103h12,S1d0226h09,S1e0314h09,S1e0314h10,S1e0314h14,S1e0314h18,S1g0318h11,S1h0321h12,S1i0328h12,S1j0416h18,S2m1021h17,S2n1024h16,S1aH3,S1b0103h10,S1b0103h16,S1c0202h10,S1d0226h12,S1h0321h08,S1j0416h09,S1j0416h13,S1j0416h15,S1k0417h08,S1k0417h17,S2l1007h18,S2o1221h13,S2p1230h09,S2p1230h18,S1b0103h18,S1c0202h12,S1c0202h17,S1c0202h18,S1d0226h14,S1d0226h16,S1h0321h18,S1i0328h10,S1i0328h14,S2l1007h12,S2l1007h17,S2n1024h08,S2n1024h18,S2p1230h11,S1b0103h09,S1b0103h14,S1e0314h16,S1g0318h08,S1j0416h07,S1k0417h09,S1k0417h12,S2l1007h11,S2l1007h13,S2m1021h13,S2m1021h14,S2n1024h17,S2o1221h11,S2p1230h13,S1aH2,S1c0202h11,S1d0226h17,S1d0226h18,S1f0315h18,S1h0321h15,S1i0328h15,S1k0417h14,S2aH3,S2m1021h08,S2n1024h11,S2n1024h15,S2o1221h07</t>
-  </si>
-  <si>
-    <t>S1c0202h22,S1c0202h24,S1e0314h05,S1e0314h21,S1g0318h03,S1h0321h23,S1j0416h22,S2aH1,S2m1021h03,S2p1230h19,S2p1230h24,S1aH1,S1b0103h23,S1d0226h23,S1f0315h02,S1f0315h20,S1g0318h02,S2l1007h19,S2l1007h22,S2m1021h05,S2n1024h04,S2o1221h05,S1b0103h04,S1b0103h20,S1c0202h20,S1d0226h22,S1e0314h19,S1f0315h22,S1h0321h05,S1j0416h03,S1j0416h05,S1j0416h24,S2l1007h02,S2o1221h03,S1d0226h21,S1g0318h24,S1i0328h23,S1k0417h02,S2l1007h03,S2o1221h21,S2p1230h23,S1b0103h21,S1e0314h04,S1e0314h22,S1i0328h20,S1k0417h04,S1k0417h21,S2m1021h01,S2o1221h20,S2p1230h01,S2p1230h06,S1b0103h22,S1b0103h24,S1c0202h01,S1e0314h03,S1e0314h23,S1f0315h21,S1g0318h04,S1i0328h19,S2n1024h20,S2o1221h04,S2o1221h06,S1b0103h03,S1b0103h05,S1b0103h19,S1f0315h05,S1g0318h21,S1g0318h22,S1h0321h04,S2m1021h20,S2m1021h22,S2n1024h23,S2p1230h04,S1b0103h01,S1b0103h02,S1e0314h02,S1f0315h03,S1f0315h23,S1g0318h01,S1g0318h19,S1g0318h20,S1h0321h20,S1i0328h24,S1j0416h02,S1j0416h19,S1k0417h23,S1k0417h24,S2n1024h21,S2n1024h22,S1c0202h04,S1c0202h23,S1d0226h02,S1e0314h01,S1e0314h06,S1e0314h20,S1g0318h06,S1g0318h23,S1i0328h02,S1j0416h23,S1k0417h01,S1k0417h22,S2l1007h23,S2m1021h06,S2n1024h02,S2o1221h24,S1d0226h04,S1e0314h24,S1g0318h05,S1j0416h20,S2l1007h01,S2l1007h20,S2l1007h24,S2m1021h21,S2m1021h24,S2n1024h01,S2n1024h05,S1c0202h03,S1d0226h03,S1d0226h20,S1j0416h06,S1k0417h05,S1k0417h06,S1k0417h19,S2l1007h05,S2m1021h19,S2p1230h02,S1c0202h21,S1f0315h01,S1f0315h06,S1h0321h02,S1h0321h06,S1h0321h19,S1i0328h03,S1i0328h05,S1j0416h01,S1k0417h20,S2l1007h04,S2n1024h06,S2n1024h19,S2o1221h01,S2p1230h03,S2p1230h05,S2p1230h22,S1c0202h06,S1f0315h04,S1f0315h24,S1h0321h24,S1i0328h04,S1i0328h06,S2l1007h06,S2m1021h02,S2m1021h23,S2n1024h24,S2o1221h23,S1d0226h24,S1h0321h03,S1i0328h01,S1j0416h04,S1j0416h21,S2aH4,S2o1221h22,S1aH4,S1b0103h06,S1d0226h06,S1h0321h21,S2l1007h21,S2o1221h19,S2p1230h20,S1c0202h02,S1c0202h05,S1c0202h19,S1d0226h01,S1d0226h05,S1d0226h19,S1f0315h19,S1h0321h01,S1h0321h22,S1i0328h21,S1i0328h22,S1k0417h03,S2m1021h04,S2n1024h03,S2o1221h02,S2p1230h21</t>
+    <t>S1b0103h13,S1c0202h09,S1e0314h08,S1e0314h13,S1h0321h07,S1i0328h11,S1j0416h17,S2m1021h11,S2o1221h08,S1b0103h11,S1e0314h15,S1f0315h14,S1g0318h10,S1h0321h10,S1i0328h07,S1k0417h10,S2m1021h12,S2o1221h14,S2p1230h08,S2p1230h16,S2p1230h17,S1c0202h07,S1c0202h08,S1d0226h15,S1e0314h17,S1g0318h17,S1h0321h11,S1h0321h17,S1i0328h09,S1i0328h16,S2m1021h10,S2p1230h07,S1c0202h13,S1f0315h12,S1f0315h13,S1k0417h11,S2l1007h07,S2l1007h10,S2n1024h07,S2o1221h10,S1c0202h14,S1d0226h11,S1e0314h11,S1g0318h18,S1j0416h10,S2l1007h16,S2m1021h07,S2m1021h09,S2m1021h15,S2n1024h10,S2n1024h12,S2o1221h16,S1d0226h13,S1e0314h12,S1f0315h08,S1f0315h10,S1g0318h15,S1i0328h17,S1k0417h07,S1k0417h13,S2l1007h08,S2l1007h14,S2n1024h13,S2p1230h15,S1c0202h15,S1d0226h07,S1e0314h07,S1f0315h07,S1f0315h09,S1g0318h13,S2l1007h09,S2m1021h18,S2o1221h18,S2p1230h10,S1b0103h18,S1c0202h12,S1c0202h17,S1c0202h18,S1d0226h14,S1d0226h16,S1h0321h18,S1i0328h10,S1i0328h14,S2l1007h12,S2l1007h17,S2n1024h08,S2n1024h18,S2p1230h11,S1g0318h12,S1j0416h11,S1j0416h12,S1k0417h15,S2l1007h15,S2n1024h14,S2o1221h15,S1aH2,S1c0202h11,S1d0226h17,S1d0226h18,S1f0315h18,S1h0321h15,S1i0328h15,S1k0417h14,S2aH3,S2m1021h08,S2n1024h11,S2n1024h15,S2o1221h07,S1b0103h07,S1b0103h12,S1d0226h09,S1e0314h09,S1e0314h10,S1e0314h14,S1e0314h18,S1g0318h11,S1h0321h12,S1i0328h12,S1j0416h18,S2m1021h17,S2n1024h16,S1aH3,S1b0103h10,S1b0103h16,S1c0202h10,S1d0226h12,S1h0321h08,S1j0416h09,S1j0416h13,S1j0416h15,S1k0417h08,S1k0417h17,S2l1007h18,S2o1221h13,S2p1230h09,S2p1230h18,S1b0103h08,S1f0315h11,S1f0315h17,S1h0321h09,S1h0321h14,S1i0328h13,S1i0328h18,S1j0416h16,S1k0417h16,S1k0417h18,S2o1221h09,S2o1221h17,S2p1230h12,S1b0103h15,S1b0103h17,S1c0202h16,S1d0226h08,S1d0226h10,S1f0315h16,S1g0318h07,S1g0318h09,S1g0318h16,S1i0328h08,S2aH2,S2m1021h16,S2o1221h12,S2p1230h14,S1f0315h15,S1g0318h14,S1h0321h13,S1h0321h16,S1j0416h08,S1j0416h14,S2n1024h09,S1b0103h09,S1b0103h14,S1e0314h16,S1g0318h08,S1j0416h07,S1k0417h09,S1k0417h12,S2l1007h11,S2l1007h13,S2m1021h13,S2m1021h14,S2n1024h17,S2o1221h11,S2p1230h13</t>
+  </si>
+  <si>
+    <t>S1c0202h03,S1d0226h03,S1d0226h20,S1j0416h06,S1k0417h05,S1k0417h06,S1k0417h19,S2l1007h05,S2m1021h19,S2p1230h02,S1d0226h21,S1g0318h24,S1i0328h23,S1k0417h02,S2l1007h03,S2o1221h21,S2p1230h23,S1b0103h21,S1e0314h04,S1e0314h22,S1i0328h20,S1k0417h04,S1k0417h21,S2m1021h01,S2o1221h20,S2p1230h01,S2p1230h06,S1c0202h22,S1c0202h24,S1e0314h05,S1e0314h21,S1g0318h03,S1h0321h23,S1j0416h22,S2aH1,S2m1021h03,S2p1230h19,S2p1230h24,S1c0202h04,S1c0202h23,S1d0226h02,S1e0314h01,S1e0314h06,S1e0314h20,S1g0318h06,S1g0318h23,S1i0328h02,S1j0416h23,S1k0417h01,S1k0417h22,S2l1007h23,S2m1021h06,S2n1024h02,S2o1221h24,S1d0226h04,S1e0314h24,S1g0318h05,S1j0416h20,S2l1007h01,S2l1007h20,S2l1007h24,S2m1021h21,S2m1021h24,S2n1024h01,S2n1024h05,S1b0103h04,S1b0103h20,S1c0202h20,S1d0226h22,S1e0314h19,S1f0315h22,S1h0321h05,S1j0416h03,S1j0416h05,S1j0416h24,S2l1007h02,S2o1221h03,S1d0226h24,S1h0321h03,S1i0328h01,S1j0416h04,S1j0416h21,S2aH4,S2o1221h22,S1b0103h22,S1b0103h24,S1c0202h01,S1e0314h03,S1e0314h23,S1f0315h21,S1g0318h04,S1i0328h19,S2n1024h20,S2o1221h04,S2o1221h06,S1c0202h02,S1c0202h05,S1c0202h19,S1d0226h01,S1d0226h05,S1d0226h19,S1f0315h19,S1h0321h01,S1h0321h22,S1i0328h21,S1i0328h22,S1k0417h03,S2m1021h04,S2n1024h03,S2o1221h02,S2p1230h21,S1c0202h21,S1f0315h01,S1f0315h06,S1h0321h02,S1h0321h06,S1h0321h19,S1i0328h03,S1i0328h05,S1j0416h01,S1k0417h20,S2l1007h04,S2n1024h06,S2n1024h19,S2o1221h01,S2p1230h03,S2p1230h05,S2p1230h22,S1c0202h06,S1f0315h04,S1f0315h24,S1h0321h24,S1i0328h04,S1i0328h06,S2l1007h06,S2m1021h02,S2m1021h23,S2n1024h24,S2o1221h23,S1b0103h01,S1b0103h02,S1e0314h02,S1f0315h03,S1f0315h23,S1g0318h01,S1g0318h19,S1g0318h20,S1h0321h20,S1i0328h24,S1j0416h02,S1j0416h19,S1k0417h23,S1k0417h24,S2n1024h21,S2n1024h22,S1b0103h03,S1b0103h05,S1b0103h19,S1f0315h05,S1g0318h21,S1g0318h22,S1h0321h04,S2m1021h20,S2m1021h22,S2n1024h23,S2p1230h04,S1aH1,S1b0103h23,S1d0226h23,S1f0315h02,S1f0315h20,S1g0318h02,S2l1007h19,S2l1007h22,S2m1021h05,S2n1024h04,S2o1221h05,S1aH4,S1b0103h06,S1d0226h06,S1h0321h21,S2l1007h21,S2o1221h19,S2p1230h20</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3116,7 +3116,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1c0202h22,S1c0202h24,S1e0314h05,S1e0314h21,S1g0318h03,S1h0321h23,S1j0416h22,S2aH1,S2m1021h03,S2p1230h19,S2p1230h24,S1aH1,S1b0103h23,S1d0226h23,S1f0315h02,S1f0315h20,S1g0318h02,S2l1007h19,S2l1007h22,S2m1021h05,S2n1024h04,S2o1221h05,S1b0103h04,S1b0103h20,S1c0202h20,S1d0226h22,S1e0314h19,S1f0315h22,S1h0321h05,S1j0416h03,S1j0416h05,S1j0416h24,S2l1007h02,S2o1221h03,S1d0226h21,S1g0318h24,S1i0328h23,S1k0417h02,S2l1007h03,S2o1221h21,S2p1230h23,S1b0103h21,S1e0314h04,S1e0314h22,S1i0328h20,S1k0417h04,S1k0417h21,S2m1021h01,S2o1221h20,S2p1230h01,S2p1230h06,S1b0103h22,S1b0103h24,S1c0202h01,S1e0314h03,S1e0314h23,S1f0315h21,S1g0318h04,S1i0328h19,S2n1024h20,S2o1221h04,S2o1221h06,S1b0103h03,S1b0103h05,S1b0103h19,S1f0315h05,S1g0318h21,S1g0318h22,S1h0321h04,S2m1021h20,S2m1021h22,S2n1024h23,S2p1230h04,S1b0103h01,S1b0103h02,S1e0314h02,S1f0315h03,S1f0315h23,S1g0318h01,S1g0318h19,S1g0318h20,S1h0321h20,S1i0328h24,S1j0416h02,S1j0416h19,S1k0417h23,S1k0417h24,S2n1024h21,S2n1024h22,S1c0202h04,S1c0202h23,S1d0226h02,S1e0314h01,S1e0314h06,S1e0314h20,S1g0318h06,S1g0318h23,S1i0328h02,S1j0416h23,S1k0417h01,S1k0417h22,S2l1007h23,S2m1021h06,S2n1024h02,S2o1221h24,S1d0226h04,S1e0314h24,S1g0318h05,S1j0416h20,S2l1007h01,S2l1007h20,S2l1007h24,S2m1021h21,S2m1021h24,S2n1024h01,S2n1024h05,S1c0202h03,S1d0226h03,S1d0226h20,S1j0416h06,S1k0417h05,S1k0417h06,S1k0417h19,S2l1007h05,S2m1021h19,S2p1230h02,S1c0202h21,S1f0315h01,S1f0315h06,S1h0321h02,S1h0321h06,S1h0321h19,S1i0328h03,S1i0328h05,S1j0416h01,S1k0417h20,S2l1007h04,S2n1024h06,S2n1024h19,S2o1221h01,S2p1230h03,S2p1230h05,S2p1230h22,S1c0202h06,S1f0315h04,S1f0315h24,S1h0321h24,S1i0328h04,S1i0328h06,S2l1007h06,S2m1021h02,S2m1021h23,S2n1024h24,S2o1221h23,S1d0226h24,S1h0321h03,S1i0328h01,S1j0416h04,S1j0416h21,S2aH4,S2o1221h22,S1aH4,S1b0103h06,S1d0226h06,S1h0321h21,S2l1007h21,S2o1221h19,S2p1230h20,S1c0202h02,S1c0202h05,S1c0202h19,S1d0226h01,S1d0226h05,S1d0226h19,S1f0315h19,S1h0321h01,S1h0321h22,S1i0328h21,S1i0328h22,S1k0417h03,S2m1021h04,S2n1024h03,S2o1221h02,S2p1230h21</v>
+        <v>S1c0202h03,S1d0226h03,S1d0226h20,S1j0416h06,S1k0417h05,S1k0417h06,S1k0417h19,S2l1007h05,S2m1021h19,S2p1230h02,S1d0226h21,S1g0318h24,S1i0328h23,S1k0417h02,S2l1007h03,S2o1221h21,S2p1230h23,S1b0103h21,S1e0314h04,S1e0314h22,S1i0328h20,S1k0417h04,S1k0417h21,S2m1021h01,S2o1221h20,S2p1230h01,S2p1230h06,S1c0202h22,S1c0202h24,S1e0314h05,S1e0314h21,S1g0318h03,S1h0321h23,S1j0416h22,S2aH1,S2m1021h03,S2p1230h19,S2p1230h24,S1c0202h04,S1c0202h23,S1d0226h02,S1e0314h01,S1e0314h06,S1e0314h20,S1g0318h06,S1g0318h23,S1i0328h02,S1j0416h23,S1k0417h01,S1k0417h22,S2l1007h23,S2m1021h06,S2n1024h02,S2o1221h24,S1d0226h04,S1e0314h24,S1g0318h05,S1j0416h20,S2l1007h01,S2l1007h20,S2l1007h24,S2m1021h21,S2m1021h24,S2n1024h01,S2n1024h05,S1b0103h04,S1b0103h20,S1c0202h20,S1d0226h22,S1e0314h19,S1f0315h22,S1h0321h05,S1j0416h03,S1j0416h05,S1j0416h24,S2l1007h02,S2o1221h03,S1d0226h24,S1h0321h03,S1i0328h01,S1j0416h04,S1j0416h21,S2aH4,S2o1221h22,S1b0103h22,S1b0103h24,S1c0202h01,S1e0314h03,S1e0314h23,S1f0315h21,S1g0318h04,S1i0328h19,S2n1024h20,S2o1221h04,S2o1221h06,S1c0202h02,S1c0202h05,S1c0202h19,S1d0226h01,S1d0226h05,S1d0226h19,S1f0315h19,S1h0321h01,S1h0321h22,S1i0328h21,S1i0328h22,S1k0417h03,S2m1021h04,S2n1024h03,S2o1221h02,S2p1230h21,S1c0202h21,S1f0315h01,S1f0315h06,S1h0321h02,S1h0321h06,S1h0321h19,S1i0328h03,S1i0328h05,S1j0416h01,S1k0417h20,S2l1007h04,S2n1024h06,S2n1024h19,S2o1221h01,S2p1230h03,S2p1230h05,S2p1230h22,S1c0202h06,S1f0315h04,S1f0315h24,S1h0321h24,S1i0328h04,S1i0328h06,S2l1007h06,S2m1021h02,S2m1021h23,S2n1024h24,S2o1221h23,S1b0103h01,S1b0103h02,S1e0314h02,S1f0315h03,S1f0315h23,S1g0318h01,S1g0318h19,S1g0318h20,S1h0321h20,S1i0328h24,S1j0416h02,S1j0416h19,S1k0417h23,S1k0417h24,S2n1024h21,S2n1024h22,S1b0103h03,S1b0103h05,S1b0103h19,S1f0315h05,S1g0318h21,S1g0318h22,S1h0321h04,S2m1021h20,S2m1021h22,S2n1024h23,S2p1230h04,S1aH1,S1b0103h23,S1d0226h23,S1f0315h02,S1f0315h20,S1g0318h02,S2l1007h19,S2l1007h22,S2m1021h05,S2n1024h04,S2o1221h05,S1aH4,S1b0103h06,S1d0226h06,S1h0321h21,S2l1007h21,S2o1221h19,S2p1230h20</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3148,7 +3148,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1c0202h13,S1f0315h12,S1f0315h13,S1k0417h11,S2l1007h07,S2l1007h10,S2n1024h07,S2o1221h10,S1f0315h15,S1g0318h14,S1h0321h13,S1h0321h16,S1j0416h08,S1j0416h14,S2n1024h09,S1c0202h15,S1d0226h07,S1e0314h07,S1f0315h07,S1f0315h09,S1g0318h13,S2l1007h09,S2m1021h18,S2o1221h18,S2p1230h10,S1b0103h11,S1e0314h15,S1f0315h14,S1g0318h10,S1h0321h10,S1i0328h07,S1k0417h10,S2m1021h12,S2o1221h14,S2p1230h08,S2p1230h16,S2p1230h17,S1c0202h07,S1c0202h08,S1d0226h15,S1e0314h17,S1g0318h17,S1h0321h11,S1h0321h17,S1i0328h09,S1i0328h16,S2m1021h10,S2p1230h07,S1g0318h12,S1j0416h11,S1j0416h12,S1k0417h15,S2l1007h15,S2n1024h14,S2o1221h15,S1b0103h15,S1b0103h17,S1c0202h16,S1d0226h08,S1d0226h10,S1f0315h16,S1g0318h07,S1g0318h09,S1g0318h16,S1i0328h08,S2aH2,S2m1021h16,S2o1221h12,S2p1230h14,S1b0103h08,S1f0315h11,S1f0315h17,S1h0321h09,S1h0321h14,S1i0328h13,S1i0328h18,S1j0416h16,S1k0417h16,S1k0417h18,S2o1221h09,S2o1221h17,S2p1230h12,S1c0202h14,S1d0226h11,S1e0314h11,S1g0318h18,S1j0416h10,S2l1007h16,S2m1021h07,S2m1021h09,S2m1021h15,S2n1024h10,S2n1024h12,S2o1221h16,S1d0226h13,S1e0314h12,S1f0315h08,S1f0315h10,S1g0318h15,S1i0328h17,S1k0417h07,S1k0417h13,S2l1007h08,S2l1007h14,S2n1024h13,S2p1230h15,S1b0103h13,S1c0202h09,S1e0314h08,S1e0314h13,S1h0321h07,S1i0328h11,S1j0416h17,S2m1021h11,S2o1221h08,S1b0103h07,S1b0103h12,S1d0226h09,S1e0314h09,S1e0314h10,S1e0314h14,S1e0314h18,S1g0318h11,S1h0321h12,S1i0328h12,S1j0416h18,S2m1021h17,S2n1024h16,S1aH3,S1b0103h10,S1b0103h16,S1c0202h10,S1d0226h12,S1h0321h08,S1j0416h09,S1j0416h13,S1j0416h15,S1k0417h08,S1k0417h17,S2l1007h18,S2o1221h13,S2p1230h09,S2p1230h18,S1b0103h18,S1c0202h12,S1c0202h17,S1c0202h18,S1d0226h14,S1d0226h16,S1h0321h18,S1i0328h10,S1i0328h14,S2l1007h12,S2l1007h17,S2n1024h08,S2n1024h18,S2p1230h11,S1b0103h09,S1b0103h14,S1e0314h16,S1g0318h08,S1j0416h07,S1k0417h09,S1k0417h12,S2l1007h11,S2l1007h13,S2m1021h13,S2m1021h14,S2n1024h17,S2o1221h11,S2p1230h13,S1aH2,S1c0202h11,S1d0226h17,S1d0226h18,S1f0315h18,S1h0321h15,S1i0328h15,S1k0417h14,S2aH3,S2m1021h08,S2n1024h11,S2n1024h15,S2o1221h07</v>
+        <v>S1b0103h13,S1c0202h09,S1e0314h08,S1e0314h13,S1h0321h07,S1i0328h11,S1j0416h17,S2m1021h11,S2o1221h08,S1b0103h11,S1e0314h15,S1f0315h14,S1g0318h10,S1h0321h10,S1i0328h07,S1k0417h10,S2m1021h12,S2o1221h14,S2p1230h08,S2p1230h16,S2p1230h17,S1c0202h07,S1c0202h08,S1d0226h15,S1e0314h17,S1g0318h17,S1h0321h11,S1h0321h17,S1i0328h09,S1i0328h16,S2m1021h10,S2p1230h07,S1c0202h13,S1f0315h12,S1f0315h13,S1k0417h11,S2l1007h07,S2l1007h10,S2n1024h07,S2o1221h10,S1c0202h14,S1d0226h11,S1e0314h11,S1g0318h18,S1j0416h10,S2l1007h16,S2m1021h07,S2m1021h09,S2m1021h15,S2n1024h10,S2n1024h12,S2o1221h16,S1d0226h13,S1e0314h12,S1f0315h08,S1f0315h10,S1g0318h15,S1i0328h17,S1k0417h07,S1k0417h13,S2l1007h08,S2l1007h14,S2n1024h13,S2p1230h15,S1c0202h15,S1d0226h07,S1e0314h07,S1f0315h07,S1f0315h09,S1g0318h13,S2l1007h09,S2m1021h18,S2o1221h18,S2p1230h10,S1b0103h18,S1c0202h12,S1c0202h17,S1c0202h18,S1d0226h14,S1d0226h16,S1h0321h18,S1i0328h10,S1i0328h14,S2l1007h12,S2l1007h17,S2n1024h08,S2n1024h18,S2p1230h11,S1g0318h12,S1j0416h11,S1j0416h12,S1k0417h15,S2l1007h15,S2n1024h14,S2o1221h15,S1aH2,S1c0202h11,S1d0226h17,S1d0226h18,S1f0315h18,S1h0321h15,S1i0328h15,S1k0417h14,S2aH3,S2m1021h08,S2n1024h11,S2n1024h15,S2o1221h07,S1b0103h07,S1b0103h12,S1d0226h09,S1e0314h09,S1e0314h10,S1e0314h14,S1e0314h18,S1g0318h11,S1h0321h12,S1i0328h12,S1j0416h18,S2m1021h17,S2n1024h16,S1aH3,S1b0103h10,S1b0103h16,S1c0202h10,S1d0226h12,S1h0321h08,S1j0416h09,S1j0416h13,S1j0416h15,S1k0417h08,S1k0417h17,S2l1007h18,S2o1221h13,S2p1230h09,S2p1230h18,S1b0103h08,S1f0315h11,S1f0315h17,S1h0321h09,S1h0321h14,S1i0328h13,S1i0328h18,S1j0416h16,S1k0417h16,S1k0417h18,S2o1221h09,S2o1221h17,S2p1230h12,S1b0103h15,S1b0103h17,S1c0202h16,S1d0226h08,S1d0226h10,S1f0315h16,S1g0318h07,S1g0318h09,S1g0318h16,S1i0328h08,S2aH2,S2m1021h16,S2o1221h12,S2p1230h14,S1f0315h15,S1g0318h14,S1h0321h13,S1h0321h16,S1j0416h08,S1j0416h14,S2n1024h09,S1b0103h09,S1b0103h14,S1e0314h16,S1g0318h08,S1j0416h07,S1k0417h09,S1k0417h12,S2l1007h11,S2l1007h13,S2m1021h13,S2m1021h14,S2n1024h17,S2o1221h11,S2p1230h13</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3761,7 +3761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{815BE2D9-82DF-43B4-A445-F26ADDBB50EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3033E82-D4F1-449C-AF23-C7677571DF67}">
   <dimension ref="B2:F367"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6810,7 +6810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61053A96-CB96-440F-AD61-9771C9554511}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{506B1D5E-83D2-4893-9F1A-E6A0FB059937}">
   <dimension ref="B2:O371"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6889,10 +6889,10 @@
         <v>829</v>
       </c>
       <c r="M4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="N4">
-        <v>0.3448750578435909</v>
+        <v>0.855124942156409</v>
       </c>
       <c r="O4" t="s">
         <v>840</v>
@@ -6924,10 +6924,10 @@
         <v>829</v>
       </c>
       <c r="M5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="N5">
-        <v>0.855124942156409</v>
+        <v>0.3448750578435909</v>
       </c>
       <c r="O5" t="s">
         <v>840</v>
@@ -16455,7 +16455,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73119653-6FB8-4419-A5AF-F43F0F9AE1F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7923CB9-AC30-4E58-908C-32E5FD7D18F5}">
   <dimension ref="B2:O739"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_s5p5v5_d.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_s5p5v5_d.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B69CCBB-F98A-46CA-827F-74C9F02DCB4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACAF0F9F-EA42-4848-884E-DDBD611D3EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2541,10 +2541,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1b0103h13,S1c0202h09,S1e0314h08,S1e0314h13,S1h0321h07,S1i0328h11,S1j0416h17,S2m1021h11,S2o1221h08,S1b0103h11,S1e0314h15,S1f0315h14,S1g0318h10,S1h0321h10,S1i0328h07,S1k0417h10,S2m1021h12,S2o1221h14,S2p1230h08,S2p1230h16,S2p1230h17,S1c0202h07,S1c0202h08,S1d0226h15,S1e0314h17,S1g0318h17,S1h0321h11,S1h0321h17,S1i0328h09,S1i0328h16,S2m1021h10,S2p1230h07,S1c0202h13,S1f0315h12,S1f0315h13,S1k0417h11,S2l1007h07,S2l1007h10,S2n1024h07,S2o1221h10,S1c0202h14,S1d0226h11,S1e0314h11,S1g0318h18,S1j0416h10,S2l1007h16,S2m1021h07,S2m1021h09,S2m1021h15,S2n1024h10,S2n1024h12,S2o1221h16,S1d0226h13,S1e0314h12,S1f0315h08,S1f0315h10,S1g0318h15,S1i0328h17,S1k0417h07,S1k0417h13,S2l1007h08,S2l1007h14,S2n1024h13,S2p1230h15,S1c0202h15,S1d0226h07,S1e0314h07,S1f0315h07,S1f0315h09,S1g0318h13,S2l1007h09,S2m1021h18,S2o1221h18,S2p1230h10,S1b0103h18,S1c0202h12,S1c0202h17,S1c0202h18,S1d0226h14,S1d0226h16,S1h0321h18,S1i0328h10,S1i0328h14,S2l1007h12,S2l1007h17,S2n1024h08,S2n1024h18,S2p1230h11,S1g0318h12,S1j0416h11,S1j0416h12,S1k0417h15,S2l1007h15,S2n1024h14,S2o1221h15,S1aH2,S1c0202h11,S1d0226h17,S1d0226h18,S1f0315h18,S1h0321h15,S1i0328h15,S1k0417h14,S2aH3,S2m1021h08,S2n1024h11,S2n1024h15,S2o1221h07,S1b0103h07,S1b0103h12,S1d0226h09,S1e0314h09,S1e0314h10,S1e0314h14,S1e0314h18,S1g0318h11,S1h0321h12,S1i0328h12,S1j0416h18,S2m1021h17,S2n1024h16,S1aH3,S1b0103h10,S1b0103h16,S1c0202h10,S1d0226h12,S1h0321h08,S1j0416h09,S1j0416h13,S1j0416h15,S1k0417h08,S1k0417h17,S2l1007h18,S2o1221h13,S2p1230h09,S2p1230h18,S1b0103h08,S1f0315h11,S1f0315h17,S1h0321h09,S1h0321h14,S1i0328h13,S1i0328h18,S1j0416h16,S1k0417h16,S1k0417h18,S2o1221h09,S2o1221h17,S2p1230h12,S1b0103h15,S1b0103h17,S1c0202h16,S1d0226h08,S1d0226h10,S1f0315h16,S1g0318h07,S1g0318h09,S1g0318h16,S1i0328h08,S2aH2,S2m1021h16,S2o1221h12,S2p1230h14,S1f0315h15,S1g0318h14,S1h0321h13,S1h0321h16,S1j0416h08,S1j0416h14,S2n1024h09,S1b0103h09,S1b0103h14,S1e0314h16,S1g0318h08,S1j0416h07,S1k0417h09,S1k0417h12,S2l1007h11,S2l1007h13,S2m1021h13,S2m1021h14,S2n1024h17,S2o1221h11,S2p1230h13</t>
-  </si>
-  <si>
-    <t>S1c0202h03,S1d0226h03,S1d0226h20,S1j0416h06,S1k0417h05,S1k0417h06,S1k0417h19,S2l1007h05,S2m1021h19,S2p1230h02,S1d0226h21,S1g0318h24,S1i0328h23,S1k0417h02,S2l1007h03,S2o1221h21,S2p1230h23,S1b0103h21,S1e0314h04,S1e0314h22,S1i0328h20,S1k0417h04,S1k0417h21,S2m1021h01,S2o1221h20,S2p1230h01,S2p1230h06,S1c0202h22,S1c0202h24,S1e0314h05,S1e0314h21,S1g0318h03,S1h0321h23,S1j0416h22,S2aH1,S2m1021h03,S2p1230h19,S2p1230h24,S1c0202h04,S1c0202h23,S1d0226h02,S1e0314h01,S1e0314h06,S1e0314h20,S1g0318h06,S1g0318h23,S1i0328h02,S1j0416h23,S1k0417h01,S1k0417h22,S2l1007h23,S2m1021h06,S2n1024h02,S2o1221h24,S1d0226h04,S1e0314h24,S1g0318h05,S1j0416h20,S2l1007h01,S2l1007h20,S2l1007h24,S2m1021h21,S2m1021h24,S2n1024h01,S2n1024h05,S1b0103h04,S1b0103h20,S1c0202h20,S1d0226h22,S1e0314h19,S1f0315h22,S1h0321h05,S1j0416h03,S1j0416h05,S1j0416h24,S2l1007h02,S2o1221h03,S1d0226h24,S1h0321h03,S1i0328h01,S1j0416h04,S1j0416h21,S2aH4,S2o1221h22,S1b0103h22,S1b0103h24,S1c0202h01,S1e0314h03,S1e0314h23,S1f0315h21,S1g0318h04,S1i0328h19,S2n1024h20,S2o1221h04,S2o1221h06,S1c0202h02,S1c0202h05,S1c0202h19,S1d0226h01,S1d0226h05,S1d0226h19,S1f0315h19,S1h0321h01,S1h0321h22,S1i0328h21,S1i0328h22,S1k0417h03,S2m1021h04,S2n1024h03,S2o1221h02,S2p1230h21,S1c0202h21,S1f0315h01,S1f0315h06,S1h0321h02,S1h0321h06,S1h0321h19,S1i0328h03,S1i0328h05,S1j0416h01,S1k0417h20,S2l1007h04,S2n1024h06,S2n1024h19,S2o1221h01,S2p1230h03,S2p1230h05,S2p1230h22,S1c0202h06,S1f0315h04,S1f0315h24,S1h0321h24,S1i0328h04,S1i0328h06,S2l1007h06,S2m1021h02,S2m1021h23,S2n1024h24,S2o1221h23,S1b0103h01,S1b0103h02,S1e0314h02,S1f0315h03,S1f0315h23,S1g0318h01,S1g0318h19,S1g0318h20,S1h0321h20,S1i0328h24,S1j0416h02,S1j0416h19,S1k0417h23,S1k0417h24,S2n1024h21,S2n1024h22,S1b0103h03,S1b0103h05,S1b0103h19,S1f0315h05,S1g0318h21,S1g0318h22,S1h0321h04,S2m1021h20,S2m1021h22,S2n1024h23,S2p1230h04,S1aH1,S1b0103h23,S1d0226h23,S1f0315h02,S1f0315h20,S1g0318h02,S2l1007h19,S2l1007h22,S2m1021h05,S2n1024h04,S2o1221h05,S1aH4,S1b0103h06,S1d0226h06,S1h0321h21,S2l1007h21,S2o1221h19,S2p1230h20</t>
+    <t>S1c0202h13,S1f0315h12,S1f0315h13,S1k0417h11,S2l1007h07,S2l1007h10,S2n1024h07,S2o1221h10,S1d0226h13,S1e0314h12,S1f0315h08,S1f0315h10,S1g0318h15,S1i0328h17,S1k0417h07,S1k0417h13,S2l1007h08,S2l1007h14,S2n1024h13,S2p1230h15,S1b0103h15,S1b0103h17,S1c0202h16,S1d0226h08,S1d0226h10,S1f0315h16,S1g0318h07,S1g0318h09,S1g0318h16,S1i0328h08,S2aH2,S2m1021h16,S2o1221h12,S2p1230h14,S1c0202h07,S1c0202h08,S1d0226h15,S1e0314h17,S1g0318h17,S1h0321h11,S1h0321h17,S1i0328h09,S1i0328h16,S2m1021h10,S2p1230h07,S1b0103h07,S1b0103h12,S1d0226h09,S1e0314h09,S1e0314h10,S1e0314h14,S1e0314h18,S1g0318h11,S1h0321h12,S1i0328h12,S1j0416h18,S2m1021h17,S2n1024h16,S1aH3,S1b0103h10,S1b0103h16,S1c0202h10,S1d0226h12,S1h0321h08,S1j0416h09,S1j0416h13,S1j0416h15,S1k0417h08,S1k0417h17,S2l1007h18,S2o1221h13,S2p1230h09,S2p1230h18,S1b0103h18,S1c0202h12,S1c0202h17,S1c0202h18,S1d0226h14,S1d0226h16,S1h0321h18,S1i0328h10,S1i0328h14,S2l1007h12,S2l1007h17,S2n1024h08,S2n1024h18,S2p1230h11,S1b0103h13,S1c0202h09,S1e0314h08,S1e0314h13,S1h0321h07,S1i0328h11,S1j0416h17,S2m1021h11,S2o1221h08,S1b0103h11,S1e0314h15,S1f0315h14,S1g0318h10,S1h0321h10,S1i0328h07,S1k0417h10,S2m1021h12,S2o1221h14,S2p1230h08,S2p1230h16,S2p1230h17,S1g0318h12,S1j0416h11,S1j0416h12,S1k0417h15,S2l1007h15,S2n1024h14,S2o1221h15,S1b0103h08,S1f0315h11,S1f0315h17,S1h0321h09,S1h0321h14,S1i0328h13,S1i0328h18,S1j0416h16,S1k0417h16,S1k0417h18,S2o1221h09,S2o1221h17,S2p1230h12,S1c0202h14,S1d0226h11,S1e0314h11,S1g0318h18,S1j0416h10,S2l1007h16,S2m1021h07,S2m1021h09,S2m1021h15,S2n1024h10,S2n1024h12,S2o1221h16,S1b0103h09,S1b0103h14,S1e0314h16,S1g0318h08,S1j0416h07,S1k0417h09,S1k0417h12,S2l1007h11,S2l1007h13,S2m1021h13,S2m1021h14,S2n1024h17,S2o1221h11,S2p1230h13,S1f0315h15,S1g0318h14,S1h0321h13,S1h0321h16,S1j0416h08,S1j0416h14,S2n1024h09,S1aH2,S1c0202h11,S1d0226h17,S1d0226h18,S1f0315h18,S1h0321h15,S1i0328h15,S1k0417h14,S2aH3,S2m1021h08,S2n1024h11,S2n1024h15,S2o1221h07,S1c0202h15,S1d0226h07,S1e0314h07,S1f0315h07,S1f0315h09,S1g0318h13,S2l1007h09,S2m1021h18,S2o1221h18,S2p1230h10</t>
+  </si>
+  <si>
+    <t>S1c0202h22,S1c0202h24,S1e0314h05,S1e0314h21,S1g0318h03,S1h0321h23,S1j0416h22,S2aH1,S2m1021h03,S2p1230h19,S2p1230h24,S1d0226h04,S1e0314h24,S1g0318h05,S1j0416h20,S2l1007h01,S2l1007h20,S2l1007h24,S2m1021h21,S2m1021h24,S2n1024h01,S2n1024h05,S1b0103h03,S1b0103h05,S1b0103h19,S1f0315h05,S1g0318h21,S1g0318h22,S1h0321h04,S2m1021h20,S2m1021h22,S2n1024h23,S2p1230h04,S1b0103h21,S1e0314h04,S1e0314h22,S1i0328h20,S1k0417h04,S1k0417h21,S2m1021h01,S2o1221h20,S2p1230h01,S2p1230h06,S1c0202h21,S1f0315h01,S1f0315h06,S1h0321h02,S1h0321h06,S1h0321h19,S1i0328h03,S1i0328h05,S1j0416h01,S1k0417h20,S2l1007h04,S2n1024h06,S2n1024h19,S2o1221h01,S2p1230h03,S2p1230h05,S2p1230h22,S1c0202h06,S1f0315h04,S1f0315h24,S1h0321h24,S1i0328h04,S1i0328h06,S2l1007h06,S2m1021h02,S2m1021h23,S2n1024h24,S2o1221h23,S1d0226h24,S1h0321h03,S1i0328h01,S1j0416h04,S1j0416h21,S2aH4,S2o1221h22,S1c0202h03,S1d0226h03,S1d0226h20,S1j0416h06,S1k0417h05,S1k0417h06,S1k0417h19,S2l1007h05,S2m1021h19,S2p1230h02,S1d0226h21,S1g0318h24,S1i0328h23,S1k0417h02,S2l1007h03,S2o1221h21,S2p1230h23,S1b0103h22,S1b0103h24,S1c0202h01,S1e0314h03,S1e0314h23,S1f0315h21,S1g0318h04,S1i0328h19,S2n1024h20,S2o1221h04,S2o1221h06,S1b0103h01,S1b0103h02,S1e0314h02,S1f0315h03,S1f0315h23,S1g0318h01,S1g0318h19,S1g0318h20,S1h0321h20,S1i0328h24,S1j0416h02,S1j0416h19,S1k0417h23,S1k0417h24,S2n1024h21,S2n1024h22,S1c0202h04,S1c0202h23,S1d0226h02,S1e0314h01,S1e0314h06,S1e0314h20,S1g0318h06,S1g0318h23,S1i0328h02,S1j0416h23,S1k0417h01,S1k0417h22,S2l1007h23,S2m1021h06,S2n1024h02,S2o1221h24,S1aH4,S1b0103h06,S1d0226h06,S1h0321h21,S2l1007h21,S2o1221h19,S2p1230h20,S1aH1,S1b0103h23,S1d0226h23,S1f0315h02,S1f0315h20,S1g0318h02,S2l1007h19,S2l1007h22,S2m1021h05,S2n1024h04,S2o1221h05,S1c0202h02,S1c0202h05,S1c0202h19,S1d0226h01,S1d0226h05,S1d0226h19,S1f0315h19,S1h0321h01,S1h0321h22,S1i0328h21,S1i0328h22,S1k0417h03,S2m1021h04,S2n1024h03,S2o1221h02,S2p1230h21,S1b0103h04,S1b0103h20,S1c0202h20,S1d0226h22,S1e0314h19,S1f0315h22,S1h0321h05,S1j0416h03,S1j0416h05,S1j0416h24,S2l1007h02,S2o1221h03</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3116,7 +3116,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1c0202h03,S1d0226h03,S1d0226h20,S1j0416h06,S1k0417h05,S1k0417h06,S1k0417h19,S2l1007h05,S2m1021h19,S2p1230h02,S1d0226h21,S1g0318h24,S1i0328h23,S1k0417h02,S2l1007h03,S2o1221h21,S2p1230h23,S1b0103h21,S1e0314h04,S1e0314h22,S1i0328h20,S1k0417h04,S1k0417h21,S2m1021h01,S2o1221h20,S2p1230h01,S2p1230h06,S1c0202h22,S1c0202h24,S1e0314h05,S1e0314h21,S1g0318h03,S1h0321h23,S1j0416h22,S2aH1,S2m1021h03,S2p1230h19,S2p1230h24,S1c0202h04,S1c0202h23,S1d0226h02,S1e0314h01,S1e0314h06,S1e0314h20,S1g0318h06,S1g0318h23,S1i0328h02,S1j0416h23,S1k0417h01,S1k0417h22,S2l1007h23,S2m1021h06,S2n1024h02,S2o1221h24,S1d0226h04,S1e0314h24,S1g0318h05,S1j0416h20,S2l1007h01,S2l1007h20,S2l1007h24,S2m1021h21,S2m1021h24,S2n1024h01,S2n1024h05,S1b0103h04,S1b0103h20,S1c0202h20,S1d0226h22,S1e0314h19,S1f0315h22,S1h0321h05,S1j0416h03,S1j0416h05,S1j0416h24,S2l1007h02,S2o1221h03,S1d0226h24,S1h0321h03,S1i0328h01,S1j0416h04,S1j0416h21,S2aH4,S2o1221h22,S1b0103h22,S1b0103h24,S1c0202h01,S1e0314h03,S1e0314h23,S1f0315h21,S1g0318h04,S1i0328h19,S2n1024h20,S2o1221h04,S2o1221h06,S1c0202h02,S1c0202h05,S1c0202h19,S1d0226h01,S1d0226h05,S1d0226h19,S1f0315h19,S1h0321h01,S1h0321h22,S1i0328h21,S1i0328h22,S1k0417h03,S2m1021h04,S2n1024h03,S2o1221h02,S2p1230h21,S1c0202h21,S1f0315h01,S1f0315h06,S1h0321h02,S1h0321h06,S1h0321h19,S1i0328h03,S1i0328h05,S1j0416h01,S1k0417h20,S2l1007h04,S2n1024h06,S2n1024h19,S2o1221h01,S2p1230h03,S2p1230h05,S2p1230h22,S1c0202h06,S1f0315h04,S1f0315h24,S1h0321h24,S1i0328h04,S1i0328h06,S2l1007h06,S2m1021h02,S2m1021h23,S2n1024h24,S2o1221h23,S1b0103h01,S1b0103h02,S1e0314h02,S1f0315h03,S1f0315h23,S1g0318h01,S1g0318h19,S1g0318h20,S1h0321h20,S1i0328h24,S1j0416h02,S1j0416h19,S1k0417h23,S1k0417h24,S2n1024h21,S2n1024h22,S1b0103h03,S1b0103h05,S1b0103h19,S1f0315h05,S1g0318h21,S1g0318h22,S1h0321h04,S2m1021h20,S2m1021h22,S2n1024h23,S2p1230h04,S1aH1,S1b0103h23,S1d0226h23,S1f0315h02,S1f0315h20,S1g0318h02,S2l1007h19,S2l1007h22,S2m1021h05,S2n1024h04,S2o1221h05,S1aH4,S1b0103h06,S1d0226h06,S1h0321h21,S2l1007h21,S2o1221h19,S2p1230h20</v>
+        <v>S1c0202h22,S1c0202h24,S1e0314h05,S1e0314h21,S1g0318h03,S1h0321h23,S1j0416h22,S2aH1,S2m1021h03,S2p1230h19,S2p1230h24,S1d0226h04,S1e0314h24,S1g0318h05,S1j0416h20,S2l1007h01,S2l1007h20,S2l1007h24,S2m1021h21,S2m1021h24,S2n1024h01,S2n1024h05,S1b0103h03,S1b0103h05,S1b0103h19,S1f0315h05,S1g0318h21,S1g0318h22,S1h0321h04,S2m1021h20,S2m1021h22,S2n1024h23,S2p1230h04,S1b0103h21,S1e0314h04,S1e0314h22,S1i0328h20,S1k0417h04,S1k0417h21,S2m1021h01,S2o1221h20,S2p1230h01,S2p1230h06,S1c0202h21,S1f0315h01,S1f0315h06,S1h0321h02,S1h0321h06,S1h0321h19,S1i0328h03,S1i0328h05,S1j0416h01,S1k0417h20,S2l1007h04,S2n1024h06,S2n1024h19,S2o1221h01,S2p1230h03,S2p1230h05,S2p1230h22,S1c0202h06,S1f0315h04,S1f0315h24,S1h0321h24,S1i0328h04,S1i0328h06,S2l1007h06,S2m1021h02,S2m1021h23,S2n1024h24,S2o1221h23,S1d0226h24,S1h0321h03,S1i0328h01,S1j0416h04,S1j0416h21,S2aH4,S2o1221h22,S1c0202h03,S1d0226h03,S1d0226h20,S1j0416h06,S1k0417h05,S1k0417h06,S1k0417h19,S2l1007h05,S2m1021h19,S2p1230h02,S1d0226h21,S1g0318h24,S1i0328h23,S1k0417h02,S2l1007h03,S2o1221h21,S2p1230h23,S1b0103h22,S1b0103h24,S1c0202h01,S1e0314h03,S1e0314h23,S1f0315h21,S1g0318h04,S1i0328h19,S2n1024h20,S2o1221h04,S2o1221h06,S1b0103h01,S1b0103h02,S1e0314h02,S1f0315h03,S1f0315h23,S1g0318h01,S1g0318h19,S1g0318h20,S1h0321h20,S1i0328h24,S1j0416h02,S1j0416h19,S1k0417h23,S1k0417h24,S2n1024h21,S2n1024h22,S1c0202h04,S1c0202h23,S1d0226h02,S1e0314h01,S1e0314h06,S1e0314h20,S1g0318h06,S1g0318h23,S1i0328h02,S1j0416h23,S1k0417h01,S1k0417h22,S2l1007h23,S2m1021h06,S2n1024h02,S2o1221h24,S1aH4,S1b0103h06,S1d0226h06,S1h0321h21,S2l1007h21,S2o1221h19,S2p1230h20,S1aH1,S1b0103h23,S1d0226h23,S1f0315h02,S1f0315h20,S1g0318h02,S2l1007h19,S2l1007h22,S2m1021h05,S2n1024h04,S2o1221h05,S1c0202h02,S1c0202h05,S1c0202h19,S1d0226h01,S1d0226h05,S1d0226h19,S1f0315h19,S1h0321h01,S1h0321h22,S1i0328h21,S1i0328h22,S1k0417h03,S2m1021h04,S2n1024h03,S2o1221h02,S2p1230h21,S1b0103h04,S1b0103h20,S1c0202h20,S1d0226h22,S1e0314h19,S1f0315h22,S1h0321h05,S1j0416h03,S1j0416h05,S1j0416h24,S2l1007h02,S2o1221h03</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3148,7 +3148,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1b0103h13,S1c0202h09,S1e0314h08,S1e0314h13,S1h0321h07,S1i0328h11,S1j0416h17,S2m1021h11,S2o1221h08,S1b0103h11,S1e0314h15,S1f0315h14,S1g0318h10,S1h0321h10,S1i0328h07,S1k0417h10,S2m1021h12,S2o1221h14,S2p1230h08,S2p1230h16,S2p1230h17,S1c0202h07,S1c0202h08,S1d0226h15,S1e0314h17,S1g0318h17,S1h0321h11,S1h0321h17,S1i0328h09,S1i0328h16,S2m1021h10,S2p1230h07,S1c0202h13,S1f0315h12,S1f0315h13,S1k0417h11,S2l1007h07,S2l1007h10,S2n1024h07,S2o1221h10,S1c0202h14,S1d0226h11,S1e0314h11,S1g0318h18,S1j0416h10,S2l1007h16,S2m1021h07,S2m1021h09,S2m1021h15,S2n1024h10,S2n1024h12,S2o1221h16,S1d0226h13,S1e0314h12,S1f0315h08,S1f0315h10,S1g0318h15,S1i0328h17,S1k0417h07,S1k0417h13,S2l1007h08,S2l1007h14,S2n1024h13,S2p1230h15,S1c0202h15,S1d0226h07,S1e0314h07,S1f0315h07,S1f0315h09,S1g0318h13,S2l1007h09,S2m1021h18,S2o1221h18,S2p1230h10,S1b0103h18,S1c0202h12,S1c0202h17,S1c0202h18,S1d0226h14,S1d0226h16,S1h0321h18,S1i0328h10,S1i0328h14,S2l1007h12,S2l1007h17,S2n1024h08,S2n1024h18,S2p1230h11,S1g0318h12,S1j0416h11,S1j0416h12,S1k0417h15,S2l1007h15,S2n1024h14,S2o1221h15,S1aH2,S1c0202h11,S1d0226h17,S1d0226h18,S1f0315h18,S1h0321h15,S1i0328h15,S1k0417h14,S2aH3,S2m1021h08,S2n1024h11,S2n1024h15,S2o1221h07,S1b0103h07,S1b0103h12,S1d0226h09,S1e0314h09,S1e0314h10,S1e0314h14,S1e0314h18,S1g0318h11,S1h0321h12,S1i0328h12,S1j0416h18,S2m1021h17,S2n1024h16,S1aH3,S1b0103h10,S1b0103h16,S1c0202h10,S1d0226h12,S1h0321h08,S1j0416h09,S1j0416h13,S1j0416h15,S1k0417h08,S1k0417h17,S2l1007h18,S2o1221h13,S2p1230h09,S2p1230h18,S1b0103h08,S1f0315h11,S1f0315h17,S1h0321h09,S1h0321h14,S1i0328h13,S1i0328h18,S1j0416h16,S1k0417h16,S1k0417h18,S2o1221h09,S2o1221h17,S2p1230h12,S1b0103h15,S1b0103h17,S1c0202h16,S1d0226h08,S1d0226h10,S1f0315h16,S1g0318h07,S1g0318h09,S1g0318h16,S1i0328h08,S2aH2,S2m1021h16,S2o1221h12,S2p1230h14,S1f0315h15,S1g0318h14,S1h0321h13,S1h0321h16,S1j0416h08,S1j0416h14,S2n1024h09,S1b0103h09,S1b0103h14,S1e0314h16,S1g0318h08,S1j0416h07,S1k0417h09,S1k0417h12,S2l1007h11,S2l1007h13,S2m1021h13,S2m1021h14,S2n1024h17,S2o1221h11,S2p1230h13</v>
+        <v>S1c0202h13,S1f0315h12,S1f0315h13,S1k0417h11,S2l1007h07,S2l1007h10,S2n1024h07,S2o1221h10,S1d0226h13,S1e0314h12,S1f0315h08,S1f0315h10,S1g0318h15,S1i0328h17,S1k0417h07,S1k0417h13,S2l1007h08,S2l1007h14,S2n1024h13,S2p1230h15,S1b0103h15,S1b0103h17,S1c0202h16,S1d0226h08,S1d0226h10,S1f0315h16,S1g0318h07,S1g0318h09,S1g0318h16,S1i0328h08,S2aH2,S2m1021h16,S2o1221h12,S2p1230h14,S1c0202h07,S1c0202h08,S1d0226h15,S1e0314h17,S1g0318h17,S1h0321h11,S1h0321h17,S1i0328h09,S1i0328h16,S2m1021h10,S2p1230h07,S1b0103h07,S1b0103h12,S1d0226h09,S1e0314h09,S1e0314h10,S1e0314h14,S1e0314h18,S1g0318h11,S1h0321h12,S1i0328h12,S1j0416h18,S2m1021h17,S2n1024h16,S1aH3,S1b0103h10,S1b0103h16,S1c0202h10,S1d0226h12,S1h0321h08,S1j0416h09,S1j0416h13,S1j0416h15,S1k0417h08,S1k0417h17,S2l1007h18,S2o1221h13,S2p1230h09,S2p1230h18,S1b0103h18,S1c0202h12,S1c0202h17,S1c0202h18,S1d0226h14,S1d0226h16,S1h0321h18,S1i0328h10,S1i0328h14,S2l1007h12,S2l1007h17,S2n1024h08,S2n1024h18,S2p1230h11,S1b0103h13,S1c0202h09,S1e0314h08,S1e0314h13,S1h0321h07,S1i0328h11,S1j0416h17,S2m1021h11,S2o1221h08,S1b0103h11,S1e0314h15,S1f0315h14,S1g0318h10,S1h0321h10,S1i0328h07,S1k0417h10,S2m1021h12,S2o1221h14,S2p1230h08,S2p1230h16,S2p1230h17,S1g0318h12,S1j0416h11,S1j0416h12,S1k0417h15,S2l1007h15,S2n1024h14,S2o1221h15,S1b0103h08,S1f0315h11,S1f0315h17,S1h0321h09,S1h0321h14,S1i0328h13,S1i0328h18,S1j0416h16,S1k0417h16,S1k0417h18,S2o1221h09,S2o1221h17,S2p1230h12,S1c0202h14,S1d0226h11,S1e0314h11,S1g0318h18,S1j0416h10,S2l1007h16,S2m1021h07,S2m1021h09,S2m1021h15,S2n1024h10,S2n1024h12,S2o1221h16,S1b0103h09,S1b0103h14,S1e0314h16,S1g0318h08,S1j0416h07,S1k0417h09,S1k0417h12,S2l1007h11,S2l1007h13,S2m1021h13,S2m1021h14,S2n1024h17,S2o1221h11,S2p1230h13,S1f0315h15,S1g0318h14,S1h0321h13,S1h0321h16,S1j0416h08,S1j0416h14,S2n1024h09,S1aH2,S1c0202h11,S1d0226h17,S1d0226h18,S1f0315h18,S1h0321h15,S1i0328h15,S1k0417h14,S2aH3,S2m1021h08,S2n1024h11,S2n1024h15,S2o1221h07,S1c0202h15,S1d0226h07,S1e0314h07,S1f0315h07,S1f0315h09,S1g0318h13,S2l1007h09,S2m1021h18,S2o1221h18,S2p1230h10</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3761,7 +3761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3033E82-D4F1-449C-AF23-C7677571DF67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B19D51A-0044-46EF-819B-D84EC386F5B1}">
   <dimension ref="B2:F367"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6810,7 +6810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{506B1D5E-83D2-4893-9F1A-E6A0FB059937}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B03C3331-15BB-4FA1-9288-493532BDCA08}">
   <dimension ref="B2:O371"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6889,10 +6889,10 @@
         <v>829</v>
       </c>
       <c r="M4" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="N4">
-        <v>0.855124942156409</v>
+        <v>0.3448750578435909</v>
       </c>
       <c r="O4" t="s">
         <v>840</v>
@@ -6924,10 +6924,10 @@
         <v>829</v>
       </c>
       <c r="M5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="N5">
-        <v>0.3448750578435909</v>
+        <v>0.855124942156409</v>
       </c>
       <c r="O5" t="s">
         <v>840</v>
@@ -16455,7 +16455,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7923CB9-AC30-4E58-908C-32E5FD7D18F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F79BE184-0A9B-4985-BB1E-5CCE0665A53B}">
   <dimension ref="B2:O739"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_s5p5v5_d.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_s5p5v5_d.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E162738C-A43C-45DD-B291-AE8C52E6AFCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E83256B1-0A54-4F6C-B716-5F5FF411A4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2547,10 +2547,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1d0318h13,S1f0331h08,S1f0331h11,S1g0418h08,S1g0418h18,S1j0726h12,S1k0807h07,S1k0807h08,S1l1015h12,S1l1015h13,S1b0202h09,S1d0318h07,S1e0321h13,S1f0331h07,S1g0418h12,S1h0620h16,S1i0702h14,S1j0726h18,S1k0807h10,S2o1209h11,S2o1209h12,S1b0202h12,S1e0321h11,S1h0620h12,S1j0726h08,S1k0807h18,S2aH2,S2p1223h10,S1b0202h13,S1b0202h16,S1e0321h09,S1f0331h13,S1g0418h11,S1h0620h11,S1h0620h13,S1i0702h16,S2m1129h15,S2n1208h11,S2n1208h13,S2n1208h16,S2o1209h15,S1b0202h10,S1b0202h18,S1c0315h08,S1d0318h10,S1g0418h15,S1i0702h11,S1j0726h09,S1j0726h13,S2n1208h14,S1d0318h11,S1d0318h18,S1e0321h18,S1g0418h13,S1g0418h17,S1i0702h13,S1j0726h10,S1k0807h17,S1l1015h15,S2m1129h17,S2n1208h09,S2p1223h08,S2p1223h17,S1b0202h08,S1b0202h11,S1c0315h09,S1c0315h11,S1d0318h15,S1e0321h14,S1f0331h12,S1g0418h07,S1g0418h09,S1h0620h14,S1h0620h18,S1i0702h17,S1l1015h09,S2n1208h08,S2n1208h10,S2o1209h08,S2o1209h10,S2p1223h14,S1b0202h07,S1c0315h12,S1c0315h16,S1e0321h15,S1f0331h09,S1f0331h17,S1h0620h10,S1k0807h12,S1l1015h08,S2m1129h07,S2m1129h09,S2m1129h12,S2n1208h15,S2n1208h18,S2o1209h13,S2p1223h07,S1c0315h07,S1c0315h17,S1h0620h08,S1h0620h17,S1i0702h09,S1l1015h16,S2p1223h13,S1b0202h15,S1c0315h13,S1c0315h18,S1e0321h10,S1e0321h16,S1e0321h17,S1f0331h14,S1f0331h16,S1f0331h18,S1j0726h15,S1k0807h15,S2p1223h15,S1aH3,S1d0318h09,S1d0318h16,S1e0321h07,S1i0702h08,S1i0702h12,S1i0702h18,S1j0726h07,S1j0726h11,S1k0807h09,S1l1015h17,S1l1015h18,S1d0318h17,S1f0331h10,S1f0331h15,S1g0418h14,S1i0702h15,S1k0807h16,S2m1129h16,S2p1223h12,S1aH2,S1b0202h17,S1c0315h10,S1c0315h15,S1h0620h09,S1k0807h11,S1l1015h07,S2aH3,S2p1223h18,S1d0318h08,S1e0321h08,S1h0620h07,S1j0726h14,S1k0807h13,S1k0807h14,S1l1015h11,S1l1015h14,S2m1129h10,S2m1129h11,S2n1208h07,S2n1208h17,S2o1209h09,S2p1223h11,S1c0315h14,S1d0318h12,S1e0321h12,S1g0418h10,S1i0702h07,S1i0702h10,S1j0726h16,S2m1129h13,S2m1129h14,S2o1209h07,S2o1209h14,S2o1209h16,S2o1209h17,S2p1223h09,S1b0202h14,S1d0318h14,S1g0418h16,S1h0620h15,S1j0726h17,S1l1015h10,S2m1129h08,S2m1129h18,S2n1208h12,S2o1209h18,S2p1223h16</t>
-  </si>
-  <si>
-    <t>S1b0202h19,S1c0315h01,S1c0315h24,S1f0331h21,S1g0418h06,S1g0418h24,S1h0620h03,S1j0726h23,S1l1015h23,S2o1209h24,S2p1223h02,S2p1223h21,S2p1223h24,S1b0202h04,S1c0315h03,S1d0318h02,S1d0318h23,S1e0321h06,S1f0331h22,S1g0418h19,S1h0620h21,S1h0620h24,S1j0726h03,S1k0807h21,S1l1015h06,S1l1015h22,S2m1129h03,S2n1208h04,S2o1209h19,S1c0315h23,S1e0321h05,S1g0418h21,S1j0726h24,S1k0807h20,S1l1015h21,S2m1129h04,S2n1208h20,S2o1209h21,S1d0318h04,S1d0318h19,S1f0331h06,S1i0702h02,S1i0702h21,S1i0702h24,S1j0726h06,S1k0807h03,S1l1015h02,S1l1015h20,S2m1129h21,S2m1129h24,S2n1208h19,S2o1209h22,S2p1223h01,S1d0318h20,S1f0331h02,S1f0331h19,S1f0331h20,S1g0418h23,S1i0702h04,S1i0702h20,S1b0202h03,S1b0202h22,S1c0315h19,S1e0321h19,S1g0418h04,S1h0620h23,S1i0702h19,S1j0726h20,S1j0726h21,S1j0726h22,S2aH1,S2n1208h24,S2p1223h03,S1b0202h24,S1d0318h03,S1g0418h05,S1h0620h01,S1l1015h04,S1l1015h19,S1l1015h24,S2n1208h06,S1b0202h05,S1b0202h06,S1c0315h06,S1e0321h02,S1e0321h21,S1h0620h06,S1h0620h19,S1i0702h03,S1j0726h04,S1j0726h05,S2m1129h19,S2p1223h04,S2p1223h05,S2p1223h23,S1b0202h02,S1b0202h21,S1c0315h21,S1e0321h04,S1g0418h02,S1i0702h22,S1k0807h01,S1l1015h01,S1l1015h03,S2n1208h23,S2o1209h01,S2o1209h02,S2p1223h22,S1aH4,S1b0202h01,S1d0318h05,S1f0331h04,S1k0807h22,S2n1208h05,S2n1208h21,S2o1209h03,S1d0318h01,S1e0321h22,S1f0331h03,S1h0620h22,S1j0726h02,S1k0807h04,S1k0807h05,S1k0807h06,S2m1129h01,S2m1129h02,S2m1129h05,S2m1129h06,S2m1129h20,S2m1129h22,S2n1208h22,S2o1209h04,S2o1209h06,S2p1223h20,S1aH1,S1b0202h20,S1b0202h23,S1e0321h01,S1e0321h03,S1f0331h01,S1f0331h24,S1g0418h01,S1h0620h04,S2m1129h23,S1c0315h02,S1c0315h22,S1d0318h24,S1e0321h23,S1e0321h24,S1h0620h02,S1h0620h05,S1h0620h20,S2o1209h23,S1c0315h20,S1d0318h21,S1f0331h05,S1j0726h01,S1k0807h02,S1k0807h24,S2o1209h20,S1d0318h06,S1g0418h03,S1g0418h22,S1i0702h01,S1i0702h06,S1i0702h23,S1j0726h19,S1k0807h19,S1k0807h23,S2aH4,S2n1208h02,S2n1208h03,S2o1209h05,S2p1223h06,S1c0315h04,S1c0315h05,S1d0318h22,S1e0321h20,S1f0331h23,S1g0418h20,S1i0702h05,S1l1015h05,S2n1208h01,S2p1223h19</t>
+    <t>S1aH3,S1d0318h09,S1d0318h16,S1e0321h07,S1i0702h08,S1i0702h12,S1i0702h18,S1j0726h07,S1j0726h11,S1k0807h09,S1l1015h17,S1l1015h18,S1aH2,S1b0202h17,S1c0315h10,S1c0315h15,S1h0620h09,S1k0807h11,S1l1015h07,S2aH3,S2p1223h18,S1b0202h08,S1b0202h11,S1c0315h09,S1c0315h11,S1d0318h15,S1e0321h14,S1f0331h12,S1g0418h07,S1g0418h09,S1h0620h14,S1h0620h18,S1i0702h17,S1l1015h09,S2n1208h08,S2n1208h10,S2o1209h08,S2o1209h10,S2p1223h14,S1b0202h09,S1d0318h07,S1e0321h13,S1f0331h07,S1g0418h12,S1h0620h16,S1i0702h14,S1j0726h18,S1k0807h10,S2o1209h11,S2o1209h12,S1b0202h07,S1c0315h12,S1c0315h16,S1e0321h15,S1f0331h09,S1f0331h17,S1h0620h10,S1k0807h12,S1l1015h08,S2m1129h07,S2m1129h09,S2m1129h12,S2n1208h15,S2n1208h18,S2o1209h13,S2p1223h07,S1b0202h13,S1b0202h16,S1e0321h09,S1f0331h13,S1g0418h11,S1h0620h11,S1h0620h13,S1i0702h16,S2m1129h15,S2n1208h11,S2n1208h13,S2n1208h16,S2o1209h15,S1b0202h10,S1b0202h18,S1c0315h08,S1d0318h10,S1g0418h15,S1i0702h11,S1j0726h09,S1j0726h13,S2n1208h14,S1c0315h14,S1d0318h12,S1e0321h12,S1g0418h10,S1i0702h07,S1i0702h10,S1j0726h16,S2m1129h13,S2m1129h14,S2o1209h07,S2o1209h14,S2o1209h16,S2o1209h17,S2p1223h09,S1d0318h17,S1f0331h10,S1f0331h15,S1g0418h14,S1i0702h15,S1k0807h16,S2m1129h16,S2p1223h12,S1d0318h11,S1d0318h18,S1e0321h18,S1g0418h13,S1g0418h17,S1i0702h13,S1j0726h10,S1k0807h17,S1l1015h15,S2m1129h17,S2n1208h09,S2p1223h08,S2p1223h17,S1b0202h12,S1e0321h11,S1h0620h12,S1j0726h08,S1k0807h18,S2aH2,S2p1223h10,S1c0315h07,S1c0315h17,S1h0620h08,S1h0620h17,S1i0702h09,S1l1015h16,S2p1223h13,S1d0318h08,S1e0321h08,S1h0620h07,S1j0726h14,S1k0807h13,S1k0807h14,S1l1015h11,S1l1015h14,S2m1129h10,S2m1129h11,S2n1208h07,S2n1208h17,S2o1209h09,S2p1223h11,S1b0202h14,S1d0318h14,S1g0418h16,S1h0620h15,S1j0726h17,S1l1015h10,S2m1129h08,S2m1129h18,S2n1208h12,S2o1209h18,S2p1223h16,S1d0318h13,S1f0331h08,S1f0331h11,S1g0418h08,S1g0418h18,S1j0726h12,S1k0807h07,S1k0807h08,S1l1015h12,S1l1015h13,S1b0202h15,S1c0315h13,S1c0315h18,S1e0321h10,S1e0321h16,S1e0321h17,S1f0331h14,S1f0331h16,S1f0331h18,S1j0726h15,S1k0807h15,S2p1223h15</t>
+  </si>
+  <si>
+    <t>S1d0318h01,S1e0321h22,S1f0331h03,S1h0620h22,S1j0726h02,S1k0807h04,S1k0807h05,S1k0807h06,S2m1129h01,S2m1129h02,S2m1129h05,S2m1129h06,S2m1129h20,S2m1129h22,S2n1208h22,S2o1209h04,S2o1209h06,S2p1223h20,S1c0315h02,S1c0315h22,S1d0318h24,S1e0321h23,S1e0321h24,S1h0620h02,S1h0620h05,S1h0620h20,S2o1209h23,S1b0202h24,S1d0318h03,S1g0418h05,S1h0620h01,S1l1015h04,S1l1015h19,S1l1015h24,S2n1208h06,S1b0202h04,S1c0315h03,S1d0318h02,S1d0318h23,S1e0321h06,S1f0331h22,S1g0418h19,S1h0620h21,S1h0620h24,S1j0726h03,S1k0807h21,S1l1015h06,S1l1015h22,S2m1129h03,S2n1208h04,S2o1209h19,S1b0202h05,S1b0202h06,S1c0315h06,S1e0321h02,S1e0321h21,S1h0620h06,S1h0620h19,S1i0702h03,S1j0726h04,S1j0726h05,S2m1129h19,S2p1223h04,S2p1223h05,S2p1223h23,S1d0318h04,S1d0318h19,S1f0331h06,S1i0702h02,S1i0702h21,S1i0702h24,S1j0726h06,S1k0807h03,S1l1015h02,S1l1015h20,S2m1129h21,S2m1129h24,S2n1208h19,S2o1209h22,S2p1223h01,S1d0318h20,S1f0331h02,S1f0331h19,S1f0331h20,S1g0418h23,S1i0702h04,S1i0702h20,S1d0318h06,S1g0418h03,S1g0418h22,S1i0702h01,S1i0702h06,S1i0702h23,S1j0726h19,S1k0807h19,S1k0807h23,S2aH4,S2n1208h02,S2n1208h03,S2o1209h05,S2p1223h06,S1aH1,S1b0202h20,S1b0202h23,S1e0321h01,S1e0321h03,S1f0331h01,S1f0331h24,S1g0418h01,S1h0620h04,S2m1129h23,S1b0202h03,S1b0202h22,S1c0315h19,S1e0321h19,S1g0418h04,S1h0620h23,S1i0702h19,S1j0726h20,S1j0726h21,S1j0726h22,S2aH1,S2n1208h24,S2p1223h03,S1c0315h23,S1e0321h05,S1g0418h21,S1j0726h24,S1k0807h20,S1l1015h21,S2m1129h04,S2n1208h20,S2o1209h21,S1b0202h02,S1b0202h21,S1c0315h21,S1e0321h04,S1g0418h02,S1i0702h22,S1k0807h01,S1l1015h01,S1l1015h03,S2n1208h23,S2o1209h01,S2o1209h02,S2p1223h22,S1c0315h20,S1d0318h21,S1f0331h05,S1j0726h01,S1k0807h02,S1k0807h24,S2o1209h20,S1c0315h04,S1c0315h05,S1d0318h22,S1e0321h20,S1f0331h23,S1g0418h20,S1i0702h05,S1l1015h05,S2n1208h01,S2p1223h19,S1b0202h19,S1c0315h01,S1c0315h24,S1f0331h21,S1g0418h06,S1g0418h24,S1h0620h03,S1j0726h23,S1l1015h23,S2o1209h24,S2p1223h02,S2p1223h21,S2p1223h24,S1aH4,S1b0202h01,S1d0318h05,S1f0331h04,S1k0807h22,S2n1208h05,S2n1208h21,S2o1209h03</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -2867,7 +2867,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6EE618A-E8BC-4EFB-9876-4DE243A5F17A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF0B1E19-2A35-B66A-86D9-CC339ABB72BE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2922,7 +2922,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1994114A-D4A6-52A5-F8E2-8C74418FADAE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D21CD10-6452-5F97-1D32-143916B58F20}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2977,7 +2977,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7087A7C5-B70D-87CB-D61C-3E9F168EB3AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A0A8801-0E8D-8D2D-E10E-CCEBDDA5C689}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3385,7 +3385,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0202h19,S1c0315h01,S1c0315h24,S1f0331h21,S1g0418h06,S1g0418h24,S1h0620h03,S1j0726h23,S1l1015h23,S2o1209h24,S2p1223h02,S2p1223h21,S2p1223h24,S1b0202h04,S1c0315h03,S1d0318h02,S1d0318h23,S1e0321h06,S1f0331h22,S1g0418h19,S1h0620h21,S1h0620h24,S1j0726h03,S1k0807h21,S1l1015h06,S1l1015h22,S2m1129h03,S2n1208h04,S2o1209h19,S1c0315h23,S1e0321h05,S1g0418h21,S1j0726h24,S1k0807h20,S1l1015h21,S2m1129h04,S2n1208h20,S2o1209h21,S1d0318h04,S1d0318h19,S1f0331h06,S1i0702h02,S1i0702h21,S1i0702h24,S1j0726h06,S1k0807h03,S1l1015h02,S1l1015h20,S2m1129h21,S2m1129h24,S2n1208h19,S2o1209h22,S2p1223h01,S1d0318h20,S1f0331h02,S1f0331h19,S1f0331h20,S1g0418h23,S1i0702h04,S1i0702h20,S1b0202h03,S1b0202h22,S1c0315h19,S1e0321h19,S1g0418h04,S1h0620h23,S1i0702h19,S1j0726h20,S1j0726h21,S1j0726h22,S2aH1,S2n1208h24,S2p1223h03,S1b0202h24,S1d0318h03,S1g0418h05,S1h0620h01,S1l1015h04,S1l1015h19,S1l1015h24,S2n1208h06,S1b0202h05,S1b0202h06,S1c0315h06,S1e0321h02,S1e0321h21,S1h0620h06,S1h0620h19,S1i0702h03,S1j0726h04,S1j0726h05,S2m1129h19,S2p1223h04,S2p1223h05,S2p1223h23,S1b0202h02,S1b0202h21,S1c0315h21,S1e0321h04,S1g0418h02,S1i0702h22,S1k0807h01,S1l1015h01,S1l1015h03,S2n1208h23,S2o1209h01,S2o1209h02,S2p1223h22,S1aH4,S1b0202h01,S1d0318h05,S1f0331h04,S1k0807h22,S2n1208h05,S2n1208h21,S2o1209h03,S1d0318h01,S1e0321h22,S1f0331h03,S1h0620h22,S1j0726h02,S1k0807h04,S1k0807h05,S1k0807h06,S2m1129h01,S2m1129h02,S2m1129h05,S2m1129h06,S2m1129h20,S2m1129h22,S2n1208h22,S2o1209h04,S2o1209h06,S2p1223h20,S1aH1,S1b0202h20,S1b0202h23,S1e0321h01,S1e0321h03,S1f0331h01,S1f0331h24,S1g0418h01,S1h0620h04,S2m1129h23,S1c0315h02,S1c0315h22,S1d0318h24,S1e0321h23,S1e0321h24,S1h0620h02,S1h0620h05,S1h0620h20,S2o1209h23,S1c0315h20,S1d0318h21,S1f0331h05,S1j0726h01,S1k0807h02,S1k0807h24,S2o1209h20,S1d0318h06,S1g0418h03,S1g0418h22,S1i0702h01,S1i0702h06,S1i0702h23,S1j0726h19,S1k0807h19,S1k0807h23,S2aH4,S2n1208h02,S2n1208h03,S2o1209h05,S2p1223h06,S1c0315h04,S1c0315h05,S1d0318h22,S1e0321h20,S1f0331h23,S1g0418h20,S1i0702h05,S1l1015h05,S2n1208h01,S2p1223h19</v>
+        <v>S1d0318h01,S1e0321h22,S1f0331h03,S1h0620h22,S1j0726h02,S1k0807h04,S1k0807h05,S1k0807h06,S2m1129h01,S2m1129h02,S2m1129h05,S2m1129h06,S2m1129h20,S2m1129h22,S2n1208h22,S2o1209h04,S2o1209h06,S2p1223h20,S1c0315h02,S1c0315h22,S1d0318h24,S1e0321h23,S1e0321h24,S1h0620h02,S1h0620h05,S1h0620h20,S2o1209h23,S1b0202h24,S1d0318h03,S1g0418h05,S1h0620h01,S1l1015h04,S1l1015h19,S1l1015h24,S2n1208h06,S1b0202h04,S1c0315h03,S1d0318h02,S1d0318h23,S1e0321h06,S1f0331h22,S1g0418h19,S1h0620h21,S1h0620h24,S1j0726h03,S1k0807h21,S1l1015h06,S1l1015h22,S2m1129h03,S2n1208h04,S2o1209h19,S1b0202h05,S1b0202h06,S1c0315h06,S1e0321h02,S1e0321h21,S1h0620h06,S1h0620h19,S1i0702h03,S1j0726h04,S1j0726h05,S2m1129h19,S2p1223h04,S2p1223h05,S2p1223h23,S1d0318h04,S1d0318h19,S1f0331h06,S1i0702h02,S1i0702h21,S1i0702h24,S1j0726h06,S1k0807h03,S1l1015h02,S1l1015h20,S2m1129h21,S2m1129h24,S2n1208h19,S2o1209h22,S2p1223h01,S1d0318h20,S1f0331h02,S1f0331h19,S1f0331h20,S1g0418h23,S1i0702h04,S1i0702h20,S1d0318h06,S1g0418h03,S1g0418h22,S1i0702h01,S1i0702h06,S1i0702h23,S1j0726h19,S1k0807h19,S1k0807h23,S2aH4,S2n1208h02,S2n1208h03,S2o1209h05,S2p1223h06,S1aH1,S1b0202h20,S1b0202h23,S1e0321h01,S1e0321h03,S1f0331h01,S1f0331h24,S1g0418h01,S1h0620h04,S2m1129h23,S1b0202h03,S1b0202h22,S1c0315h19,S1e0321h19,S1g0418h04,S1h0620h23,S1i0702h19,S1j0726h20,S1j0726h21,S1j0726h22,S2aH1,S2n1208h24,S2p1223h03,S1c0315h23,S1e0321h05,S1g0418h21,S1j0726h24,S1k0807h20,S1l1015h21,S2m1129h04,S2n1208h20,S2o1209h21,S1b0202h02,S1b0202h21,S1c0315h21,S1e0321h04,S1g0418h02,S1i0702h22,S1k0807h01,S1l1015h01,S1l1015h03,S2n1208h23,S2o1209h01,S2o1209h02,S2p1223h22,S1c0315h20,S1d0318h21,S1f0331h05,S1j0726h01,S1k0807h02,S1k0807h24,S2o1209h20,S1c0315h04,S1c0315h05,S1d0318h22,S1e0321h20,S1f0331h23,S1g0418h20,S1i0702h05,S1l1015h05,S2n1208h01,S2p1223h19,S1b0202h19,S1c0315h01,S1c0315h24,S1f0331h21,S1g0418h06,S1g0418h24,S1h0620h03,S1j0726h23,S1l1015h23,S2o1209h24,S2p1223h02,S2p1223h21,S2p1223h24,S1aH4,S1b0202h01,S1d0318h05,S1f0331h04,S1k0807h22,S2n1208h05,S2n1208h21,S2o1209h03</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3417,7 +3417,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1d0318h13,S1f0331h08,S1f0331h11,S1g0418h08,S1g0418h18,S1j0726h12,S1k0807h07,S1k0807h08,S1l1015h12,S1l1015h13,S1b0202h09,S1d0318h07,S1e0321h13,S1f0331h07,S1g0418h12,S1h0620h16,S1i0702h14,S1j0726h18,S1k0807h10,S2o1209h11,S2o1209h12,S1b0202h12,S1e0321h11,S1h0620h12,S1j0726h08,S1k0807h18,S2aH2,S2p1223h10,S1b0202h13,S1b0202h16,S1e0321h09,S1f0331h13,S1g0418h11,S1h0620h11,S1h0620h13,S1i0702h16,S2m1129h15,S2n1208h11,S2n1208h13,S2n1208h16,S2o1209h15,S1b0202h10,S1b0202h18,S1c0315h08,S1d0318h10,S1g0418h15,S1i0702h11,S1j0726h09,S1j0726h13,S2n1208h14,S1d0318h11,S1d0318h18,S1e0321h18,S1g0418h13,S1g0418h17,S1i0702h13,S1j0726h10,S1k0807h17,S1l1015h15,S2m1129h17,S2n1208h09,S2p1223h08,S2p1223h17,S1b0202h08,S1b0202h11,S1c0315h09,S1c0315h11,S1d0318h15,S1e0321h14,S1f0331h12,S1g0418h07,S1g0418h09,S1h0620h14,S1h0620h18,S1i0702h17,S1l1015h09,S2n1208h08,S2n1208h10,S2o1209h08,S2o1209h10,S2p1223h14,S1b0202h07,S1c0315h12,S1c0315h16,S1e0321h15,S1f0331h09,S1f0331h17,S1h0620h10,S1k0807h12,S1l1015h08,S2m1129h07,S2m1129h09,S2m1129h12,S2n1208h15,S2n1208h18,S2o1209h13,S2p1223h07,S1c0315h07,S1c0315h17,S1h0620h08,S1h0620h17,S1i0702h09,S1l1015h16,S2p1223h13,S1b0202h15,S1c0315h13,S1c0315h18,S1e0321h10,S1e0321h16,S1e0321h17,S1f0331h14,S1f0331h16,S1f0331h18,S1j0726h15,S1k0807h15,S2p1223h15,S1aH3,S1d0318h09,S1d0318h16,S1e0321h07,S1i0702h08,S1i0702h12,S1i0702h18,S1j0726h07,S1j0726h11,S1k0807h09,S1l1015h17,S1l1015h18,S1d0318h17,S1f0331h10,S1f0331h15,S1g0418h14,S1i0702h15,S1k0807h16,S2m1129h16,S2p1223h12,S1aH2,S1b0202h17,S1c0315h10,S1c0315h15,S1h0620h09,S1k0807h11,S1l1015h07,S2aH3,S2p1223h18,S1d0318h08,S1e0321h08,S1h0620h07,S1j0726h14,S1k0807h13,S1k0807h14,S1l1015h11,S1l1015h14,S2m1129h10,S2m1129h11,S2n1208h07,S2n1208h17,S2o1209h09,S2p1223h11,S1c0315h14,S1d0318h12,S1e0321h12,S1g0418h10,S1i0702h07,S1i0702h10,S1j0726h16,S2m1129h13,S2m1129h14,S2o1209h07,S2o1209h14,S2o1209h16,S2o1209h17,S2p1223h09,S1b0202h14,S1d0318h14,S1g0418h16,S1h0620h15,S1j0726h17,S1l1015h10,S2m1129h08,S2m1129h18,S2n1208h12,S2o1209h18,S2p1223h16</v>
+        <v>S1aH3,S1d0318h09,S1d0318h16,S1e0321h07,S1i0702h08,S1i0702h12,S1i0702h18,S1j0726h07,S1j0726h11,S1k0807h09,S1l1015h17,S1l1015h18,S1aH2,S1b0202h17,S1c0315h10,S1c0315h15,S1h0620h09,S1k0807h11,S1l1015h07,S2aH3,S2p1223h18,S1b0202h08,S1b0202h11,S1c0315h09,S1c0315h11,S1d0318h15,S1e0321h14,S1f0331h12,S1g0418h07,S1g0418h09,S1h0620h14,S1h0620h18,S1i0702h17,S1l1015h09,S2n1208h08,S2n1208h10,S2o1209h08,S2o1209h10,S2p1223h14,S1b0202h09,S1d0318h07,S1e0321h13,S1f0331h07,S1g0418h12,S1h0620h16,S1i0702h14,S1j0726h18,S1k0807h10,S2o1209h11,S2o1209h12,S1b0202h07,S1c0315h12,S1c0315h16,S1e0321h15,S1f0331h09,S1f0331h17,S1h0620h10,S1k0807h12,S1l1015h08,S2m1129h07,S2m1129h09,S2m1129h12,S2n1208h15,S2n1208h18,S2o1209h13,S2p1223h07,S1b0202h13,S1b0202h16,S1e0321h09,S1f0331h13,S1g0418h11,S1h0620h11,S1h0620h13,S1i0702h16,S2m1129h15,S2n1208h11,S2n1208h13,S2n1208h16,S2o1209h15,S1b0202h10,S1b0202h18,S1c0315h08,S1d0318h10,S1g0418h15,S1i0702h11,S1j0726h09,S1j0726h13,S2n1208h14,S1c0315h14,S1d0318h12,S1e0321h12,S1g0418h10,S1i0702h07,S1i0702h10,S1j0726h16,S2m1129h13,S2m1129h14,S2o1209h07,S2o1209h14,S2o1209h16,S2o1209h17,S2p1223h09,S1d0318h17,S1f0331h10,S1f0331h15,S1g0418h14,S1i0702h15,S1k0807h16,S2m1129h16,S2p1223h12,S1d0318h11,S1d0318h18,S1e0321h18,S1g0418h13,S1g0418h17,S1i0702h13,S1j0726h10,S1k0807h17,S1l1015h15,S2m1129h17,S2n1208h09,S2p1223h08,S2p1223h17,S1b0202h12,S1e0321h11,S1h0620h12,S1j0726h08,S1k0807h18,S2aH2,S2p1223h10,S1c0315h07,S1c0315h17,S1h0620h08,S1h0620h17,S1i0702h09,S1l1015h16,S2p1223h13,S1d0318h08,S1e0321h08,S1h0620h07,S1j0726h14,S1k0807h13,S1k0807h14,S1l1015h11,S1l1015h14,S2m1129h10,S2m1129h11,S2n1208h07,S2n1208h17,S2o1209h09,S2p1223h11,S1b0202h14,S1d0318h14,S1g0418h16,S1h0620h15,S1j0726h17,S1l1015h10,S2m1129h08,S2m1129h18,S2n1208h12,S2o1209h18,S2p1223h16,S1d0318h13,S1f0331h08,S1f0331h11,S1g0418h08,S1g0418h18,S1j0726h12,S1k0807h07,S1k0807h08,S1l1015h12,S1l1015h13,S1b0202h15,S1c0315h13,S1c0315h18,S1e0321h10,S1e0321h16,S1e0321h17,S1f0331h14,S1f0331h16,S1f0331h18,S1j0726h15,S1k0807h15,S2p1223h15</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -4030,7 +4030,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53425465-175C-4B06-94F2-4C797E330328}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0B0DF1-AAF7-4F11-AEE6-E1A53E73D22D}">
   <dimension ref="A1:H374"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8158,7 +8158,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C9EC4E-C778-42BD-A0D9-48666649505D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7644A60A-C5B7-4BFB-A1E9-297CEB696A7C}">
   <dimension ref="A1:S378"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8287,10 +8287,10 @@
         <v>462</v>
       </c>
       <c r="Q11" s="23" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="R11" s="24">
-        <v>0.16266774641369736</v>
+        <v>1.0373322535863025</v>
       </c>
       <c r="S11" s="23" t="s">
         <v>843</v>
@@ -8334,10 +8334,10 @@
         <v>462</v>
       </c>
       <c r="Q12" s="25" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="R12" s="26">
-        <v>1.0373322535863025</v>
+        <v>0.16266774641369736</v>
       </c>
       <c r="S12" s="25" t="s">
         <v>843</v>
@@ -22261,7 +22261,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD28FF49-A4B0-482A-B457-EEE4603BEEEF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DFD3331-2EAE-4659-9185-5B2A406D29B4}">
   <dimension ref="A1:M746"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_s5p5v5_d.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_s5p5v5_d.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12368AA5-EF89-45A0-B29D-9695BCFA1A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B776171E-49E7-4FA1-9BD9-2EA3400FF426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2544,10 +2544,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1b0202h15,S1c0315h13,S1c0315h18,S1e0321h10,S1e0321h16,S1e0321h17,S1f0331h14,S1f0331h16,S1f0331h18,S1j0726h15,S1k0807h15,S2p1223h15,S1d0318h13,S1f0331h08,S1f0331h11,S1g0418h08,S1g0418h18,S1j0726h12,S1k0807h07,S1k0807h08,S1l1015h12,S1l1015h13,S1b0202h08,S1b0202h11,S1c0315h09,S1c0315h11,S1d0318h15,S1e0321h14,S1f0331h12,S1g0418h07,S1g0418h09,S1h0620h14,S1h0620h18,S1i0702h17,S1l1015h09,S2n1208h08,S2n1208h10,S2o1209h08,S2o1209h10,S2p1223h14,S1c0315h14,S1d0318h12,S1e0321h12,S1g0418h10,S1i0702h07,S1i0702h10,S1j0726h16,S2m1129h13,S2m1129h14,S2o1209h07,S2o1209h14,S2o1209h16,S2o1209h17,S2p1223h09,S1b0202h12,S1e0321h11,S1h0620h12,S1j0726h08,S1k0807h18,S2aH2,S2p1223h10,S1b0202h07,S1c0315h12,S1c0315h16,S1e0321h15,S1f0331h09,S1f0331h17,S1h0620h10,S1k0807h12,S1l1015h08,S2m1129h07,S2m1129h09,S2m1129h12,S2n1208h15,S2n1208h18,S2o1209h13,S2p1223h07,S1b0202h14,S1d0318h14,S1g0418h16,S1h0620h15,S1j0726h17,S1l1015h10,S2m1129h08,S2m1129h18,S2n1208h12,S2o1209h18,S2p1223h16,S1aH2,S1b0202h17,S1c0315h10,S1c0315h15,S1h0620h09,S1k0807h11,S1l1015h07,S2aH3,S2p1223h18,S1aH3,S1d0318h09,S1d0318h16,S1e0321h07,S1i0702h08,S1i0702h12,S1i0702h18,S1j0726h07,S1j0726h11,S1k0807h09,S1l1015h17,S1l1015h18,S1b0202h09,S1d0318h07,S1e0321h13,S1f0331h07,S1g0418h12,S1h0620h16,S1i0702h14,S1j0726h18,S1k0807h10,S2o1209h11,S2o1209h12,S1d0318h08,S1e0321h08,S1h0620h07,S1j0726h14,S1k0807h13,S1k0807h14,S1l1015h11,S1l1015h14,S2m1129h10,S2m1129h11,S2n1208h07,S2n1208h17,S2o1209h09,S2p1223h11,S1d0318h11,S1d0318h18,S1e0321h18,S1g0418h13,S1g0418h17,S1i0702h13,S1j0726h10,S1k0807h17,S1l1015h15,S2m1129h17,S2n1208h09,S2p1223h08,S2p1223h17,S1d0318h17,S1f0331h10,S1f0331h15,S1g0418h14,S1i0702h15,S1k0807h16,S2m1129h16,S2p1223h12,S1b0202h10,S1b0202h18,S1c0315h08,S1d0318h10,S1g0418h15,S1i0702h11,S1j0726h09,S1j0726h13,S2n1208h14,S1c0315h07,S1c0315h17,S1h0620h08,S1h0620h17,S1i0702h09,S1l1015h16,S2p1223h13,S1b0202h13,S1b0202h16,S1e0321h09,S1f0331h13,S1g0418h11,S1h0620h11,S1h0620h13,S1i0702h16,S2m1129h15,S2n1208h11,S2n1208h13,S2n1208h16,S2o1209h15</t>
-  </si>
-  <si>
-    <t>S1aH4,S1b0202h01,S1d0318h05,S1f0331h04,S1k0807h22,S2n1208h05,S2n1208h21,S2o1209h03,S1b0202h19,S1c0315h01,S1c0315h24,S1f0331h21,S1g0418h06,S1g0418h24,S1h0620h03,S1j0726h23,S1l1015h23,S2o1209h24,S2p1223h02,S2p1223h21,S2p1223h24,S1b0202h24,S1d0318h03,S1g0418h05,S1h0620h01,S1l1015h04,S1l1015h19,S1l1015h24,S2n1208h06,S1d0318h06,S1g0418h03,S1g0418h22,S1i0702h01,S1i0702h06,S1i0702h23,S1j0726h19,S1k0807h19,S1k0807h23,S2aH4,S2n1208h02,S2n1208h03,S2o1209h05,S2p1223h06,S1c0315h23,S1e0321h05,S1g0418h21,S1j0726h24,S1k0807h20,S1l1015h21,S2m1129h04,S2n1208h20,S2o1209h21,S1b0202h05,S1b0202h06,S1c0315h06,S1e0321h02,S1e0321h21,S1h0620h06,S1h0620h19,S1i0702h03,S1j0726h04,S1j0726h05,S2m1129h19,S2p1223h04,S2p1223h05,S2p1223h23,S1c0315h04,S1c0315h05,S1d0318h22,S1e0321h20,S1f0331h23,S1g0418h20,S1i0702h05,S1l1015h05,S2n1208h01,S2p1223h19,S1c0315h02,S1c0315h22,S1d0318h24,S1e0321h23,S1e0321h24,S1h0620h02,S1h0620h05,S1h0620h20,S2o1209h23,S1d0318h01,S1e0321h22,S1f0331h03,S1h0620h22,S1j0726h02,S1k0807h04,S1k0807h05,S1k0807h06,S2m1129h01,S2m1129h02,S2m1129h05,S2m1129h06,S2m1129h20,S2m1129h22,S2n1208h22,S2o1209h04,S2o1209h06,S2p1223h20,S1b0202h04,S1c0315h03,S1d0318h02,S1d0318h23,S1e0321h06,S1f0331h22,S1g0418h19,S1h0620h21,S1h0620h24,S1j0726h03,S1k0807h21,S1l1015h06,S1l1015h22,S2m1129h03,S2n1208h04,S2o1209h19,S1c0315h20,S1d0318h21,S1f0331h05,S1j0726h01,S1k0807h02,S1k0807h24,S2o1209h20,S1b0202h03,S1b0202h22,S1c0315h19,S1e0321h19,S1g0418h04,S1h0620h23,S1i0702h19,S1j0726h20,S1j0726h21,S1j0726h22,S2aH1,S2n1208h24,S2p1223h03,S1aH1,S1b0202h20,S1b0202h23,S1e0321h01,S1e0321h03,S1f0331h01,S1f0331h24,S1g0418h01,S1h0620h04,S2m1129h23,S1d0318h20,S1f0331h02,S1f0331h19,S1f0331h20,S1g0418h23,S1i0702h04,S1i0702h20,S1b0202h02,S1b0202h21,S1c0315h21,S1e0321h04,S1g0418h02,S1i0702h22,S1k0807h01,S1l1015h01,S1l1015h03,S2n1208h23,S2o1209h01,S2o1209h02,S2p1223h22,S1d0318h04,S1d0318h19,S1f0331h06,S1i0702h02,S1i0702h21,S1i0702h24,S1j0726h06,S1k0807h03,S1l1015h02,S1l1015h20,S2m1129h21,S2m1129h24,S2n1208h19,S2o1209h22,S2p1223h01</t>
+    <t>S1d0318h08,S1e0321h08,S1h0620h07,S1j0726h14,S1k0807h13,S1k0807h14,S1l1015h11,S1l1015h14,S2m1129h10,S2m1129h11,S2n1208h07,S2n1208h17,S2o1209h09,S2p1223h11,S1b0202h12,S1e0321h11,S1h0620h12,S1j0726h08,S1k0807h18,S2aH2,S2p1223h10,S1b0202h08,S1b0202h11,S1c0315h09,S1c0315h11,S1d0318h15,S1e0321h14,S1f0331h12,S1g0418h07,S1g0418h09,S1h0620h14,S1h0620h18,S1i0702h17,S1l1015h09,S2n1208h08,S2n1208h10,S2o1209h08,S2o1209h10,S2p1223h14,S1b0202h09,S1d0318h07,S1e0321h13,S1f0331h07,S1g0418h12,S1h0620h16,S1i0702h14,S1j0726h18,S1k0807h10,S2o1209h11,S2o1209h12,S1d0318h17,S1f0331h10,S1f0331h15,S1g0418h14,S1i0702h15,S1k0807h16,S2m1129h16,S2p1223h12,S1aH2,S1b0202h17,S1c0315h10,S1c0315h15,S1h0620h09,S1k0807h11,S1l1015h07,S2aH3,S2p1223h18,S1b0202h07,S1c0315h12,S1c0315h16,S1e0321h15,S1f0331h09,S1f0331h17,S1h0620h10,S1k0807h12,S1l1015h08,S2m1129h07,S2m1129h09,S2m1129h12,S2n1208h15,S2n1208h18,S2o1209h13,S2p1223h07,S1c0315h07,S1c0315h17,S1h0620h08,S1h0620h17,S1i0702h09,S1l1015h16,S2p1223h13,S1b0202h14,S1d0318h14,S1g0418h16,S1h0620h15,S1j0726h17,S1l1015h10,S2m1129h08,S2m1129h18,S2n1208h12,S2o1209h18,S2p1223h16,S1c0315h14,S1d0318h12,S1e0321h12,S1g0418h10,S1i0702h07,S1i0702h10,S1j0726h16,S2m1129h13,S2m1129h14,S2o1209h07,S2o1209h14,S2o1209h16,S2o1209h17,S2p1223h09,S1d0318h13,S1f0331h08,S1f0331h11,S1g0418h08,S1g0418h18,S1j0726h12,S1k0807h07,S1k0807h08,S1l1015h12,S1l1015h13,S1d0318h11,S1d0318h18,S1e0321h18,S1g0418h13,S1g0418h17,S1i0702h13,S1j0726h10,S1k0807h17,S1l1015h15,S2m1129h17,S2n1208h09,S2p1223h08,S2p1223h17,S1b0202h15,S1c0315h13,S1c0315h18,S1e0321h10,S1e0321h16,S1e0321h17,S1f0331h14,S1f0331h16,S1f0331h18,S1j0726h15,S1k0807h15,S2p1223h15,S1b0202h10,S1b0202h18,S1c0315h08,S1d0318h10,S1g0418h15,S1i0702h11,S1j0726h09,S1j0726h13,S2n1208h14,S1b0202h13,S1b0202h16,S1e0321h09,S1f0331h13,S1g0418h11,S1h0620h11,S1h0620h13,S1i0702h16,S2m1129h15,S2n1208h11,S2n1208h13,S2n1208h16,S2o1209h15,S1aH3,S1d0318h09,S1d0318h16,S1e0321h07,S1i0702h08,S1i0702h12,S1i0702h18,S1j0726h07,S1j0726h11,S1k0807h09,S1l1015h17,S1l1015h18</t>
+  </si>
+  <si>
+    <t>S1c0315h20,S1d0318h21,S1f0331h05,S1j0726h01,S1k0807h02,S1k0807h24,S2o1209h20,S1c0315h23,S1e0321h05,S1g0418h21,S1j0726h24,S1k0807h20,S1l1015h21,S2m1129h04,S2n1208h20,S2o1209h21,S1b0202h24,S1d0318h03,S1g0418h05,S1h0620h01,S1l1015h04,S1l1015h19,S1l1015h24,S2n1208h06,S1b0202h04,S1c0315h03,S1d0318h02,S1d0318h23,S1e0321h06,S1f0331h22,S1g0418h19,S1h0620h21,S1h0620h24,S1j0726h03,S1k0807h21,S1l1015h06,S1l1015h22,S2m1129h03,S2n1208h04,S2o1209h19,S1aH1,S1b0202h20,S1b0202h23,S1e0321h01,S1e0321h03,S1f0331h01,S1f0331h24,S1g0418h01,S1h0620h04,S2m1129h23,S1c0315h02,S1c0315h22,S1d0318h24,S1e0321h23,S1e0321h24,S1h0620h02,S1h0620h05,S1h0620h20,S2o1209h23,S1b0202h05,S1b0202h06,S1c0315h06,S1e0321h02,S1e0321h21,S1h0620h06,S1h0620h19,S1i0702h03,S1j0726h04,S1j0726h05,S2m1129h19,S2p1223h04,S2p1223h05,S2p1223h23,S1b0202h02,S1b0202h21,S1c0315h21,S1e0321h04,S1g0418h02,S1i0702h22,S1k0807h01,S1l1015h01,S1l1015h03,S2n1208h23,S2o1209h01,S2o1209h02,S2p1223h22,S1c0315h04,S1c0315h05,S1d0318h22,S1e0321h20,S1f0331h23,S1g0418h20,S1i0702h05,S1l1015h05,S2n1208h01,S2p1223h19,S1d0318h06,S1g0418h03,S1g0418h22,S1i0702h01,S1i0702h06,S1i0702h23,S1j0726h19,S1k0807h19,S1k0807h23,S2aH4,S2n1208h02,S2n1208h03,S2o1209h05,S2p1223h06,S1b0202h19,S1c0315h01,S1c0315h24,S1f0331h21,S1g0418h06,S1g0418h24,S1h0620h03,S1j0726h23,S1l1015h23,S2o1209h24,S2p1223h02,S2p1223h21,S2p1223h24,S1b0202h03,S1b0202h22,S1c0315h19,S1e0321h19,S1g0418h04,S1h0620h23,S1i0702h19,S1j0726h20,S1j0726h21,S1j0726h22,S2aH1,S2n1208h24,S2p1223h03,S1aH4,S1b0202h01,S1d0318h05,S1f0331h04,S1k0807h22,S2n1208h05,S2n1208h21,S2o1209h03,S1d0318h20,S1f0331h02,S1f0331h19,S1f0331h20,S1g0418h23,S1i0702h04,S1i0702h20,S1d0318h04,S1d0318h19,S1f0331h06,S1i0702h02,S1i0702h21,S1i0702h24,S1j0726h06,S1k0807h03,S1l1015h02,S1l1015h20,S2m1129h21,S2m1129h24,S2n1208h19,S2o1209h22,S2p1223h01,S1d0318h01,S1e0321h22,S1f0331h03,S1h0620h22,S1j0726h02,S1k0807h04,S1k0807h05,S1k0807h06,S2m1129h01,S2m1129h02,S2m1129h05,S2m1129h06,S2m1129h20,S2m1129h22,S2n1208h22,S2o1209h04,S2o1209h06,S2p1223h20</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3119,7 +3119,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1aH4,S1b0202h01,S1d0318h05,S1f0331h04,S1k0807h22,S2n1208h05,S2n1208h21,S2o1209h03,S1b0202h19,S1c0315h01,S1c0315h24,S1f0331h21,S1g0418h06,S1g0418h24,S1h0620h03,S1j0726h23,S1l1015h23,S2o1209h24,S2p1223h02,S2p1223h21,S2p1223h24,S1b0202h24,S1d0318h03,S1g0418h05,S1h0620h01,S1l1015h04,S1l1015h19,S1l1015h24,S2n1208h06,S1d0318h06,S1g0418h03,S1g0418h22,S1i0702h01,S1i0702h06,S1i0702h23,S1j0726h19,S1k0807h19,S1k0807h23,S2aH4,S2n1208h02,S2n1208h03,S2o1209h05,S2p1223h06,S1c0315h23,S1e0321h05,S1g0418h21,S1j0726h24,S1k0807h20,S1l1015h21,S2m1129h04,S2n1208h20,S2o1209h21,S1b0202h05,S1b0202h06,S1c0315h06,S1e0321h02,S1e0321h21,S1h0620h06,S1h0620h19,S1i0702h03,S1j0726h04,S1j0726h05,S2m1129h19,S2p1223h04,S2p1223h05,S2p1223h23,S1c0315h04,S1c0315h05,S1d0318h22,S1e0321h20,S1f0331h23,S1g0418h20,S1i0702h05,S1l1015h05,S2n1208h01,S2p1223h19,S1c0315h02,S1c0315h22,S1d0318h24,S1e0321h23,S1e0321h24,S1h0620h02,S1h0620h05,S1h0620h20,S2o1209h23,S1d0318h01,S1e0321h22,S1f0331h03,S1h0620h22,S1j0726h02,S1k0807h04,S1k0807h05,S1k0807h06,S2m1129h01,S2m1129h02,S2m1129h05,S2m1129h06,S2m1129h20,S2m1129h22,S2n1208h22,S2o1209h04,S2o1209h06,S2p1223h20,S1b0202h04,S1c0315h03,S1d0318h02,S1d0318h23,S1e0321h06,S1f0331h22,S1g0418h19,S1h0620h21,S1h0620h24,S1j0726h03,S1k0807h21,S1l1015h06,S1l1015h22,S2m1129h03,S2n1208h04,S2o1209h19,S1c0315h20,S1d0318h21,S1f0331h05,S1j0726h01,S1k0807h02,S1k0807h24,S2o1209h20,S1b0202h03,S1b0202h22,S1c0315h19,S1e0321h19,S1g0418h04,S1h0620h23,S1i0702h19,S1j0726h20,S1j0726h21,S1j0726h22,S2aH1,S2n1208h24,S2p1223h03,S1aH1,S1b0202h20,S1b0202h23,S1e0321h01,S1e0321h03,S1f0331h01,S1f0331h24,S1g0418h01,S1h0620h04,S2m1129h23,S1d0318h20,S1f0331h02,S1f0331h19,S1f0331h20,S1g0418h23,S1i0702h04,S1i0702h20,S1b0202h02,S1b0202h21,S1c0315h21,S1e0321h04,S1g0418h02,S1i0702h22,S1k0807h01,S1l1015h01,S1l1015h03,S2n1208h23,S2o1209h01,S2o1209h02,S2p1223h22,S1d0318h04,S1d0318h19,S1f0331h06,S1i0702h02,S1i0702h21,S1i0702h24,S1j0726h06,S1k0807h03,S1l1015h02,S1l1015h20,S2m1129h21,S2m1129h24,S2n1208h19,S2o1209h22,S2p1223h01</v>
+        <v>S1c0315h20,S1d0318h21,S1f0331h05,S1j0726h01,S1k0807h02,S1k0807h24,S2o1209h20,S1c0315h23,S1e0321h05,S1g0418h21,S1j0726h24,S1k0807h20,S1l1015h21,S2m1129h04,S2n1208h20,S2o1209h21,S1b0202h24,S1d0318h03,S1g0418h05,S1h0620h01,S1l1015h04,S1l1015h19,S1l1015h24,S2n1208h06,S1b0202h04,S1c0315h03,S1d0318h02,S1d0318h23,S1e0321h06,S1f0331h22,S1g0418h19,S1h0620h21,S1h0620h24,S1j0726h03,S1k0807h21,S1l1015h06,S1l1015h22,S2m1129h03,S2n1208h04,S2o1209h19,S1aH1,S1b0202h20,S1b0202h23,S1e0321h01,S1e0321h03,S1f0331h01,S1f0331h24,S1g0418h01,S1h0620h04,S2m1129h23,S1c0315h02,S1c0315h22,S1d0318h24,S1e0321h23,S1e0321h24,S1h0620h02,S1h0620h05,S1h0620h20,S2o1209h23,S1b0202h05,S1b0202h06,S1c0315h06,S1e0321h02,S1e0321h21,S1h0620h06,S1h0620h19,S1i0702h03,S1j0726h04,S1j0726h05,S2m1129h19,S2p1223h04,S2p1223h05,S2p1223h23,S1b0202h02,S1b0202h21,S1c0315h21,S1e0321h04,S1g0418h02,S1i0702h22,S1k0807h01,S1l1015h01,S1l1015h03,S2n1208h23,S2o1209h01,S2o1209h02,S2p1223h22,S1c0315h04,S1c0315h05,S1d0318h22,S1e0321h20,S1f0331h23,S1g0418h20,S1i0702h05,S1l1015h05,S2n1208h01,S2p1223h19,S1d0318h06,S1g0418h03,S1g0418h22,S1i0702h01,S1i0702h06,S1i0702h23,S1j0726h19,S1k0807h19,S1k0807h23,S2aH4,S2n1208h02,S2n1208h03,S2o1209h05,S2p1223h06,S1b0202h19,S1c0315h01,S1c0315h24,S1f0331h21,S1g0418h06,S1g0418h24,S1h0620h03,S1j0726h23,S1l1015h23,S2o1209h24,S2p1223h02,S2p1223h21,S2p1223h24,S1b0202h03,S1b0202h22,S1c0315h19,S1e0321h19,S1g0418h04,S1h0620h23,S1i0702h19,S1j0726h20,S1j0726h21,S1j0726h22,S2aH1,S2n1208h24,S2p1223h03,S1aH4,S1b0202h01,S1d0318h05,S1f0331h04,S1k0807h22,S2n1208h05,S2n1208h21,S2o1209h03,S1d0318h20,S1f0331h02,S1f0331h19,S1f0331h20,S1g0418h23,S1i0702h04,S1i0702h20,S1d0318h04,S1d0318h19,S1f0331h06,S1i0702h02,S1i0702h21,S1i0702h24,S1j0726h06,S1k0807h03,S1l1015h02,S1l1015h20,S2m1129h21,S2m1129h24,S2n1208h19,S2o1209h22,S2p1223h01,S1d0318h01,S1e0321h22,S1f0331h03,S1h0620h22,S1j0726h02,S1k0807h04,S1k0807h05,S1k0807h06,S2m1129h01,S2m1129h02,S2m1129h05,S2m1129h06,S2m1129h20,S2m1129h22,S2n1208h22,S2o1209h04,S2o1209h06,S2p1223h20</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3151,7 +3151,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1b0202h15,S1c0315h13,S1c0315h18,S1e0321h10,S1e0321h16,S1e0321h17,S1f0331h14,S1f0331h16,S1f0331h18,S1j0726h15,S1k0807h15,S2p1223h15,S1d0318h13,S1f0331h08,S1f0331h11,S1g0418h08,S1g0418h18,S1j0726h12,S1k0807h07,S1k0807h08,S1l1015h12,S1l1015h13,S1b0202h08,S1b0202h11,S1c0315h09,S1c0315h11,S1d0318h15,S1e0321h14,S1f0331h12,S1g0418h07,S1g0418h09,S1h0620h14,S1h0620h18,S1i0702h17,S1l1015h09,S2n1208h08,S2n1208h10,S2o1209h08,S2o1209h10,S2p1223h14,S1c0315h14,S1d0318h12,S1e0321h12,S1g0418h10,S1i0702h07,S1i0702h10,S1j0726h16,S2m1129h13,S2m1129h14,S2o1209h07,S2o1209h14,S2o1209h16,S2o1209h17,S2p1223h09,S1b0202h12,S1e0321h11,S1h0620h12,S1j0726h08,S1k0807h18,S2aH2,S2p1223h10,S1b0202h07,S1c0315h12,S1c0315h16,S1e0321h15,S1f0331h09,S1f0331h17,S1h0620h10,S1k0807h12,S1l1015h08,S2m1129h07,S2m1129h09,S2m1129h12,S2n1208h15,S2n1208h18,S2o1209h13,S2p1223h07,S1b0202h14,S1d0318h14,S1g0418h16,S1h0620h15,S1j0726h17,S1l1015h10,S2m1129h08,S2m1129h18,S2n1208h12,S2o1209h18,S2p1223h16,S1aH2,S1b0202h17,S1c0315h10,S1c0315h15,S1h0620h09,S1k0807h11,S1l1015h07,S2aH3,S2p1223h18,S1aH3,S1d0318h09,S1d0318h16,S1e0321h07,S1i0702h08,S1i0702h12,S1i0702h18,S1j0726h07,S1j0726h11,S1k0807h09,S1l1015h17,S1l1015h18,S1b0202h09,S1d0318h07,S1e0321h13,S1f0331h07,S1g0418h12,S1h0620h16,S1i0702h14,S1j0726h18,S1k0807h10,S2o1209h11,S2o1209h12,S1d0318h08,S1e0321h08,S1h0620h07,S1j0726h14,S1k0807h13,S1k0807h14,S1l1015h11,S1l1015h14,S2m1129h10,S2m1129h11,S2n1208h07,S2n1208h17,S2o1209h09,S2p1223h11,S1d0318h11,S1d0318h18,S1e0321h18,S1g0418h13,S1g0418h17,S1i0702h13,S1j0726h10,S1k0807h17,S1l1015h15,S2m1129h17,S2n1208h09,S2p1223h08,S2p1223h17,S1d0318h17,S1f0331h10,S1f0331h15,S1g0418h14,S1i0702h15,S1k0807h16,S2m1129h16,S2p1223h12,S1b0202h10,S1b0202h18,S1c0315h08,S1d0318h10,S1g0418h15,S1i0702h11,S1j0726h09,S1j0726h13,S2n1208h14,S1c0315h07,S1c0315h17,S1h0620h08,S1h0620h17,S1i0702h09,S1l1015h16,S2p1223h13,S1b0202h13,S1b0202h16,S1e0321h09,S1f0331h13,S1g0418h11,S1h0620h11,S1h0620h13,S1i0702h16,S2m1129h15,S2n1208h11,S2n1208h13,S2n1208h16,S2o1209h15</v>
+        <v>S1d0318h08,S1e0321h08,S1h0620h07,S1j0726h14,S1k0807h13,S1k0807h14,S1l1015h11,S1l1015h14,S2m1129h10,S2m1129h11,S2n1208h07,S2n1208h17,S2o1209h09,S2p1223h11,S1b0202h12,S1e0321h11,S1h0620h12,S1j0726h08,S1k0807h18,S2aH2,S2p1223h10,S1b0202h08,S1b0202h11,S1c0315h09,S1c0315h11,S1d0318h15,S1e0321h14,S1f0331h12,S1g0418h07,S1g0418h09,S1h0620h14,S1h0620h18,S1i0702h17,S1l1015h09,S2n1208h08,S2n1208h10,S2o1209h08,S2o1209h10,S2p1223h14,S1b0202h09,S1d0318h07,S1e0321h13,S1f0331h07,S1g0418h12,S1h0620h16,S1i0702h14,S1j0726h18,S1k0807h10,S2o1209h11,S2o1209h12,S1d0318h17,S1f0331h10,S1f0331h15,S1g0418h14,S1i0702h15,S1k0807h16,S2m1129h16,S2p1223h12,S1aH2,S1b0202h17,S1c0315h10,S1c0315h15,S1h0620h09,S1k0807h11,S1l1015h07,S2aH3,S2p1223h18,S1b0202h07,S1c0315h12,S1c0315h16,S1e0321h15,S1f0331h09,S1f0331h17,S1h0620h10,S1k0807h12,S1l1015h08,S2m1129h07,S2m1129h09,S2m1129h12,S2n1208h15,S2n1208h18,S2o1209h13,S2p1223h07,S1c0315h07,S1c0315h17,S1h0620h08,S1h0620h17,S1i0702h09,S1l1015h16,S2p1223h13,S1b0202h14,S1d0318h14,S1g0418h16,S1h0620h15,S1j0726h17,S1l1015h10,S2m1129h08,S2m1129h18,S2n1208h12,S2o1209h18,S2p1223h16,S1c0315h14,S1d0318h12,S1e0321h12,S1g0418h10,S1i0702h07,S1i0702h10,S1j0726h16,S2m1129h13,S2m1129h14,S2o1209h07,S2o1209h14,S2o1209h16,S2o1209h17,S2p1223h09,S1d0318h13,S1f0331h08,S1f0331h11,S1g0418h08,S1g0418h18,S1j0726h12,S1k0807h07,S1k0807h08,S1l1015h12,S1l1015h13,S1d0318h11,S1d0318h18,S1e0321h18,S1g0418h13,S1g0418h17,S1i0702h13,S1j0726h10,S1k0807h17,S1l1015h15,S2m1129h17,S2n1208h09,S2p1223h08,S2p1223h17,S1b0202h15,S1c0315h13,S1c0315h18,S1e0321h10,S1e0321h16,S1e0321h17,S1f0331h14,S1f0331h16,S1f0331h18,S1j0726h15,S1k0807h15,S2p1223h15,S1b0202h10,S1b0202h18,S1c0315h08,S1d0318h10,S1g0418h15,S1i0702h11,S1j0726h09,S1j0726h13,S2n1208h14,S1b0202h13,S1b0202h16,S1e0321h09,S1f0331h13,S1g0418h11,S1h0620h11,S1h0620h13,S1i0702h16,S2m1129h15,S2n1208h11,S2n1208h13,S2n1208h16,S2o1209h15,S1aH3,S1d0318h09,S1d0318h16,S1e0321h07,S1i0702h08,S1i0702h12,S1i0702h18,S1j0726h07,S1j0726h11,S1k0807h09,S1l1015h17,S1l1015h18</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3764,7 +3764,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C04B21-8AC2-49C1-ADE3-89585C55C010}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D36DDFD9-CCAB-47F5-B9F3-6B12F0B81EB5}">
   <dimension ref="B9:F374"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6813,7 +6813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D79E91A-43D6-49FB-B2C9-652573D1B594}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC5D1CDA-E355-4744-8AD3-E20CA90B1788}">
   <dimension ref="B9:S378"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -20889,7 +20889,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8CBBC20-7E2A-460E-9062-B193C228F3F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D4F32A2-6E6E-4CF1-81C4-10E63E6716C8}">
   <dimension ref="B9:M746"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_s5p5v5_d.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_s5p5v5_d.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB0D91B2-5C38-41B4-9FAC-15318A3AFC2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1803E2A9-517D-4DC8-9404-387935A1D04B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2400,13 +2400,13 @@
     <t>D</t>
   </si>
   <si>
-    <t>S1b0202h12,S1e0321h11,S1h0620h12,S1j0726h08,S1k0807h18,S2aH2,S2p1223h10,S1d0318h17,S1f0331h10,S1f0331h15,S1g0418h14,S1i0702h15,S1k0807h16,S2m1129h16,S2p1223h12,S1d0318h11,S1d0318h18,S1e0321h18,S1g0418h13,S1g0418h17,S1i0702h13,S1j0726h10,S1k0807h17,S1l1015h15,S2m1129h17,S2n1208h09,S2p1223h08,S2p1223h17,S1b0202h13,S1b0202h16,S1e0321h09,S1f0331h13,S1g0418h11,S1h0620h11,S1h0620h13,S1i0702h16,S2m1129h15,S2n1208h11,S2n1208h13,S2n1208h16,S2o1209h15,S1b0202h08,S1b0202h11,S1c0315h09,S1c0315h11,S1d0318h15,S1e0321h14,S1f0331h12,S1g0418h07,S1g0418h09,S1h0620h14,S1h0620h18,S1i0702h17,S1l1015h09,S2n1208h08,S2n1208h10,S2o1209h08,S2o1209h10,S2p1223h14,S1c0315h14,S1d0318h12,S1e0321h12,S1g0418h10,S1i0702h07,S1i0702h10,S1j0726h16,S2m1129h13,S2m1129h14,S2o1209h07,S2o1209h14,S2o1209h16,S2o1209h17,S2p1223h09,S1b0202h10,S1b0202h18,S1c0315h08,S1d0318h10,S1g0418h15,S1i0702h11,S1j0726h09,S1j0726h13,S2n1208h14,S1c0315h07,S1c0315h17,S1h0620h08,S1h0620h17,S1i0702h09,S1l1015h16,S2p1223h13,S1b0202h07,S1c0315h12,S1c0315h16,S1e0321h15,S1f0331h09,S1f0331h17,S1h0620h10,S1k0807h12,S1l1015h08,S2m1129h07,S2m1129h09,S2m1129h12,S2n1208h15,S2n1208h18,S2o1209h13,S2p1223h07,S1d0318h13,S1f0331h08,S1f0331h11,S1g0418h08,S1g0418h18,S1j0726h12,S1k0807h07,S1k0807h08,S1l1015h12,S1l1015h13,S1b0202h15,S1c0315h13,S1c0315h18,S1e0321h10,S1e0321h16,S1e0321h17,S1f0331h14,S1f0331h16,S1f0331h18,S1j0726h15,S1k0807h15,S2p1223h15,S1aH3,S1d0318h09,S1d0318h16,S1e0321h07,S1i0702h08,S1i0702h12,S1i0702h18,S1j0726h07,S1j0726h11,S1k0807h09,S1l1015h17,S1l1015h18,S1b0202h09,S1d0318h07,S1e0321h13,S1f0331h07,S1g0418h12,S1h0620h16,S1i0702h14,S1j0726h18,S1k0807h10,S2o1209h11,S2o1209h12,S1d0318h08,S1e0321h08,S1h0620h07,S1j0726h14,S1k0807h13,S1k0807h14,S1l1015h11,S1l1015h14,S2m1129h10,S2m1129h11,S2n1208h07,S2n1208h17,S2o1209h09,S2p1223h11,S1aH2,S1b0202h17,S1c0315h10,S1c0315h15,S1h0620h09,S1k0807h11,S1l1015h07,S2aH3,S2p1223h18,S1b0202h14,S1d0318h14,S1g0418h16,S1h0620h15,S1j0726h17,S1l1015h10,S2m1129h08,S2m1129h18,S2n1208h12,S2o1209h18,S2p1223h16</t>
+    <t>S1b0202h15,S1c0315h13,S1c0315h18,S1e0321h10,S1e0321h16,S1e0321h17,S1f0331h14,S1f0331h16,S1f0331h18,S1j0726h15,S1k0807h15,S2p1223h15,S1b0202h07,S1c0315h12,S1c0315h16,S1e0321h15,S1f0331h09,S1f0331h17,S1h0620h10,S1k0807h12,S1l1015h08,S2m1129h07,S2m1129h09,S2m1129h12,S2n1208h15,S2n1208h18,S2o1209h13,S2p1223h07,S1aH2,S1b0202h17,S1c0315h10,S1c0315h15,S1h0620h09,S1k0807h11,S1l1015h07,S2aH3,S2p1223h18,S1d0318h17,S1f0331h10,S1f0331h15,S1g0418h14,S1i0702h15,S1k0807h16,S2m1129h16,S2p1223h12,S1b0202h14,S1d0318h14,S1g0418h16,S1h0620h15,S1j0726h17,S1l1015h10,S2m1129h08,S2m1129h18,S2n1208h12,S2o1209h18,S2p1223h16,S1d0318h11,S1d0318h18,S1e0321h18,S1g0418h13,S1g0418h17,S1i0702h13,S1j0726h10,S1k0807h17,S1l1015h15,S2m1129h17,S2n1208h09,S2p1223h08,S2p1223h17,S1c0315h07,S1c0315h17,S1h0620h08,S1h0620h17,S1i0702h09,S1l1015h16,S2p1223h13,S1b0202h09,S1d0318h07,S1e0321h13,S1f0331h07,S1g0418h12,S1h0620h16,S1i0702h14,S1j0726h18,S1k0807h10,S2o1209h11,S2o1209h12,S1d0318h13,S1f0331h08,S1f0331h11,S1g0418h08,S1g0418h18,S1j0726h12,S1k0807h07,S1k0807h08,S1l1015h12,S1l1015h13,S1d0318h08,S1e0321h08,S1h0620h07,S1j0726h14,S1k0807h13,S1k0807h14,S1l1015h11,S1l1015h14,S2m1129h10,S2m1129h11,S2n1208h07,S2n1208h17,S2o1209h09,S2p1223h11,S1b0202h13,S1b0202h16,S1e0321h09,S1f0331h13,S1g0418h11,S1h0620h11,S1h0620h13,S1i0702h16,S2m1129h15,S2n1208h11,S2n1208h13,S2n1208h16,S2o1209h15,S1aH3,S1d0318h09,S1d0318h16,S1e0321h07,S1i0702h08,S1i0702h12,S1i0702h18,S1j0726h07,S1j0726h11,S1k0807h09,S1l1015h17,S1l1015h18,S1c0315h14,S1d0318h12,S1e0321h12,S1g0418h10,S1i0702h07,S1i0702h10,S1j0726h16,S2m1129h13,S2m1129h14,S2o1209h07,S2o1209h14,S2o1209h16,S2o1209h17,S2p1223h09,S1b0202h10,S1b0202h18,S1c0315h08,S1d0318h10,S1g0418h15,S1i0702h11,S1j0726h09,S1j0726h13,S2n1208h14,S1b0202h08,S1b0202h11,S1c0315h09,S1c0315h11,S1d0318h15,S1e0321h14,S1f0331h12,S1g0418h07,S1g0418h09,S1h0620h14,S1h0620h18,S1i0702h17,S1l1015h09,S2n1208h08,S2n1208h10,S2o1209h08,S2o1209h10,S2p1223h14,S1b0202h12,S1e0321h11,S1h0620h12,S1j0726h08,S1k0807h18,S2aH2,S2p1223h10</t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>S1c0315h23,S1e0321h05,S1g0418h21,S1j0726h24,S1k0807h20,S1l1015h21,S2m1129h04,S2n1208h20,S2o1209h21,S1aH1,S1b0202h20,S1b0202h23,S1e0321h01,S1e0321h03,S1f0331h01,S1f0331h24,S1g0418h01,S1h0620h04,S2m1129h23,S1b0202h03,S1b0202h22,S1c0315h19,S1e0321h19,S1g0418h04,S1h0620h23,S1i0702h19,S1j0726h20,S1j0726h21,S1j0726h22,S2aH1,S2n1208h24,S2p1223h03,S1d0318h04,S1d0318h19,S1f0331h06,S1i0702h02,S1i0702h21,S1i0702h24,S1j0726h06,S1k0807h03,S1l1015h02,S1l1015h20,S2m1129h21,S2m1129h24,S2n1208h19,S2o1209h22,S2p1223h01,S1b0202h24,S1d0318h03,S1g0418h05,S1h0620h01,S1l1015h04,S1l1015h19,S1l1015h24,S2n1208h06,S1d0318h06,S1g0418h03,S1g0418h22,S1i0702h01,S1i0702h06,S1i0702h23,S1j0726h19,S1k0807h19,S1k0807h23,S2aH4,S2n1208h02,S2n1208h03,S2o1209h05,S2p1223h06,S1d0318h20,S1f0331h02,S1f0331h19,S1f0331h20,S1g0418h23,S1i0702h04,S1i0702h20,S1b0202h02,S1b0202h21,S1c0315h21,S1e0321h04,S1g0418h02,S1i0702h22,S1k0807h01,S1l1015h01,S1l1015h03,S2n1208h23,S2o1209h01,S2o1209h02,S2p1223h22,S1b0202h05,S1b0202h06,S1c0315h06,S1e0321h02,S1e0321h21,S1h0620h06,S1h0620h19,S1i0702h03,S1j0726h04,S1j0726h05,S2m1129h19,S2p1223h04,S2p1223h05,S2p1223h23,S1b0202h19,S1c0315h01,S1c0315h24,S1f0331h21,S1g0418h06,S1g0418h24,S1h0620h03,S1j0726h23,S1l1015h23,S2o1209h24,S2p1223h02,S2p1223h21,S2p1223h24,S1aH4,S1b0202h01,S1d0318h05,S1f0331h04,S1k0807h22,S2n1208h05,S2n1208h21,S2o1209h03,S1d0318h01,S1e0321h22,S1f0331h03,S1h0620h22,S1j0726h02,S1k0807h04,S1k0807h05,S1k0807h06,S2m1129h01,S2m1129h02,S2m1129h05,S2m1129h06,S2m1129h20,S2m1129h22,S2n1208h22,S2o1209h04,S2o1209h06,S2p1223h20,S1b0202h04,S1c0315h03,S1d0318h02,S1d0318h23,S1e0321h06,S1f0331h22,S1g0418h19,S1h0620h21,S1h0620h24,S1j0726h03,S1k0807h21,S1l1015h06,S1l1015h22,S2m1129h03,S2n1208h04,S2o1209h19,S1c0315h20,S1d0318h21,S1f0331h05,S1j0726h01,S1k0807h02,S1k0807h24,S2o1209h20,S1c0315h02,S1c0315h22,S1d0318h24,S1e0321h23,S1e0321h24,S1h0620h02,S1h0620h05,S1h0620h20,S2o1209h23,S1c0315h04,S1c0315h05,S1d0318h22,S1e0321h20,S1f0331h23,S1g0418h20,S1i0702h05,S1l1015h05,S2n1208h01,S2p1223h19</t>
+    <t>S1aH4,S1b0202h01,S1d0318h05,S1f0331h04,S1k0807h22,S2n1208h05,S2n1208h21,S2o1209h03,S1b0202h05,S1b0202h06,S1c0315h06,S1e0321h02,S1e0321h21,S1h0620h06,S1h0620h19,S1i0702h03,S1j0726h04,S1j0726h05,S2m1129h19,S2p1223h04,S2p1223h05,S2p1223h23,S1c0315h02,S1c0315h22,S1d0318h24,S1e0321h23,S1e0321h24,S1h0620h02,S1h0620h05,S1h0620h20,S2o1209h23,S1aH1,S1b0202h20,S1b0202h23,S1e0321h01,S1e0321h03,S1f0331h01,S1f0331h24,S1g0418h01,S1h0620h04,S2m1129h23,S1c0315h04,S1c0315h05,S1d0318h22,S1e0321h20,S1f0331h23,S1g0418h20,S1i0702h05,S1l1015h05,S2n1208h01,S2p1223h19,S1b0202h03,S1b0202h22,S1c0315h19,S1e0321h19,S1g0418h04,S1h0620h23,S1i0702h19,S1j0726h20,S1j0726h21,S1j0726h22,S2aH1,S2n1208h24,S2p1223h03,S1b0202h02,S1b0202h21,S1c0315h21,S1e0321h04,S1g0418h02,S1i0702h22,S1k0807h01,S1l1015h01,S1l1015h03,S2n1208h23,S2o1209h01,S2o1209h02,S2p1223h22,S1b0202h04,S1c0315h03,S1d0318h02,S1d0318h23,S1e0321h06,S1f0331h22,S1g0418h19,S1h0620h21,S1h0620h24,S1j0726h03,S1k0807h21,S1l1015h06,S1l1015h22,S2m1129h03,S2n1208h04,S2o1209h19,S1b0202h19,S1c0315h01,S1c0315h24,S1f0331h21,S1g0418h06,S1g0418h24,S1h0620h03,S1j0726h23,S1l1015h23,S2o1209h24,S2p1223h02,S2p1223h21,S2p1223h24,S1c0315h20,S1d0318h21,S1f0331h05,S1j0726h01,S1k0807h02,S1k0807h24,S2o1209h20,S1d0318h04,S1d0318h19,S1f0331h06,S1i0702h02,S1i0702h21,S1i0702h24,S1j0726h06,S1k0807h03,S1l1015h02,S1l1015h20,S2m1129h21,S2m1129h24,S2n1208h19,S2o1209h22,S2p1223h01,S1d0318h01,S1e0321h22,S1f0331h03,S1h0620h22,S1j0726h02,S1k0807h04,S1k0807h05,S1k0807h06,S2m1129h01,S2m1129h02,S2m1129h05,S2m1129h06,S2m1129h20,S2m1129h22,S2n1208h22,S2o1209h04,S2o1209h06,S2p1223h20,S1d0318h06,S1g0418h03,S1g0418h22,S1i0702h01,S1i0702h06,S1i0702h23,S1j0726h19,S1k0807h19,S1k0807h23,S2aH4,S2n1208h02,S2n1208h03,S2o1209h05,S2p1223h06,S1d0318h20,S1f0331h02,S1f0331h19,S1f0331h20,S1g0418h23,S1i0702h04,S1i0702h20,S1b0202h24,S1d0318h03,S1g0418h05,S1h0620h01,S1l1015h04,S1l1015h19,S1l1015h24,S2n1208h06,S1c0315h23,S1e0321h05,S1g0418h21,S1j0726h24,S1k0807h20,S1l1015h21,S2m1129h04,S2n1208h20,S2o1209h21</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="H23" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,3,FALSE)</f>
-        <v>S1c0315h23,S1e0321h05,S1g0418h21,S1j0726h24,S1k0807h20,S1l1015h21,S2m1129h04,S2n1208h20,S2o1209h21,S1aH1,S1b0202h20,S1b0202h23,S1e0321h01,S1e0321h03,S1f0331h01,S1f0331h24,S1g0418h01,S1h0620h04,S2m1129h23,S1b0202h03,S1b0202h22,S1c0315h19,S1e0321h19,S1g0418h04,S1h0620h23,S1i0702h19,S1j0726h20,S1j0726h21,S1j0726h22,S2aH1,S2n1208h24,S2p1223h03,S1d0318h04,S1d0318h19,S1f0331h06,S1i0702h02,S1i0702h21,S1i0702h24,S1j0726h06,S1k0807h03,S1l1015h02,S1l1015h20,S2m1129h21,S2m1129h24,S2n1208h19,S2o1209h22,S2p1223h01,S1b0202h24,S1d0318h03,S1g0418h05,S1h0620h01,S1l1015h04,S1l1015h19,S1l1015h24,S2n1208h06,S1d0318h06,S1g0418h03,S1g0418h22,S1i0702h01,S1i0702h06,S1i0702h23,S1j0726h19,S1k0807h19,S1k0807h23,S2aH4,S2n1208h02,S2n1208h03,S2o1209h05,S2p1223h06,S1d0318h20,S1f0331h02,S1f0331h19,S1f0331h20,S1g0418h23,S1i0702h04,S1i0702h20,S1b0202h02,S1b0202h21,S1c0315h21,S1e0321h04,S1g0418h02,S1i0702h22,S1k0807h01,S1l1015h01,S1l1015h03,S2n1208h23,S2o1209h01,S2o1209h02,S2p1223h22,S1b0202h05,S1b0202h06,S1c0315h06,S1e0321h02,S1e0321h21,S1h0620h06,S1h0620h19,S1i0702h03,S1j0726h04,S1j0726h05,S2m1129h19,S2p1223h04,S2p1223h05,S2p1223h23,S1b0202h19,S1c0315h01,S1c0315h24,S1f0331h21,S1g0418h06,S1g0418h24,S1h0620h03,S1j0726h23,S1l1015h23,S2o1209h24,S2p1223h02,S2p1223h21,S2p1223h24,S1aH4,S1b0202h01,S1d0318h05,S1f0331h04,S1k0807h22,S2n1208h05,S2n1208h21,S2o1209h03,S1d0318h01,S1e0321h22,S1f0331h03,S1h0620h22,S1j0726h02,S1k0807h04,S1k0807h05,S1k0807h06,S2m1129h01,S2m1129h02,S2m1129h05,S2m1129h06,S2m1129h20,S2m1129h22,S2n1208h22,S2o1209h04,S2o1209h06,S2p1223h20,S1b0202h04,S1c0315h03,S1d0318h02,S1d0318h23,S1e0321h06,S1f0331h22,S1g0418h19,S1h0620h21,S1h0620h24,S1j0726h03,S1k0807h21,S1l1015h06,S1l1015h22,S2m1129h03,S2n1208h04,S2o1209h19,S1c0315h20,S1d0318h21,S1f0331h05,S1j0726h01,S1k0807h02,S1k0807h24,S2o1209h20,S1c0315h02,S1c0315h22,S1d0318h24,S1e0321h23,S1e0321h24,S1h0620h02,S1h0620h05,S1h0620h20,S2o1209h23,S1c0315h04,S1c0315h05,S1d0318h22,S1e0321h20,S1f0331h23,S1g0418h20,S1i0702h05,S1l1015h05,S2n1208h01,S2p1223h19</v>
+        <v>S1aH4,S1b0202h01,S1d0318h05,S1f0331h04,S1k0807h22,S2n1208h05,S2n1208h21,S2o1209h03,S1b0202h05,S1b0202h06,S1c0315h06,S1e0321h02,S1e0321h21,S1h0620h06,S1h0620h19,S1i0702h03,S1j0726h04,S1j0726h05,S2m1129h19,S2p1223h04,S2p1223h05,S2p1223h23,S1c0315h02,S1c0315h22,S1d0318h24,S1e0321h23,S1e0321h24,S1h0620h02,S1h0620h05,S1h0620h20,S2o1209h23,S1aH1,S1b0202h20,S1b0202h23,S1e0321h01,S1e0321h03,S1f0331h01,S1f0331h24,S1g0418h01,S1h0620h04,S2m1129h23,S1c0315h04,S1c0315h05,S1d0318h22,S1e0321h20,S1f0331h23,S1g0418h20,S1i0702h05,S1l1015h05,S2n1208h01,S2p1223h19,S1b0202h03,S1b0202h22,S1c0315h19,S1e0321h19,S1g0418h04,S1h0620h23,S1i0702h19,S1j0726h20,S1j0726h21,S1j0726h22,S2aH1,S2n1208h24,S2p1223h03,S1b0202h02,S1b0202h21,S1c0315h21,S1e0321h04,S1g0418h02,S1i0702h22,S1k0807h01,S1l1015h01,S1l1015h03,S2n1208h23,S2o1209h01,S2o1209h02,S2p1223h22,S1b0202h04,S1c0315h03,S1d0318h02,S1d0318h23,S1e0321h06,S1f0331h22,S1g0418h19,S1h0620h21,S1h0620h24,S1j0726h03,S1k0807h21,S1l1015h06,S1l1015h22,S2m1129h03,S2n1208h04,S2o1209h19,S1b0202h19,S1c0315h01,S1c0315h24,S1f0331h21,S1g0418h06,S1g0418h24,S1h0620h03,S1j0726h23,S1l1015h23,S2o1209h24,S2p1223h02,S2p1223h21,S2p1223h24,S1c0315h20,S1d0318h21,S1f0331h05,S1j0726h01,S1k0807h02,S1k0807h24,S2o1209h20,S1d0318h04,S1d0318h19,S1f0331h06,S1i0702h02,S1i0702h21,S1i0702h24,S1j0726h06,S1k0807h03,S1l1015h02,S1l1015h20,S2m1129h21,S2m1129h24,S2n1208h19,S2o1209h22,S2p1223h01,S1d0318h01,S1e0321h22,S1f0331h03,S1h0620h22,S1j0726h02,S1k0807h04,S1k0807h05,S1k0807h06,S2m1129h01,S2m1129h02,S2m1129h05,S2m1129h06,S2m1129h20,S2m1129h22,S2n1208h22,S2o1209h04,S2o1209h06,S2p1223h20,S1d0318h06,S1g0418h03,S1g0418h22,S1i0702h01,S1i0702h06,S1i0702h23,S1j0726h19,S1k0807h19,S1k0807h23,S2aH4,S2n1208h02,S2n1208h03,S2o1209h05,S2p1223h06,S1d0318h20,S1f0331h02,S1f0331h19,S1f0331h20,S1g0418h23,S1i0702h04,S1i0702h20,S1b0202h24,S1d0318h03,S1g0418h05,S1h0620h01,S1l1015h04,S1l1015h19,S1l1015h24,S2n1208h06,S1c0315h23,S1e0321h05,S1g0418h21,S1j0726h24,S1k0807h20,S1l1015h21,S2m1129h04,S2n1208h20,S2o1209h21</v>
       </c>
       <c r="I23">
         <f>1+I24</f>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="H24" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,2,FALSE)</f>
-        <v>S1b0202h12,S1e0321h11,S1h0620h12,S1j0726h08,S1k0807h18,S2aH2,S2p1223h10,S1d0318h17,S1f0331h10,S1f0331h15,S1g0418h14,S1i0702h15,S1k0807h16,S2m1129h16,S2p1223h12,S1d0318h11,S1d0318h18,S1e0321h18,S1g0418h13,S1g0418h17,S1i0702h13,S1j0726h10,S1k0807h17,S1l1015h15,S2m1129h17,S2n1208h09,S2p1223h08,S2p1223h17,S1b0202h13,S1b0202h16,S1e0321h09,S1f0331h13,S1g0418h11,S1h0620h11,S1h0620h13,S1i0702h16,S2m1129h15,S2n1208h11,S2n1208h13,S2n1208h16,S2o1209h15,S1b0202h08,S1b0202h11,S1c0315h09,S1c0315h11,S1d0318h15,S1e0321h14,S1f0331h12,S1g0418h07,S1g0418h09,S1h0620h14,S1h0620h18,S1i0702h17,S1l1015h09,S2n1208h08,S2n1208h10,S2o1209h08,S2o1209h10,S2p1223h14,S1c0315h14,S1d0318h12,S1e0321h12,S1g0418h10,S1i0702h07,S1i0702h10,S1j0726h16,S2m1129h13,S2m1129h14,S2o1209h07,S2o1209h14,S2o1209h16,S2o1209h17,S2p1223h09,S1b0202h10,S1b0202h18,S1c0315h08,S1d0318h10,S1g0418h15,S1i0702h11,S1j0726h09,S1j0726h13,S2n1208h14,S1c0315h07,S1c0315h17,S1h0620h08,S1h0620h17,S1i0702h09,S1l1015h16,S2p1223h13,S1b0202h07,S1c0315h12,S1c0315h16,S1e0321h15,S1f0331h09,S1f0331h17,S1h0620h10,S1k0807h12,S1l1015h08,S2m1129h07,S2m1129h09,S2m1129h12,S2n1208h15,S2n1208h18,S2o1209h13,S2p1223h07,S1d0318h13,S1f0331h08,S1f0331h11,S1g0418h08,S1g0418h18,S1j0726h12,S1k0807h07,S1k0807h08,S1l1015h12,S1l1015h13,S1b0202h15,S1c0315h13,S1c0315h18,S1e0321h10,S1e0321h16,S1e0321h17,S1f0331h14,S1f0331h16,S1f0331h18,S1j0726h15,S1k0807h15,S2p1223h15,S1aH3,S1d0318h09,S1d0318h16,S1e0321h07,S1i0702h08,S1i0702h12,S1i0702h18,S1j0726h07,S1j0726h11,S1k0807h09,S1l1015h17,S1l1015h18,S1b0202h09,S1d0318h07,S1e0321h13,S1f0331h07,S1g0418h12,S1h0620h16,S1i0702h14,S1j0726h18,S1k0807h10,S2o1209h11,S2o1209h12,S1d0318h08,S1e0321h08,S1h0620h07,S1j0726h14,S1k0807h13,S1k0807h14,S1l1015h11,S1l1015h14,S2m1129h10,S2m1129h11,S2n1208h07,S2n1208h17,S2o1209h09,S2p1223h11,S1aH2,S1b0202h17,S1c0315h10,S1c0315h15,S1h0620h09,S1k0807h11,S1l1015h07,S2aH3,S2p1223h18,S1b0202h14,S1d0318h14,S1g0418h16,S1h0620h15,S1j0726h17,S1l1015h10,S2m1129h08,S2m1129h18,S2n1208h12,S2o1209h18,S2p1223h16</v>
+        <v>S1b0202h15,S1c0315h13,S1c0315h18,S1e0321h10,S1e0321h16,S1e0321h17,S1f0331h14,S1f0331h16,S1f0331h18,S1j0726h15,S1k0807h15,S2p1223h15,S1b0202h07,S1c0315h12,S1c0315h16,S1e0321h15,S1f0331h09,S1f0331h17,S1h0620h10,S1k0807h12,S1l1015h08,S2m1129h07,S2m1129h09,S2m1129h12,S2n1208h15,S2n1208h18,S2o1209h13,S2p1223h07,S1aH2,S1b0202h17,S1c0315h10,S1c0315h15,S1h0620h09,S1k0807h11,S1l1015h07,S2aH3,S2p1223h18,S1d0318h17,S1f0331h10,S1f0331h15,S1g0418h14,S1i0702h15,S1k0807h16,S2m1129h16,S2p1223h12,S1b0202h14,S1d0318h14,S1g0418h16,S1h0620h15,S1j0726h17,S1l1015h10,S2m1129h08,S2m1129h18,S2n1208h12,S2o1209h18,S2p1223h16,S1d0318h11,S1d0318h18,S1e0321h18,S1g0418h13,S1g0418h17,S1i0702h13,S1j0726h10,S1k0807h17,S1l1015h15,S2m1129h17,S2n1208h09,S2p1223h08,S2p1223h17,S1c0315h07,S1c0315h17,S1h0620h08,S1h0620h17,S1i0702h09,S1l1015h16,S2p1223h13,S1b0202h09,S1d0318h07,S1e0321h13,S1f0331h07,S1g0418h12,S1h0620h16,S1i0702h14,S1j0726h18,S1k0807h10,S2o1209h11,S2o1209h12,S1d0318h13,S1f0331h08,S1f0331h11,S1g0418h08,S1g0418h18,S1j0726h12,S1k0807h07,S1k0807h08,S1l1015h12,S1l1015h13,S1d0318h08,S1e0321h08,S1h0620h07,S1j0726h14,S1k0807h13,S1k0807h14,S1l1015h11,S1l1015h14,S2m1129h10,S2m1129h11,S2n1208h07,S2n1208h17,S2o1209h09,S2p1223h11,S1b0202h13,S1b0202h16,S1e0321h09,S1f0331h13,S1g0418h11,S1h0620h11,S1h0620h13,S1i0702h16,S2m1129h15,S2n1208h11,S2n1208h13,S2n1208h16,S2o1209h15,S1aH3,S1d0318h09,S1d0318h16,S1e0321h07,S1i0702h08,S1i0702h12,S1i0702h18,S1j0726h07,S1j0726h11,S1k0807h09,S1l1015h17,S1l1015h18,S1c0315h14,S1d0318h12,S1e0321h12,S1g0418h10,S1i0702h07,S1i0702h10,S1j0726h16,S2m1129h13,S2m1129h14,S2o1209h07,S2o1209h14,S2o1209h16,S2o1209h17,S2p1223h09,S1b0202h10,S1b0202h18,S1c0315h08,S1d0318h10,S1g0418h15,S1i0702h11,S1j0726h09,S1j0726h13,S2n1208h14,S1b0202h08,S1b0202h11,S1c0315h09,S1c0315h11,S1d0318h15,S1e0321h14,S1f0331h12,S1g0418h07,S1g0418h09,S1h0620h14,S1h0620h18,S1i0702h17,S1l1015h09,S2n1208h08,S2n1208h10,S2o1209h08,S2o1209h10,S2p1223h14,S1b0202h12,S1e0321h11,S1h0620h12,S1j0726h08,S1k0807h18,S2aH2,S2p1223h10</v>
       </c>
       <c r="I24">
         <f>-$I$17</f>
@@ -3057,7 +3057,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0646CEA6-4737-4A6B-931B-3191A79A9B37}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD6DEE2-E6FB-4D26-B24E-600E44C5071D}">
   <dimension ref="A9:AM746"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_s5p5v5_d.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_s5p5v5_d.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E37AB047-8D77-4831-8B76-EBCDBA01EEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{69AD3E0A-57D3-4F24-9EE6-C022592086B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2400,13 +2400,13 @@
     <t>D</t>
   </si>
   <si>
-    <t>S1c0315h07,S1c0315h17,S1h0620h08,S1h0620h17,S1i0702h09,S1l1015h16,S2p1223h13,S1d0318h17,S1f0331h10,S1f0331h15,S1g0418h14,S1i0702h15,S1k0807h16,S2m1129h16,S2p1223h12,S1b0202h08,S1b0202h11,S1c0315h09,S1c0315h11,S1d0318h15,S1e0321h14,S1f0331h12,S1g0418h07,S1g0418h09,S1h0620h14,S1h0620h18,S1i0702h17,S1l1015h09,S2n1208h08,S2n1208h10,S2o1209h08,S2o1209h10,S2p1223h14,S1b0202h14,S1d0318h14,S1g0418h16,S1h0620h15,S1j0726h17,S1l1015h10,S2m1129h08,S2m1129h18,S2n1208h12,S2o1209h18,S2p1223h16,S1b0202h09,S1d0318h07,S1e0321h13,S1f0331h07,S1g0418h12,S1h0620h16,S1i0702h14,S1j0726h18,S1k0807h10,S2o1209h11,S2o1209h12,S1d0318h08,S1e0321h08,S1h0620h07,S1j0726h14,S1k0807h13,S1k0807h14,S1l1015h11,S1l1015h14,S2m1129h10,S2m1129h11,S2n1208h07,S2n1208h17,S2o1209h09,S2p1223h11,S1b0202h15,S1c0315h13,S1c0315h18,S1e0321h10,S1e0321h16,S1e0321h17,S1f0331h14,S1f0331h16,S1f0331h18,S1j0726h15,S1k0807h15,S2p1223h15,S1d0318h13,S1f0331h08,S1f0331h11,S1g0418h08,S1g0418h18,S1j0726h12,S1k0807h07,S1k0807h08,S1l1015h12,S1l1015h13,S1b0202h12,S1e0321h11,S1h0620h12,S1j0726h08,S1k0807h18,S2aH2,S2p1223h10,S1b0202h13,S1b0202h16,S1e0321h09,S1f0331h13,S1g0418h11,S1h0620h11,S1h0620h13,S1i0702h16,S2m1129h15,S2n1208h11,S2n1208h13,S2n1208h16,S2o1209h15,S1aH3,S1d0318h09,S1d0318h16,S1e0321h07,S1i0702h08,S1i0702h12,S1i0702h18,S1j0726h07,S1j0726h11,S1k0807h09,S1l1015h17,S1l1015h18,S1b0202h07,S1c0315h12,S1c0315h16,S1e0321h15,S1f0331h09,S1f0331h17,S1h0620h10,S1k0807h12,S1l1015h08,S2m1129h07,S2m1129h09,S2m1129h12,S2n1208h15,S2n1208h18,S2o1209h13,S2p1223h07,S1d0318h11,S1d0318h18,S1e0321h18,S1g0418h13,S1g0418h17,S1i0702h13,S1j0726h10,S1k0807h17,S1l1015h15,S2m1129h17,S2n1208h09,S2p1223h08,S2p1223h17,S1c0315h14,S1d0318h12,S1e0321h12,S1g0418h10,S1i0702h07,S1i0702h10,S1j0726h16,S2m1129h13,S2m1129h14,S2o1209h07,S2o1209h14,S2o1209h16,S2o1209h17,S2p1223h09,S1aH2,S1b0202h17,S1c0315h10,S1c0315h15,S1h0620h09,S1k0807h11,S1l1015h07,S2aH3,S2p1223h18,S1b0202h10,S1b0202h18,S1c0315h08,S1d0318h10,S1g0418h15,S1i0702h11,S1j0726h09,S1j0726h13,S2n1208h14</t>
+    <t>S1c0315h14,S1d0318h12,S1e0321h12,S1g0418h10,S1i0702h07,S1i0702h10,S1j0726h16,S2m1129h13,S2m1129h14,S2o1209h07,S2o1209h14,S2o1209h16,S2o1209h17,S2p1223h09,S1c0315h07,S1c0315h17,S1h0620h08,S1h0620h17,S1i0702h09,S1l1015h16,S2p1223h13,S1b0202h10,S1b0202h18,S1c0315h08,S1d0318h10,S1g0418h15,S1i0702h11,S1j0726h09,S1j0726h13,S2n1208h14,S1b0202h15,S1c0315h13,S1c0315h18,S1e0321h10,S1e0321h16,S1e0321h17,S1f0331h14,S1f0331h16,S1f0331h18,S1j0726h15,S1k0807h15,S2p1223h15,S1b0202h07,S1c0315h12,S1c0315h16,S1e0321h15,S1f0331h09,S1f0331h17,S1h0620h10,S1k0807h12,S1l1015h08,S2m1129h07,S2m1129h09,S2m1129h12,S2n1208h15,S2n1208h18,S2o1209h13,S2p1223h07,S1b0202h08,S1b0202h11,S1c0315h09,S1c0315h11,S1d0318h15,S1e0321h14,S1f0331h12,S1g0418h07,S1g0418h09,S1h0620h14,S1h0620h18,S1i0702h17,S1l1015h09,S2n1208h08,S2n1208h10,S2o1209h08,S2o1209h10,S2p1223h14,S1b0202h09,S1d0318h07,S1e0321h13,S1f0331h07,S1g0418h12,S1h0620h16,S1i0702h14,S1j0726h18,S1k0807h10,S2o1209h11,S2o1209h12,S1b0202h12,S1e0321h11,S1h0620h12,S1j0726h08,S1k0807h18,S2aH2,S2p1223h10,S1d0318h13,S1f0331h08,S1f0331h11,S1g0418h08,S1g0418h18,S1j0726h12,S1k0807h07,S1k0807h08,S1l1015h12,S1l1015h13,S1b0202h14,S1d0318h14,S1g0418h16,S1h0620h15,S1j0726h17,S1l1015h10,S2m1129h08,S2m1129h18,S2n1208h12,S2o1209h18,S2p1223h16,S1aH3,S1d0318h09,S1d0318h16,S1e0321h07,S1i0702h08,S1i0702h12,S1i0702h18,S1j0726h07,S1j0726h11,S1k0807h09,S1l1015h17,S1l1015h18,S1aH2,S1b0202h17,S1c0315h10,S1c0315h15,S1h0620h09,S1k0807h11,S1l1015h07,S2aH3,S2p1223h18,S1d0318h17,S1f0331h10,S1f0331h15,S1g0418h14,S1i0702h15,S1k0807h16,S2m1129h16,S2p1223h12,S1d0318h11,S1d0318h18,S1e0321h18,S1g0418h13,S1g0418h17,S1i0702h13,S1j0726h10,S1k0807h17,S1l1015h15,S2m1129h17,S2n1208h09,S2p1223h08,S2p1223h17,S1b0202h13,S1b0202h16,S1e0321h09,S1f0331h13,S1g0418h11,S1h0620h11,S1h0620h13,S1i0702h16,S2m1129h15,S2n1208h11,S2n1208h13,S2n1208h16,S2o1209h15,S1d0318h08,S1e0321h08,S1h0620h07,S1j0726h14,S1k0807h13,S1k0807h14,S1l1015h11,S1l1015h14,S2m1129h10,S2m1129h11,S2n1208h07,S2n1208h17,S2o1209h09,S2p1223h11</t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>S1b0202h02,S1b0202h21,S1c0315h21,S1e0321h04,S1g0418h02,S1i0702h22,S1k0807h01,S1l1015h01,S1l1015h03,S2n1208h23,S2o1209h01,S2o1209h02,S2p1223h22,S1aH1,S1b0202h20,S1b0202h23,S1e0321h01,S1e0321h03,S1f0331h01,S1f0331h24,S1g0418h01,S1h0620h04,S2m1129h23,S1b0202h24,S1d0318h03,S1g0418h05,S1h0620h01,S1l1015h04,S1l1015h19,S1l1015h24,S2n1208h06,S1c0315h04,S1c0315h05,S1d0318h22,S1e0321h20,S1f0331h23,S1g0418h20,S1i0702h05,S1l1015h05,S2n1208h01,S2p1223h19,S1b0202h04,S1c0315h03,S1d0318h02,S1d0318h23,S1e0321h06,S1f0331h22,S1g0418h19,S1h0620h21,S1h0620h24,S1j0726h03,S1k0807h21,S1l1015h06,S1l1015h22,S2m1129h03,S2n1208h04,S2o1209h19,S1c0315h20,S1d0318h21,S1f0331h05,S1j0726h01,S1k0807h02,S1k0807h24,S2o1209h20,S1aH4,S1b0202h01,S1d0318h05,S1f0331h04,S1k0807h22,S2n1208h05,S2n1208h21,S2o1209h03,S1b0202h19,S1c0315h01,S1c0315h24,S1f0331h21,S1g0418h06,S1g0418h24,S1h0620h03,S1j0726h23,S1l1015h23,S2o1209h24,S2p1223h02,S2p1223h21,S2p1223h24,S1c0315h23,S1e0321h05,S1g0418h21,S1j0726h24,S1k0807h20,S1l1015h21,S2m1129h04,S2n1208h20,S2o1209h21,S1d0318h04,S1d0318h19,S1f0331h06,S1i0702h02,S1i0702h21,S1i0702h24,S1j0726h06,S1k0807h03,S1l1015h02,S1l1015h20,S2m1129h21,S2m1129h24,S2n1208h19,S2o1209h22,S2p1223h01,S1d0318h01,S1e0321h22,S1f0331h03,S1h0620h22,S1j0726h02,S1k0807h04,S1k0807h05,S1k0807h06,S2m1129h01,S2m1129h02,S2m1129h05,S2m1129h06,S2m1129h20,S2m1129h22,S2n1208h22,S2o1209h04,S2o1209h06,S2p1223h20,S1b0202h05,S1b0202h06,S1c0315h06,S1e0321h02,S1e0321h21,S1h0620h06,S1h0620h19,S1i0702h03,S1j0726h04,S1j0726h05,S2m1129h19,S2p1223h04,S2p1223h05,S2p1223h23,S1b0202h03,S1b0202h22,S1c0315h19,S1e0321h19,S1g0418h04,S1h0620h23,S1i0702h19,S1j0726h20,S1j0726h21,S1j0726h22,S2aH1,S2n1208h24,S2p1223h03,S1d0318h06,S1g0418h03,S1g0418h22,S1i0702h01,S1i0702h06,S1i0702h23,S1j0726h19,S1k0807h19,S1k0807h23,S2aH4,S2n1208h02,S2n1208h03,S2o1209h05,S2p1223h06,S1c0315h02,S1c0315h22,S1d0318h24,S1e0321h23,S1e0321h24,S1h0620h02,S1h0620h05,S1h0620h20,S2o1209h23,S1d0318h20,S1f0331h02,S1f0331h19,S1f0331h20,S1g0418h23,S1i0702h04,S1i0702h20</t>
+    <t>S1d0318h06,S1g0418h03,S1g0418h22,S1i0702h01,S1i0702h06,S1i0702h23,S1j0726h19,S1k0807h19,S1k0807h23,S2aH4,S2n1208h02,S2n1208h03,S2o1209h05,S2p1223h06,S1b0202h02,S1b0202h21,S1c0315h21,S1e0321h04,S1g0418h02,S1i0702h22,S1k0807h01,S1l1015h01,S1l1015h03,S2n1208h23,S2o1209h01,S2o1209h02,S2p1223h22,S1d0318h20,S1f0331h02,S1f0331h19,S1f0331h20,S1g0418h23,S1i0702h04,S1i0702h20,S1aH4,S1b0202h01,S1d0318h05,S1f0331h04,S1k0807h22,S2n1208h05,S2n1208h21,S2o1209h03,S1b0202h05,S1b0202h06,S1c0315h06,S1e0321h02,S1e0321h21,S1h0620h06,S1h0620h19,S1i0702h03,S1j0726h04,S1j0726h05,S2m1129h19,S2p1223h04,S2p1223h05,S2p1223h23,S1b0202h24,S1d0318h03,S1g0418h05,S1h0620h01,S1l1015h04,S1l1015h19,S1l1015h24,S2n1208h06,S1b0202h04,S1c0315h03,S1d0318h02,S1d0318h23,S1e0321h06,S1f0331h22,S1g0418h19,S1h0620h21,S1h0620h24,S1j0726h03,S1k0807h21,S1l1015h06,S1l1015h22,S2m1129h03,S2n1208h04,S2o1209h19,S1c0315h23,S1e0321h05,S1g0418h21,S1j0726h24,S1k0807h20,S1l1015h21,S2m1129h04,S2n1208h20,S2o1209h21,S1b0202h19,S1c0315h01,S1c0315h24,S1f0331h21,S1g0418h06,S1g0418h24,S1h0620h03,S1j0726h23,S1l1015h23,S2o1209h24,S2p1223h02,S2p1223h21,S2p1223h24,S1c0315h04,S1c0315h05,S1d0318h22,S1e0321h20,S1f0331h23,S1g0418h20,S1i0702h05,S1l1015h05,S2n1208h01,S2p1223h19,S1d0318h01,S1e0321h22,S1f0331h03,S1h0620h22,S1j0726h02,S1k0807h04,S1k0807h05,S1k0807h06,S2m1129h01,S2m1129h02,S2m1129h05,S2m1129h06,S2m1129h20,S2m1129h22,S2n1208h22,S2o1209h04,S2o1209h06,S2p1223h20,S1c0315h02,S1c0315h22,S1d0318h24,S1e0321h23,S1e0321h24,S1h0620h02,S1h0620h05,S1h0620h20,S2o1209h23,S1aH1,S1b0202h20,S1b0202h23,S1e0321h01,S1e0321h03,S1f0331h01,S1f0331h24,S1g0418h01,S1h0620h04,S2m1129h23,S1b0202h03,S1b0202h22,S1c0315h19,S1e0321h19,S1g0418h04,S1h0620h23,S1i0702h19,S1j0726h20,S1j0726h21,S1j0726h22,S2aH1,S2n1208h24,S2p1223h03,S1d0318h04,S1d0318h19,S1f0331h06,S1i0702h02,S1i0702h21,S1i0702h24,S1j0726h06,S1k0807h03,S1l1015h02,S1l1015h20,S2m1129h21,S2m1129h24,S2n1208h19,S2o1209h22,S2p1223h01,S1c0315h20,S1d0318h21,S1f0331h05,S1j0726h01,S1k0807h02,S1k0807h24,S2o1209h20</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="H23" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,3,FALSE)</f>
-        <v>S1b0202h02,S1b0202h21,S1c0315h21,S1e0321h04,S1g0418h02,S1i0702h22,S1k0807h01,S1l1015h01,S1l1015h03,S2n1208h23,S2o1209h01,S2o1209h02,S2p1223h22,S1aH1,S1b0202h20,S1b0202h23,S1e0321h01,S1e0321h03,S1f0331h01,S1f0331h24,S1g0418h01,S1h0620h04,S2m1129h23,S1b0202h24,S1d0318h03,S1g0418h05,S1h0620h01,S1l1015h04,S1l1015h19,S1l1015h24,S2n1208h06,S1c0315h04,S1c0315h05,S1d0318h22,S1e0321h20,S1f0331h23,S1g0418h20,S1i0702h05,S1l1015h05,S2n1208h01,S2p1223h19,S1b0202h04,S1c0315h03,S1d0318h02,S1d0318h23,S1e0321h06,S1f0331h22,S1g0418h19,S1h0620h21,S1h0620h24,S1j0726h03,S1k0807h21,S1l1015h06,S1l1015h22,S2m1129h03,S2n1208h04,S2o1209h19,S1c0315h20,S1d0318h21,S1f0331h05,S1j0726h01,S1k0807h02,S1k0807h24,S2o1209h20,S1aH4,S1b0202h01,S1d0318h05,S1f0331h04,S1k0807h22,S2n1208h05,S2n1208h21,S2o1209h03,S1b0202h19,S1c0315h01,S1c0315h24,S1f0331h21,S1g0418h06,S1g0418h24,S1h0620h03,S1j0726h23,S1l1015h23,S2o1209h24,S2p1223h02,S2p1223h21,S2p1223h24,S1c0315h23,S1e0321h05,S1g0418h21,S1j0726h24,S1k0807h20,S1l1015h21,S2m1129h04,S2n1208h20,S2o1209h21,S1d0318h04,S1d0318h19,S1f0331h06,S1i0702h02,S1i0702h21,S1i0702h24,S1j0726h06,S1k0807h03,S1l1015h02,S1l1015h20,S2m1129h21,S2m1129h24,S2n1208h19,S2o1209h22,S2p1223h01,S1d0318h01,S1e0321h22,S1f0331h03,S1h0620h22,S1j0726h02,S1k0807h04,S1k0807h05,S1k0807h06,S2m1129h01,S2m1129h02,S2m1129h05,S2m1129h06,S2m1129h20,S2m1129h22,S2n1208h22,S2o1209h04,S2o1209h06,S2p1223h20,S1b0202h05,S1b0202h06,S1c0315h06,S1e0321h02,S1e0321h21,S1h0620h06,S1h0620h19,S1i0702h03,S1j0726h04,S1j0726h05,S2m1129h19,S2p1223h04,S2p1223h05,S2p1223h23,S1b0202h03,S1b0202h22,S1c0315h19,S1e0321h19,S1g0418h04,S1h0620h23,S1i0702h19,S1j0726h20,S1j0726h21,S1j0726h22,S2aH1,S2n1208h24,S2p1223h03,S1d0318h06,S1g0418h03,S1g0418h22,S1i0702h01,S1i0702h06,S1i0702h23,S1j0726h19,S1k0807h19,S1k0807h23,S2aH4,S2n1208h02,S2n1208h03,S2o1209h05,S2p1223h06,S1c0315h02,S1c0315h22,S1d0318h24,S1e0321h23,S1e0321h24,S1h0620h02,S1h0620h05,S1h0620h20,S2o1209h23,S1d0318h20,S1f0331h02,S1f0331h19,S1f0331h20,S1g0418h23,S1i0702h04,S1i0702h20</v>
+        <v>S1d0318h06,S1g0418h03,S1g0418h22,S1i0702h01,S1i0702h06,S1i0702h23,S1j0726h19,S1k0807h19,S1k0807h23,S2aH4,S2n1208h02,S2n1208h03,S2o1209h05,S2p1223h06,S1b0202h02,S1b0202h21,S1c0315h21,S1e0321h04,S1g0418h02,S1i0702h22,S1k0807h01,S1l1015h01,S1l1015h03,S2n1208h23,S2o1209h01,S2o1209h02,S2p1223h22,S1d0318h20,S1f0331h02,S1f0331h19,S1f0331h20,S1g0418h23,S1i0702h04,S1i0702h20,S1aH4,S1b0202h01,S1d0318h05,S1f0331h04,S1k0807h22,S2n1208h05,S2n1208h21,S2o1209h03,S1b0202h05,S1b0202h06,S1c0315h06,S1e0321h02,S1e0321h21,S1h0620h06,S1h0620h19,S1i0702h03,S1j0726h04,S1j0726h05,S2m1129h19,S2p1223h04,S2p1223h05,S2p1223h23,S1b0202h24,S1d0318h03,S1g0418h05,S1h0620h01,S1l1015h04,S1l1015h19,S1l1015h24,S2n1208h06,S1b0202h04,S1c0315h03,S1d0318h02,S1d0318h23,S1e0321h06,S1f0331h22,S1g0418h19,S1h0620h21,S1h0620h24,S1j0726h03,S1k0807h21,S1l1015h06,S1l1015h22,S2m1129h03,S2n1208h04,S2o1209h19,S1c0315h23,S1e0321h05,S1g0418h21,S1j0726h24,S1k0807h20,S1l1015h21,S2m1129h04,S2n1208h20,S2o1209h21,S1b0202h19,S1c0315h01,S1c0315h24,S1f0331h21,S1g0418h06,S1g0418h24,S1h0620h03,S1j0726h23,S1l1015h23,S2o1209h24,S2p1223h02,S2p1223h21,S2p1223h24,S1c0315h04,S1c0315h05,S1d0318h22,S1e0321h20,S1f0331h23,S1g0418h20,S1i0702h05,S1l1015h05,S2n1208h01,S2p1223h19,S1d0318h01,S1e0321h22,S1f0331h03,S1h0620h22,S1j0726h02,S1k0807h04,S1k0807h05,S1k0807h06,S2m1129h01,S2m1129h02,S2m1129h05,S2m1129h06,S2m1129h20,S2m1129h22,S2n1208h22,S2o1209h04,S2o1209h06,S2p1223h20,S1c0315h02,S1c0315h22,S1d0318h24,S1e0321h23,S1e0321h24,S1h0620h02,S1h0620h05,S1h0620h20,S2o1209h23,S1aH1,S1b0202h20,S1b0202h23,S1e0321h01,S1e0321h03,S1f0331h01,S1f0331h24,S1g0418h01,S1h0620h04,S2m1129h23,S1b0202h03,S1b0202h22,S1c0315h19,S1e0321h19,S1g0418h04,S1h0620h23,S1i0702h19,S1j0726h20,S1j0726h21,S1j0726h22,S2aH1,S2n1208h24,S2p1223h03,S1d0318h04,S1d0318h19,S1f0331h06,S1i0702h02,S1i0702h21,S1i0702h24,S1j0726h06,S1k0807h03,S1l1015h02,S1l1015h20,S2m1129h21,S2m1129h24,S2n1208h19,S2o1209h22,S2p1223h01,S1c0315h20,S1d0318h21,S1f0331h05,S1j0726h01,S1k0807h02,S1k0807h24,S2o1209h20</v>
       </c>
       <c r="I23">
         <f>1+I24</f>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="H24" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,2,FALSE)</f>
-        <v>S1c0315h07,S1c0315h17,S1h0620h08,S1h0620h17,S1i0702h09,S1l1015h16,S2p1223h13,S1d0318h17,S1f0331h10,S1f0331h15,S1g0418h14,S1i0702h15,S1k0807h16,S2m1129h16,S2p1223h12,S1b0202h08,S1b0202h11,S1c0315h09,S1c0315h11,S1d0318h15,S1e0321h14,S1f0331h12,S1g0418h07,S1g0418h09,S1h0620h14,S1h0620h18,S1i0702h17,S1l1015h09,S2n1208h08,S2n1208h10,S2o1209h08,S2o1209h10,S2p1223h14,S1b0202h14,S1d0318h14,S1g0418h16,S1h0620h15,S1j0726h17,S1l1015h10,S2m1129h08,S2m1129h18,S2n1208h12,S2o1209h18,S2p1223h16,S1b0202h09,S1d0318h07,S1e0321h13,S1f0331h07,S1g0418h12,S1h0620h16,S1i0702h14,S1j0726h18,S1k0807h10,S2o1209h11,S2o1209h12,S1d0318h08,S1e0321h08,S1h0620h07,S1j0726h14,S1k0807h13,S1k0807h14,S1l1015h11,S1l1015h14,S2m1129h10,S2m1129h11,S2n1208h07,S2n1208h17,S2o1209h09,S2p1223h11,S1b0202h15,S1c0315h13,S1c0315h18,S1e0321h10,S1e0321h16,S1e0321h17,S1f0331h14,S1f0331h16,S1f0331h18,S1j0726h15,S1k0807h15,S2p1223h15,S1d0318h13,S1f0331h08,S1f0331h11,S1g0418h08,S1g0418h18,S1j0726h12,S1k0807h07,S1k0807h08,S1l1015h12,S1l1015h13,S1b0202h12,S1e0321h11,S1h0620h12,S1j0726h08,S1k0807h18,S2aH2,S2p1223h10,S1b0202h13,S1b0202h16,S1e0321h09,S1f0331h13,S1g0418h11,S1h0620h11,S1h0620h13,S1i0702h16,S2m1129h15,S2n1208h11,S2n1208h13,S2n1208h16,S2o1209h15,S1aH3,S1d0318h09,S1d0318h16,S1e0321h07,S1i0702h08,S1i0702h12,S1i0702h18,S1j0726h07,S1j0726h11,S1k0807h09,S1l1015h17,S1l1015h18,S1b0202h07,S1c0315h12,S1c0315h16,S1e0321h15,S1f0331h09,S1f0331h17,S1h0620h10,S1k0807h12,S1l1015h08,S2m1129h07,S2m1129h09,S2m1129h12,S2n1208h15,S2n1208h18,S2o1209h13,S2p1223h07,S1d0318h11,S1d0318h18,S1e0321h18,S1g0418h13,S1g0418h17,S1i0702h13,S1j0726h10,S1k0807h17,S1l1015h15,S2m1129h17,S2n1208h09,S2p1223h08,S2p1223h17,S1c0315h14,S1d0318h12,S1e0321h12,S1g0418h10,S1i0702h07,S1i0702h10,S1j0726h16,S2m1129h13,S2m1129h14,S2o1209h07,S2o1209h14,S2o1209h16,S2o1209h17,S2p1223h09,S1aH2,S1b0202h17,S1c0315h10,S1c0315h15,S1h0620h09,S1k0807h11,S1l1015h07,S2aH3,S2p1223h18,S1b0202h10,S1b0202h18,S1c0315h08,S1d0318h10,S1g0418h15,S1i0702h11,S1j0726h09,S1j0726h13,S2n1208h14</v>
+        <v>S1c0315h14,S1d0318h12,S1e0321h12,S1g0418h10,S1i0702h07,S1i0702h10,S1j0726h16,S2m1129h13,S2m1129h14,S2o1209h07,S2o1209h14,S2o1209h16,S2o1209h17,S2p1223h09,S1c0315h07,S1c0315h17,S1h0620h08,S1h0620h17,S1i0702h09,S1l1015h16,S2p1223h13,S1b0202h10,S1b0202h18,S1c0315h08,S1d0318h10,S1g0418h15,S1i0702h11,S1j0726h09,S1j0726h13,S2n1208h14,S1b0202h15,S1c0315h13,S1c0315h18,S1e0321h10,S1e0321h16,S1e0321h17,S1f0331h14,S1f0331h16,S1f0331h18,S1j0726h15,S1k0807h15,S2p1223h15,S1b0202h07,S1c0315h12,S1c0315h16,S1e0321h15,S1f0331h09,S1f0331h17,S1h0620h10,S1k0807h12,S1l1015h08,S2m1129h07,S2m1129h09,S2m1129h12,S2n1208h15,S2n1208h18,S2o1209h13,S2p1223h07,S1b0202h08,S1b0202h11,S1c0315h09,S1c0315h11,S1d0318h15,S1e0321h14,S1f0331h12,S1g0418h07,S1g0418h09,S1h0620h14,S1h0620h18,S1i0702h17,S1l1015h09,S2n1208h08,S2n1208h10,S2o1209h08,S2o1209h10,S2p1223h14,S1b0202h09,S1d0318h07,S1e0321h13,S1f0331h07,S1g0418h12,S1h0620h16,S1i0702h14,S1j0726h18,S1k0807h10,S2o1209h11,S2o1209h12,S1b0202h12,S1e0321h11,S1h0620h12,S1j0726h08,S1k0807h18,S2aH2,S2p1223h10,S1d0318h13,S1f0331h08,S1f0331h11,S1g0418h08,S1g0418h18,S1j0726h12,S1k0807h07,S1k0807h08,S1l1015h12,S1l1015h13,S1b0202h14,S1d0318h14,S1g0418h16,S1h0620h15,S1j0726h17,S1l1015h10,S2m1129h08,S2m1129h18,S2n1208h12,S2o1209h18,S2p1223h16,S1aH3,S1d0318h09,S1d0318h16,S1e0321h07,S1i0702h08,S1i0702h12,S1i0702h18,S1j0726h07,S1j0726h11,S1k0807h09,S1l1015h17,S1l1015h18,S1aH2,S1b0202h17,S1c0315h10,S1c0315h15,S1h0620h09,S1k0807h11,S1l1015h07,S2aH3,S2p1223h18,S1d0318h17,S1f0331h10,S1f0331h15,S1g0418h14,S1i0702h15,S1k0807h16,S2m1129h16,S2p1223h12,S1d0318h11,S1d0318h18,S1e0321h18,S1g0418h13,S1g0418h17,S1i0702h13,S1j0726h10,S1k0807h17,S1l1015h15,S2m1129h17,S2n1208h09,S2p1223h08,S2p1223h17,S1b0202h13,S1b0202h16,S1e0321h09,S1f0331h13,S1g0418h11,S1h0620h11,S1h0620h13,S1i0702h16,S2m1129h15,S2n1208h11,S2n1208h13,S2n1208h16,S2o1209h15,S1d0318h08,S1e0321h08,S1h0620h07,S1j0726h14,S1k0807h13,S1k0807h14,S1l1015h11,S1l1015h14,S2m1129h10,S2m1129h11,S2n1208h07,S2n1208h17,S2o1209h09,S2p1223h11</v>
       </c>
       <c r="I24">
         <f>-$I$17</f>
@@ -3057,7 +3057,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E6F80D-3A95-4E39-98A2-EEEAC4C4D9C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04350625-69BE-4B55-A7DF-1F23BA3D4718}">
   <dimension ref="A9:AM746"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3280,10 +3280,10 @@
         <v>0.40164672570578674</v>
       </c>
       <c r="AK11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AL11">
-        <v>0.16266774641369736</v>
+        <v>1.0373322535863025</v>
       </c>
       <c r="AM11" t="s">
         <v>794</v>
@@ -3372,10 +3372,10 @@
         <v>0.1653746519597612</v>
       </c>
       <c r="AK12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AL12">
-        <v>1.0373322535863025</v>
+        <v>0.16266774641369736</v>
       </c>
       <c r="AM12" t="s">
         <v>794</v>
